--- a/ilpa/ILPA-Best-Practices-Capital-Call-and-Distribution-Notice-Template-v1.2.xlsx
+++ b/ilpa/ILPA-Best-Practices-Capital-Call-and-Distribution-Notice-Template-v1.2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdematteis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\devroot\wiki2019\ilpa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9CE9ED-D5D6-478B-8EF4-212DB3D73DF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10860" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10860" windowHeight="10860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="3" r:id="rId1"/>
@@ -20,15 +19,15 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Impact">'Trans. Type Definitions'!$F$2:$F$3</definedName>
+    <definedName name="Impact">'Trans. Type Definitions'!$G$2:$G$3</definedName>
     <definedName name="Impacts">[1]Definitions!$E$2:$E$4</definedName>
-    <definedName name="Inpact">'Trans. Type Definitions'!$F$2:$F$4</definedName>
+    <definedName name="Inpact">'Trans. Type Definitions'!$G$2:$G$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Template!$A$1:$L$116</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Trans. Type Definitions'!$B$1:$D$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Trans. Type Definitions'!$B$1:$E$42</definedName>
     <definedName name="TransactionType">'Trans. Type Definitions'!$B$2:$B$36</definedName>
     <definedName name="TransTypes">[1]Definitions!$A$2:$A$21</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="216">
   <si>
     <t>Impact on Unfunded Balance (Current Notice)</t>
   </si>
@@ -1523,28 +1522,1565 @@
       <t xml:space="preserve"> Fund</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>Call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>款：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投资</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>款：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内部承诺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>款：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外部承诺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>款：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合作伙伴费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>款：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合作伙伴费用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>审计和税务准备</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>款：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合伙费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>银行费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>款：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合伙费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>托管费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>款：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合伙企业开支</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尽职调查</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>款：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合伙企业费用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>法律</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>款：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合作伙伴费用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在最左边的专栏中详细说明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>款：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配售代理费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>款：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周转金</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在极左栏提供说明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已实现的增益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现金</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已实现增益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股票</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已实现损失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现金</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已实现亏损</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库存</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资本回报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现金</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资本回报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资本回报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合伙费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股本回报率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股票</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所谓的超额资本的回归</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后续的收盘价</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扣缴税款</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>临时资本回报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>临时回资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合伙费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>临时资本回报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投资</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>款：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的贡献</t>
+    </r>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>款：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合伙企业开支</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会计、行政和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> IT</t>
+    </r>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>款：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合作伙伴费用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机构成本</t>
+    </r>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>款：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合作费用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他商旅和娱乐</t>
+    </r>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Call</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>款：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后续关单利息</t>
+    </r>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？？</t>
+    </r>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1842,6 +3378,34 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2403,10 +3967,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -2430,7 +3994,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -2449,7 +4013,7 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -2488,10 +4052,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2507,10 +4071,10 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2533,22 +4097,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="13" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="13" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2569,7 +4133,7 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -2581,14 +4145,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -2605,7 +4169,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2661,7 +4225,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -2744,37 +4308,37 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -2789,19 +4353,19 @@
     <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="30" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="30" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="30" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="30" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2906,19 +4470,324 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="30" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="30" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="18" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="18" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2954,327 +4823,37 @@
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="18" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="18" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="30" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="30" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3315,7 +4894,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3510,7 +5089,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3585,23 +5164,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3637,23 +5199,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3829,42 +5374,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.77734375" style="40" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="57.625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.75" style="40" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="41" customWidth="1"/>
     <col min="7" max="7" width="14" style="41" customWidth="1"/>
     <col min="8" max="8" width="2" style="57" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="57" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="57" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5546875" style="40" customWidth="1"/>
-    <col min="12" max="12" width="4.44140625" style="40" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.6640625" style="41" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" style="40" customWidth="1"/>
-    <col min="17" max="17" width="1.6640625" style="40" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="40"/>
+    <col min="10" max="10" width="10.75" style="57" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="40" customWidth="1"/>
+    <col min="12" max="12" width="4.5" style="40" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.625" style="41" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="40" customWidth="1"/>
+    <col min="17" max="17" width="1.625" style="40" customWidth="1"/>
+    <col min="18" max="16384" width="9.125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="218" t="s">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="195" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="220"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="197"/>
       <c r="D1" s="6"/>
       <c r="E1" s="109" t="s">
         <v>75</v>
@@ -3880,14 +5425,14 @@
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
     </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="147" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="198" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="222"/>
+      <c r="C2" s="199"/>
       <c r="D2" s="161" t="s">
         <v>77</v>
       </c>
@@ -3901,12 +5446,12 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="223" t="s">
+    <row r="3" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="200" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="224"/>
-      <c r="C3" s="225"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="202"/>
       <c r="D3" s="154"/>
       <c r="E3" s="152"/>
       <c r="F3" s="154"/>
@@ -3918,19 +5463,19 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="226">
+      <c r="B4" s="203">
         <v>42527</v>
       </c>
-      <c r="C4" s="227"/>
-      <c r="D4" s="252" t="s">
+      <c r="C4" s="204"/>
+      <c r="D4" s="166" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="235"/>
-      <c r="F4" s="235"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
       <c r="G4" s="154"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -3939,19 +5484,19 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="214">
+      <c r="B5" s="193">
         <v>42541</v>
       </c>
-      <c r="C5" s="215"/>
-      <c r="D5" s="252" t="s">
+      <c r="C5" s="194"/>
+      <c r="D5" s="166" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="235"/>
-      <c r="F5" s="235"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
       <c r="G5" s="154"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -3960,19 +5505,19 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="214" t="s">
+      <c r="B6" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="215"/>
-      <c r="D6" s="252" t="s">
+      <c r="C6" s="194"/>
+      <c r="D6" s="166" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="235"/>
-      <c r="F6" s="235"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
       <c r="G6" s="154"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -3981,19 +5526,19 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="209">
+      <c r="B7" s="205">
         <v>1000000</v>
       </c>
-      <c r="C7" s="210"/>
-      <c r="D7" s="252" t="s">
+      <c r="C7" s="206"/>
+      <c r="D7" s="166" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="235"/>
-      <c r="F7" s="235"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
       <c r="G7" s="154"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -4002,25 +5547,25 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="209">
+      <c r="B8" s="205">
         <v>1000000000</v>
       </c>
-      <c r="C8" s="210"/>
-      <c r="D8" s="252" t="s">
+      <c r="C8" s="206"/>
+      <c r="D8" s="166" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="235"/>
-      <c r="F8" s="235"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
       <c r="G8" s="154"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:15" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="148" t="s">
         <v>2</v>
       </c>
@@ -4038,7 +5583,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>137</v>
       </c>
@@ -4048,17 +5593,17 @@
       <c r="C10" s="99">
         <v>-10000000</v>
       </c>
-      <c r="D10" s="252" t="s">
+      <c r="D10" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="235"/>
-      <c r="F10" s="235"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
       <c r="G10" s="156"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>138</v>
       </c>
@@ -4068,17 +5613,17 @@
       <c r="C11" s="101">
         <v>0</v>
       </c>
-      <c r="D11" s="252" t="s">
+      <c r="D11" s="166" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="235"/>
-      <c r="F11" s="235"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
       <c r="G11" s="156"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>121</v>
       </c>
@@ -4098,12 +5643,12 @@
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="211" t="s">
+    <row r="13" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="207" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="212"/>
-      <c r="C13" s="213"/>
+      <c r="B13" s="208"/>
+      <c r="C13" s="209"/>
       <c r="D13" s="155"/>
       <c r="E13" s="156"/>
       <c r="F13" s="156"/>
@@ -4112,20 +5657,20 @@
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="214" t="s">
+      <c r="B14" s="193" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="215"/>
-      <c r="D14" s="235" t="s">
+      <c r="C14" s="194"/>
+      <c r="D14" s="167" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="235"/>
-      <c r="F14" s="235"/>
-      <c r="G14" s="235"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -4133,20 +5678,20 @@
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="216">
+      <c r="B15" s="210">
         <v>50000000</v>
       </c>
-      <c r="C15" s="217"/>
-      <c r="D15" s="235" t="s">
+      <c r="C15" s="211"/>
+      <c r="D15" s="167" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="235"/>
-      <c r="F15" s="235"/>
-      <c r="G15" s="235"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -4154,15 +5699,15 @@
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="146" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="248">
+      <c r="B16" s="187">
         <f>IF(B8=0,0,B15/B8)</f>
         <v>0.05</v>
       </c>
-      <c r="C16" s="249"/>
+      <c r="C16" s="188"/>
       <c r="D16" s="162"/>
       <c r="E16" s="157"/>
       <c r="F16" s="157"/>
@@ -4174,20 +5719,20 @@
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="250">
+      <c r="B17" s="189">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="C17" s="251"/>
-      <c r="D17" s="236" t="s">
+      <c r="C17" s="190"/>
+      <c r="D17" s="175" t="s">
         <v>174</v>
       </c>
-      <c r="E17" s="237"/>
-      <c r="F17" s="237"/>
-      <c r="G17" s="237"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -4195,20 +5740,20 @@
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="182">
+      <c r="B18" s="191">
         <v>47500000</v>
       </c>
-      <c r="C18" s="183"/>
-      <c r="D18" s="237" t="s">
+      <c r="C18" s="192"/>
+      <c r="D18" s="176" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="237"/>
-      <c r="F18" s="237"/>
-      <c r="G18" s="237"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="176"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -4216,20 +5761,20 @@
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
     </row>
-    <row r="19" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="182">
+      <c r="B19" s="191">
         <v>2500000</v>
       </c>
-      <c r="C19" s="183"/>
-      <c r="D19" s="237" t="s">
+      <c r="C19" s="192"/>
+      <c r="D19" s="176" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="237"/>
-      <c r="F19" s="237"/>
-      <c r="G19" s="237"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="176"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -4237,20 +5782,20 @@
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="182">
+      <c r="B20" s="191">
         <v>500000</v>
       </c>
-      <c r="C20" s="183"/>
-      <c r="D20" s="237" t="s">
+      <c r="C20" s="192"/>
+      <c r="D20" s="176" t="s">
         <v>167</v>
       </c>
-      <c r="E20" s="237"/>
-      <c r="F20" s="237"/>
-      <c r="G20" s="237"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="176"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
@@ -4258,12 +5803,12 @@
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
     </row>
-    <row r="21" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="184" t="s">
+    <row r="21" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="212" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="185"/>
-      <c r="C21" s="186"/>
+      <c r="B21" s="213"/>
+      <c r="C21" s="214"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
@@ -4275,12 +5820,12 @@
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
     </row>
-    <row r="22" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="243" t="s">
+    <row r="22" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="182" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="244"/>
-      <c r="C22" s="245"/>
+      <c r="B22" s="183"/>
+      <c r="C22" s="184"/>
       <c r="D22" s="24"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
@@ -4292,15 +5837,15 @@
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
     </row>
-    <row r="23" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="144" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="246">
+      <c r="B23" s="185">
         <f>B18</f>
         <v>47500000</v>
       </c>
-      <c r="C23" s="247"/>
+      <c r="C23" s="186"/>
       <c r="D23" s="26"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
@@ -4312,15 +5857,15 @@
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
     </row>
-    <row r="24" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="187">
+      <c r="B24" s="217">
         <f>SUM(F39:F80)</f>
         <v>-237500</v>
       </c>
-      <c r="C24" s="188"/>
+      <c r="C24" s="218"/>
       <c r="D24" s="26"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -4332,15 +5877,15 @@
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
     </row>
-    <row r="25" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="189">
+      <c r="B25" s="219">
         <f>B23+B24</f>
         <v>47262500</v>
       </c>
-      <c r="C25" s="190"/>
+      <c r="C25" s="220"/>
       <c r="D25" s="26"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -4352,7 +5897,7 @@
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
     </row>
-    <row r="26" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="95" t="s">
         <v>5</v>
       </c>
@@ -4373,7 +5918,7 @@
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
     </row>
-    <row r="27" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
         <v>152</v>
       </c>
@@ -4396,7 +5941,7 @@
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
     </row>
-    <row r="28" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
         <v>122</v>
       </c>
@@ -4419,13 +5964,13 @@
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
     </row>
-    <row r="29" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="32" t="s">
         <v>153</v>
       </c>
       <c r="B29" s="33">
         <f>SUMIF(J39:J80,"&gt; -999999999999999999")</f>
-        <v>237500</v>
+        <v>0</v>
       </c>
       <c r="C29" s="34">
         <f>(ROUND(B29,0)-ROUND(B33,0))*(-1)</f>
@@ -4442,13 +5987,13 @@
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
     </row>
-    <row r="30" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="30">
         <f>IF(B11=0,0,B29/B11)</f>
-        <v>5.0531914893617018E-2</v>
+        <v>0</v>
       </c>
       <c r="C30" s="31">
         <f>IF(C11=0,0,C29/C11)</f>
@@ -4465,13 +6010,13 @@
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
     </row>
-    <row r="31" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
         <v>154</v>
       </c>
       <c r="B31" s="33">
         <f>B29+B27</f>
-        <v>2737500</v>
+        <v>2500000</v>
       </c>
       <c r="C31" s="34">
         <f>C29+C27</f>
@@ -4488,13 +6033,13 @@
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
     </row>
-    <row r="32" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>122</v>
       </c>
       <c r="B32" s="36">
         <f>IF(B12=0,0,B31/B12)</f>
-        <v>5.0045703839122484E-2</v>
+        <v>4.5703839122486288E-2</v>
       </c>
       <c r="C32" s="37">
         <f>IF(C12=0,0,C31/C12)</f>
@@ -4511,15 +6056,15 @@
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
     </row>
-    <row r="33" spans="1:17" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" s="8" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="93" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="191">
+      <c r="B33" s="221">
         <f>SUMIF(G39:G80,"&gt; -999999999999999999")</f>
-        <v>237500</v>
-      </c>
-      <c r="C33" s="192"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="222"/>
       <c r="D33" s="38"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
@@ -4531,16 +6076,16 @@
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
     </row>
-    <row r="34" spans="1:17" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="238" t="s">
+    <row r="34" spans="1:17" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="177" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="238"/>
-      <c r="C34" s="238"/>
-      <c r="D34" s="238"/>
-      <c r="E34" s="238"/>
-      <c r="F34" s="238"/>
-      <c r="G34" s="238"/>
+      <c r="B34" s="177"/>
+      <c r="C34" s="177"/>
+      <c r="D34" s="177"/>
+      <c r="E34" s="177"/>
+      <c r="F34" s="177"/>
+      <c r="G34" s="177"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
@@ -4548,16 +6093,16 @@
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
     </row>
-    <row r="35" spans="1:17" s="8" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="193" t="s">
+    <row r="35" spans="1:17" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="223" t="s">
         <v>172</v>
       </c>
-      <c r="B35" s="193"/>
-      <c r="C35" s="193"/>
-      <c r="D35" s="193"/>
-      <c r="E35" s="193"/>
-      <c r="F35" s="193"/>
-      <c r="G35" s="193"/>
+      <c r="B35" s="223"/>
+      <c r="C35" s="223"/>
+      <c r="D35" s="223"/>
+      <c r="E35" s="223"/>
+      <c r="F35" s="223"/>
+      <c r="G35" s="223"/>
       <c r="H35" s="39"/>
       <c r="I35" s="39"/>
       <c r="J35" s="39"/>
@@ -4565,48 +6110,48 @@
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
     </row>
-    <row r="36" spans="1:17" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="194" t="s">
+    <row r="36" spans="1:17" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="224" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="195"/>
-      <c r="C36" s="195"/>
-      <c r="D36" s="195"/>
-      <c r="E36" s="195"/>
-      <c r="F36" s="195"/>
-      <c r="G36" s="196"/>
+      <c r="B36" s="225"/>
+      <c r="C36" s="225"/>
+      <c r="D36" s="225"/>
+      <c r="E36" s="225"/>
+      <c r="F36" s="225"/>
+      <c r="G36" s="226"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="197" t="s">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="227" t="s">
         <v>147</v>
       </c>
-      <c r="B37" s="199" t="s">
+      <c r="B37" s="229" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="200"/>
-      <c r="D37" s="199" t="s">
+      <c r="C37" s="230"/>
+      <c r="D37" s="229" t="s">
         <v>149</v>
       </c>
-      <c r="E37" s="203" t="s">
+      <c r="E37" s="233" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="205" t="s">
+      <c r="F37" s="235" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="206"/>
+      <c r="G37" s="236"/>
       <c r="H37" s="42"/>
       <c r="I37" s="42"/>
       <c r="J37" s="42"/>
     </row>
-    <row r="38" spans="1:17" s="46" customFormat="1" ht="58.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="198"/>
-      <c r="B38" s="201"/>
-      <c r="C38" s="202"/>
-      <c r="D38" s="201"/>
-      <c r="E38" s="204"/>
+    <row r="38" spans="1:17" s="46" customFormat="1" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="228"/>
+      <c r="B38" s="231"/>
+      <c r="C38" s="232"/>
+      <c r="D38" s="231"/>
+      <c r="E38" s="234"/>
       <c r="F38" s="43" t="s">
         <v>114</v>
       </c>
@@ -4618,14 +6163,14 @@
       <c r="J38" s="45"/>
       <c r="Q38" s="47"/>
     </row>
-    <row r="39" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="207" t="s">
+      <c r="B39" s="237" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="208"/>
+      <c r="C39" s="238"/>
       <c r="D39" s="103">
         <v>237500</v>
       </c>
@@ -4636,28 +6181,28 @@
         <f>IF(E39="Decreases", -D39,IF(E39="Increases", D39,"0.00"))</f>
         <v>-237500</v>
       </c>
-      <c r="G39" s="49">
+      <c r="G39" s="49" t="e">
         <f>IF(I39="#N/A",0,D39*H39)</f>
-        <v>237500</v>
-      </c>
-      <c r="H39" s="78">
-        <f>IFERROR(VLOOKUP(B39,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
-        <v>1</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H39" s="78" t="str">
+        <f>IFERROR(VLOOKUP(B39,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
+        <v>Call for investments in new or existing underlying holdings</v>
       </c>
       <c r="I39" s="50" t="str">
-        <f>VLOOKUP(B39,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
-        <v>Call</v>
+        <f>VLOOKUP(B39,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
+        <v>Call款： 投资</v>
       </c>
       <c r="J39" s="50">
         <f t="shared" ref="J39:J80" si="0">IF(I39="Call", G39,0)</f>
-        <v>237500</v>
+        <v>0</v>
       </c>
       <c r="K39" s="51"/>
     </row>
-    <row r="40" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="104"/>
-      <c r="B40" s="180"/>
-      <c r="C40" s="181"/>
+      <c r="B40" s="215"/>
+      <c r="C40" s="216"/>
       <c r="D40" s="103"/>
       <c r="E40" s="108"/>
       <c r="F40" s="48" t="str">
@@ -4669,11 +6214,11 @@
         <v>0</v>
       </c>
       <c r="H40" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B40,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B40,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I40" s="50" t="e">
-        <f>VLOOKUP(B40,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B40,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J40" s="50" t="e">
@@ -4682,10 +6227,10 @@
       </c>
       <c r="K40" s="51"/>
     </row>
-    <row r="41" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="104"/>
-      <c r="B41" s="180"/>
-      <c r="C41" s="181"/>
+      <c r="B41" s="215"/>
+      <c r="C41" s="216"/>
       <c r="D41" s="103"/>
       <c r="E41" s="108"/>
       <c r="F41" s="48" t="str">
@@ -4697,11 +6242,11 @@
         <v>0</v>
       </c>
       <c r="H41" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B41,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B41,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I41" s="50" t="e">
-        <f>VLOOKUP(B41,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B41,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J41" s="50" t="e">
@@ -4710,10 +6255,10 @@
       </c>
       <c r="K41" s="51"/>
     </row>
-    <row r="42" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="104"/>
-      <c r="B42" s="180"/>
-      <c r="C42" s="181"/>
+      <c r="B42" s="215"/>
+      <c r="C42" s="216"/>
       <c r="D42" s="103"/>
       <c r="E42" s="108"/>
       <c r="F42" s="48" t="str">
@@ -4725,11 +6270,11 @@
         <v>0</v>
       </c>
       <c r="H42" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B42,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B42,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I42" s="50" t="e">
-        <f>VLOOKUP(B42,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B42,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J42" s="50" t="e">
@@ -4738,10 +6283,10 @@
       </c>
       <c r="K42" s="51"/>
     </row>
-    <row r="43" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="104"/>
-      <c r="B43" s="180"/>
-      <c r="C43" s="181"/>
+      <c r="B43" s="215"/>
+      <c r="C43" s="216"/>
       <c r="D43" s="103"/>
       <c r="E43" s="108"/>
       <c r="F43" s="48" t="str">
@@ -4753,11 +6298,11 @@
         <v>0</v>
       </c>
       <c r="H43" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B43,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B43,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I43" s="50" t="e">
-        <f>VLOOKUP(B43,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B43,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J43" s="50" t="e">
@@ -4766,10 +6311,10 @@
       </c>
       <c r="K43" s="51"/>
     </row>
-    <row r="44" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="104"/>
-      <c r="B44" s="180"/>
-      <c r="C44" s="181"/>
+      <c r="B44" s="215"/>
+      <c r="C44" s="216"/>
       <c r="D44" s="103"/>
       <c r="E44" s="108"/>
       <c r="F44" s="48" t="str">
@@ -4781,11 +6326,11 @@
         <v>0</v>
       </c>
       <c r="H44" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B44,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B44,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I44" s="50" t="e">
-        <f>VLOOKUP(B44,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B44,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J44" s="50" t="e">
@@ -4794,10 +6339,10 @@
       </c>
       <c r="K44" s="51"/>
     </row>
-    <row r="45" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="104"/>
-      <c r="B45" s="180"/>
-      <c r="C45" s="181"/>
+      <c r="B45" s="215"/>
+      <c r="C45" s="216"/>
       <c r="D45" s="103"/>
       <c r="E45" s="108"/>
       <c r="F45" s="48" t="str">
@@ -4809,11 +6354,11 @@
         <v>0</v>
       </c>
       <c r="H45" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B45,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B45,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I45" s="50" t="e">
-        <f>VLOOKUP(B45,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B45,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J45" s="50" t="e">
@@ -4822,10 +6367,10 @@
       </c>
       <c r="K45" s="51"/>
     </row>
-    <row r="46" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="104"/>
-      <c r="B46" s="180"/>
-      <c r="C46" s="181"/>
+      <c r="B46" s="215"/>
+      <c r="C46" s="216"/>
       <c r="D46" s="103"/>
       <c r="E46" s="108"/>
       <c r="F46" s="48" t="str">
@@ -4837,11 +6382,11 @@
         <v>0</v>
       </c>
       <c r="H46" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B46,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B46,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I46" s="50" t="e">
-        <f>VLOOKUP(B46,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B46,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J46" s="50" t="e">
@@ -4850,10 +6395,10 @@
       </c>
       <c r="K46" s="51"/>
     </row>
-    <row r="47" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="104"/>
-      <c r="B47" s="180"/>
-      <c r="C47" s="181"/>
+      <c r="B47" s="215"/>
+      <c r="C47" s="216"/>
       <c r="D47" s="103"/>
       <c r="E47" s="108"/>
       <c r="F47" s="48" t="str">
@@ -4865,11 +6410,11 @@
         <v>0</v>
       </c>
       <c r="H47" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B47,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B47,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I47" s="50" t="e">
-        <f>VLOOKUP(B47,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B47,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J47" s="50" t="e">
@@ -4878,10 +6423,10 @@
       </c>
       <c r="K47" s="51"/>
     </row>
-    <row r="48" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="104"/>
-      <c r="B48" s="180"/>
-      <c r="C48" s="181"/>
+      <c r="B48" s="215"/>
+      <c r="C48" s="216"/>
       <c r="D48" s="103"/>
       <c r="E48" s="108"/>
       <c r="F48" s="48" t="str">
@@ -4893,11 +6438,11 @@
         <v>0</v>
       </c>
       <c r="H48" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B48,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B48,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I48" s="50" t="e">
-        <f>VLOOKUP(B48,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B48,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J48" s="50" t="e">
@@ -4906,10 +6451,10 @@
       </c>
       <c r="K48" s="51"/>
     </row>
-    <row r="49" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="104"/>
-      <c r="B49" s="180"/>
-      <c r="C49" s="181"/>
+      <c r="B49" s="215"/>
+      <c r="C49" s="216"/>
       <c r="D49" s="103"/>
       <c r="E49" s="108"/>
       <c r="F49" s="48" t="str">
@@ -4921,11 +6466,11 @@
         <v>0</v>
       </c>
       <c r="H49" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B49,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B49,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I49" s="50" t="e">
-        <f>VLOOKUP(B49,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B49,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J49" s="50" t="e">
@@ -4934,10 +6479,10 @@
       </c>
       <c r="K49" s="51"/>
     </row>
-    <row r="50" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="104"/>
-      <c r="B50" s="180"/>
-      <c r="C50" s="181"/>
+      <c r="B50" s="215"/>
+      <c r="C50" s="216"/>
       <c r="D50" s="103"/>
       <c r="E50" s="108"/>
       <c r="F50" s="48" t="str">
@@ -4949,11 +6494,11 @@
         <v>0</v>
       </c>
       <c r="H50" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B50,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B50,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I50" s="50" t="e">
-        <f>VLOOKUP(B50,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B50,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J50" s="50" t="e">
@@ -4962,10 +6507,10 @@
       </c>
       <c r="K50" s="51"/>
     </row>
-    <row r="51" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="104"/>
-      <c r="B51" s="180"/>
-      <c r="C51" s="181"/>
+      <c r="B51" s="215"/>
+      <c r="C51" s="216"/>
       <c r="D51" s="103"/>
       <c r="E51" s="108"/>
       <c r="F51" s="48" t="str">
@@ -4977,11 +6522,11 @@
         <v>0</v>
       </c>
       <c r="H51" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B51,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B51,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I51" s="50" t="e">
-        <f>VLOOKUP(B51,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B51,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J51" s="50" t="e">
@@ -4990,10 +6535,10 @@
       </c>
       <c r="K51" s="51"/>
     </row>
-    <row r="52" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="104"/>
-      <c r="B52" s="180"/>
-      <c r="C52" s="181"/>
+      <c r="B52" s="215"/>
+      <c r="C52" s="216"/>
       <c r="D52" s="103"/>
       <c r="E52" s="108"/>
       <c r="F52" s="48" t="str">
@@ -5005,11 +6550,11 @@
         <v>0</v>
       </c>
       <c r="H52" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B52,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B52,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I52" s="50" t="e">
-        <f>VLOOKUP(B52,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B52,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J52" s="50" t="e">
@@ -5018,10 +6563,10 @@
       </c>
       <c r="K52" s="51"/>
     </row>
-    <row r="53" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="104"/>
-      <c r="B53" s="180"/>
-      <c r="C53" s="181"/>
+      <c r="B53" s="215"/>
+      <c r="C53" s="216"/>
       <c r="D53" s="103"/>
       <c r="E53" s="108"/>
       <c r="F53" s="48" t="str">
@@ -5033,11 +6578,11 @@
         <v>0</v>
       </c>
       <c r="H53" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B53,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B53,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I53" s="50" t="e">
-        <f>VLOOKUP(B53,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B53,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J53" s="50" t="e">
@@ -5046,10 +6591,10 @@
       </c>
       <c r="K53" s="51"/>
     </row>
-    <row r="54" spans="1:18" s="53" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="104"/>
-      <c r="B54" s="180"/>
-      <c r="C54" s="181"/>
+      <c r="B54" s="215"/>
+      <c r="C54" s="216"/>
       <c r="D54" s="103"/>
       <c r="E54" s="108"/>
       <c r="F54" s="48" t="str">
@@ -5061,11 +6606,11 @@
         <v>0</v>
       </c>
       <c r="H54" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B54,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B54,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I54" s="50" t="e">
-        <f>VLOOKUP(B54,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B54,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J54" s="50" t="e">
@@ -5079,10 +6624,10 @@
       <c r="O54" s="52"/>
       <c r="P54" s="52"/>
     </row>
-    <row r="55" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="104"/>
-      <c r="B55" s="180"/>
-      <c r="C55" s="181"/>
+      <c r="B55" s="215"/>
+      <c r="C55" s="216"/>
       <c r="D55" s="103"/>
       <c r="E55" s="108"/>
       <c r="F55" s="48" t="str">
@@ -5094,11 +6639,11 @@
         <v>0</v>
       </c>
       <c r="H55" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B55,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B55,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I55" s="50" t="e">
-        <f>VLOOKUP(B55,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B55,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J55" s="50" t="e">
@@ -5112,10 +6657,10 @@
       <c r="O55" s="55"/>
       <c r="P55" s="54"/>
     </row>
-    <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="104"/>
-      <c r="B56" s="180"/>
-      <c r="C56" s="181"/>
+      <c r="B56" s="215"/>
+      <c r="C56" s="216"/>
       <c r="D56" s="103"/>
       <c r="E56" s="108"/>
       <c r="F56" s="48" t="str">
@@ -5127,11 +6672,11 @@
         <v>0</v>
       </c>
       <c r="H56" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B56,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B56,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I56" s="50" t="e">
-        <f>VLOOKUP(B56,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B56,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J56" s="50" t="e">
@@ -5145,10 +6690,10 @@
       <c r="O56" s="55"/>
       <c r="P56" s="54"/>
     </row>
-    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="104"/>
-      <c r="B57" s="180"/>
-      <c r="C57" s="181"/>
+      <c r="B57" s="215"/>
+      <c r="C57" s="216"/>
       <c r="D57" s="103"/>
       <c r="E57" s="108"/>
       <c r="F57" s="48" t="str">
@@ -5160,11 +6705,11 @@
         <v>0</v>
       </c>
       <c r="H57" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B57,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B57,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I57" s="50" t="e">
-        <f>VLOOKUP(B57,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B57,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J57" s="50" t="e">
@@ -5178,10 +6723,10 @@
       <c r="O57" s="55"/>
       <c r="P57" s="54"/>
     </row>
-    <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="104"/>
-      <c r="B58" s="180"/>
-      <c r="C58" s="181"/>
+      <c r="B58" s="215"/>
+      <c r="C58" s="216"/>
       <c r="D58" s="103"/>
       <c r="E58" s="108"/>
       <c r="F58" s="48" t="str">
@@ -5193,11 +6738,11 @@
         <v>0</v>
       </c>
       <c r="H58" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B58,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B58,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I58" s="50" t="e">
-        <f>VLOOKUP(B58,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B58,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J58" s="50" t="e">
@@ -5211,10 +6756,10 @@
       <c r="O58" s="55"/>
       <c r="P58" s="54"/>
     </row>
-    <row r="59" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="104"/>
-      <c r="B59" s="180"/>
-      <c r="C59" s="181"/>
+      <c r="B59" s="215"/>
+      <c r="C59" s="216"/>
       <c r="D59" s="103"/>
       <c r="E59" s="108"/>
       <c r="F59" s="48" t="str">
@@ -5226,11 +6771,11 @@
         <v>0</v>
       </c>
       <c r="H59" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B59,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B59,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I59" s="50" t="e">
-        <f>VLOOKUP(B59,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B59,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J59" s="50" t="e">
@@ -5244,10 +6789,10 @@
       <c r="O59" s="54"/>
       <c r="P59" s="54"/>
     </row>
-    <row r="60" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="104"/>
-      <c r="B60" s="180"/>
-      <c r="C60" s="181"/>
+      <c r="B60" s="215"/>
+      <c r="C60" s="216"/>
       <c r="D60" s="103"/>
       <c r="E60" s="108"/>
       <c r="F60" s="48" t="str">
@@ -5259,11 +6804,11 @@
         <v>0</v>
       </c>
       <c r="H60" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B60,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B60,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I60" s="50" t="e">
-        <f>VLOOKUP(B60,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B60,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J60" s="50" t="e">
@@ -5277,10 +6822,10 @@
       <c r="O60" s="54"/>
       <c r="P60" s="54"/>
     </row>
-    <row r="61" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="104"/>
-      <c r="B61" s="180"/>
-      <c r="C61" s="181"/>
+      <c r="B61" s="215"/>
+      <c r="C61" s="216"/>
       <c r="D61" s="103"/>
       <c r="E61" s="108"/>
       <c r="F61" s="48" t="str">
@@ -5292,11 +6837,11 @@
         <v>0</v>
       </c>
       <c r="H61" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B61,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B61,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I61" s="50" t="e">
-        <f>VLOOKUP(B61,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B61,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J61" s="50" t="e">
@@ -5312,10 +6857,10 @@
       <c r="Q61" s="41"/>
       <c r="R61" s="41"/>
     </row>
-    <row r="62" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="104"/>
-      <c r="B62" s="180"/>
-      <c r="C62" s="181"/>
+      <c r="B62" s="215"/>
+      <c r="C62" s="216"/>
       <c r="D62" s="103"/>
       <c r="E62" s="108"/>
       <c r="F62" s="48" t="str">
@@ -5327,11 +6872,11 @@
         <v>0</v>
       </c>
       <c r="H62" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B62,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B62,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I62" s="50" t="e">
-        <f>VLOOKUP(B62,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B62,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J62" s="50" t="e">
@@ -5347,10 +6892,10 @@
       <c r="Q62" s="41"/>
       <c r="R62" s="41"/>
     </row>
-    <row r="63" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="104"/>
-      <c r="B63" s="180"/>
-      <c r="C63" s="181"/>
+      <c r="B63" s="215"/>
+      <c r="C63" s="216"/>
       <c r="D63" s="103"/>
       <c r="E63" s="108"/>
       <c r="F63" s="48" t="str">
@@ -5362,11 +6907,11 @@
         <v>0</v>
       </c>
       <c r="H63" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B63,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B63,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I63" s="50" t="e">
-        <f>VLOOKUP(B63,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B63,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J63" s="50" t="e">
@@ -5382,10 +6927,10 @@
       <c r="Q63" s="41"/>
       <c r="R63" s="41"/>
     </row>
-    <row r="64" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="104"/>
-      <c r="B64" s="180"/>
-      <c r="C64" s="181"/>
+      <c r="B64" s="215"/>
+      <c r="C64" s="216"/>
       <c r="D64" s="103"/>
       <c r="E64" s="108"/>
       <c r="F64" s="48" t="str">
@@ -5397,11 +6942,11 @@
         <v>0</v>
       </c>
       <c r="H64" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B64,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B64,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I64" s="50" t="e">
-        <f>VLOOKUP(B64,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B64,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J64" s="50" t="e">
@@ -5417,10 +6962,10 @@
       <c r="Q64" s="41"/>
       <c r="R64" s="41"/>
     </row>
-    <row r="65" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="104"/>
-      <c r="B65" s="180"/>
-      <c r="C65" s="181"/>
+      <c r="B65" s="215"/>
+      <c r="C65" s="216"/>
       <c r="D65" s="103"/>
       <c r="E65" s="108"/>
       <c r="F65" s="48" t="str">
@@ -5432,11 +6977,11 @@
         <v>0</v>
       </c>
       <c r="H65" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B65,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B65,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I65" s="50" t="e">
-        <f>VLOOKUP(B65,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B65,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J65" s="50" t="e">
@@ -5451,10 +6996,10 @@
       <c r="P65" s="55"/>
       <c r="R65" s="56"/>
     </row>
-    <row r="66" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="104"/>
-      <c r="B66" s="180"/>
-      <c r="C66" s="181"/>
+      <c r="B66" s="215"/>
+      <c r="C66" s="216"/>
       <c r="D66" s="103"/>
       <c r="E66" s="108"/>
       <c r="F66" s="48" t="str">
@@ -5466,11 +7011,11 @@
         <v>0</v>
       </c>
       <c r="H66" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B66,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B66,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I66" s="50" t="e">
-        <f>VLOOKUP(B66,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B66,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J66" s="50" t="e">
@@ -5485,10 +7030,10 @@
       <c r="P66" s="55"/>
       <c r="R66" s="11"/>
     </row>
-    <row r="67" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="104"/>
-      <c r="B67" s="180"/>
-      <c r="C67" s="181"/>
+      <c r="B67" s="215"/>
+      <c r="C67" s="216"/>
       <c r="D67" s="103"/>
       <c r="E67" s="108"/>
       <c r="F67" s="48" t="str">
@@ -5500,11 +7045,11 @@
         <v>0</v>
       </c>
       <c r="H67" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B67,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B67,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I67" s="50" t="e">
-        <f>VLOOKUP(B67,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B67,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J67" s="50" t="e">
@@ -5519,10 +7064,10 @@
       <c r="P67" s="54"/>
       <c r="R67" s="12"/>
     </row>
-    <row r="68" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="104"/>
-      <c r="B68" s="180"/>
-      <c r="C68" s="181"/>
+      <c r="B68" s="215"/>
+      <c r="C68" s="216"/>
       <c r="D68" s="103"/>
       <c r="E68" s="108"/>
       <c r="F68" s="48" t="str">
@@ -5534,11 +7079,11 @@
         <v>0</v>
       </c>
       <c r="H68" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B68,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B68,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I68" s="50" t="e">
-        <f>VLOOKUP(B68,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B68,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J68" s="50" t="e">
@@ -5552,10 +7097,10 @@
       <c r="O68" s="54"/>
       <c r="P68" s="54"/>
     </row>
-    <row r="69" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="104"/>
-      <c r="B69" s="180"/>
-      <c r="C69" s="181"/>
+      <c r="B69" s="215"/>
+      <c r="C69" s="216"/>
       <c r="D69" s="103"/>
       <c r="E69" s="108"/>
       <c r="F69" s="48" t="str">
@@ -5567,11 +7112,11 @@
         <v>0</v>
       </c>
       <c r="H69" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B69,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B69,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I69" s="50" t="e">
-        <f>VLOOKUP(B69,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B69,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J69" s="50" t="e">
@@ -5580,10 +7125,10 @@
       </c>
       <c r="K69" s="51"/>
     </row>
-    <row r="70" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="104"/>
-      <c r="B70" s="180"/>
-      <c r="C70" s="181"/>
+      <c r="B70" s="215"/>
+      <c r="C70" s="216"/>
       <c r="D70" s="103"/>
       <c r="E70" s="108"/>
       <c r="F70" s="48" t="str">
@@ -5595,11 +7140,11 @@
         <v>0</v>
       </c>
       <c r="H70" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B70,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B70,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I70" s="50" t="e">
-        <f>VLOOKUP(B70,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B70,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J70" s="50" t="e">
@@ -5608,10 +7153,10 @@
       </c>
       <c r="K70" s="51"/>
     </row>
-    <row r="71" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="104"/>
-      <c r="B71" s="180"/>
-      <c r="C71" s="181"/>
+      <c r="B71" s="215"/>
+      <c r="C71" s="216"/>
       <c r="D71" s="103"/>
       <c r="E71" s="108"/>
       <c r="F71" s="48" t="str">
@@ -5623,11 +7168,11 @@
         <v>0</v>
       </c>
       <c r="H71" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B71,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B71,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I71" s="50" t="e">
-        <f>VLOOKUP(B71,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B71,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J71" s="50" t="e">
@@ -5636,10 +7181,10 @@
       </c>
       <c r="K71" s="51"/>
     </row>
-    <row r="72" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="104"/>
-      <c r="B72" s="180"/>
-      <c r="C72" s="181"/>
+      <c r="B72" s="215"/>
+      <c r="C72" s="216"/>
       <c r="D72" s="103"/>
       <c r="E72" s="108"/>
       <c r="F72" s="48" t="str">
@@ -5651,11 +7196,11 @@
         <v>0</v>
       </c>
       <c r="H72" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B72,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B72,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I72" s="50" t="e">
-        <f>VLOOKUP(B72,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B72,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J72" s="50" t="e">
@@ -5664,10 +7209,10 @@
       </c>
       <c r="K72" s="51"/>
     </row>
-    <row r="73" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="104"/>
-      <c r="B73" s="180"/>
-      <c r="C73" s="181"/>
+      <c r="B73" s="215"/>
+      <c r="C73" s="216"/>
       <c r="D73" s="103"/>
       <c r="E73" s="108"/>
       <c r="F73" s="48" t="str">
@@ -5679,11 +7224,11 @@
         <v>0</v>
       </c>
       <c r="H73" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B73,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B73,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I73" s="50" t="e">
-        <f>VLOOKUP(B73,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B73,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J73" s="50" t="e">
@@ -5692,10 +7237,10 @@
       </c>
       <c r="K73" s="51"/>
     </row>
-    <row r="74" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="104"/>
-      <c r="B74" s="180"/>
-      <c r="C74" s="181"/>
+      <c r="B74" s="215"/>
+      <c r="C74" s="216"/>
       <c r="D74" s="103"/>
       <c r="E74" s="108"/>
       <c r="F74" s="48" t="str">
@@ -5707,11 +7252,11 @@
         <v>0</v>
       </c>
       <c r="H74" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B74,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B74,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I74" s="50" t="e">
-        <f>VLOOKUP(B74,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B74,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J74" s="50" t="e">
@@ -5720,10 +7265,10 @@
       </c>
       <c r="K74" s="51"/>
     </row>
-    <row r="75" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="104"/>
-      <c r="B75" s="180"/>
-      <c r="C75" s="181"/>
+      <c r="B75" s="215"/>
+      <c r="C75" s="216"/>
       <c r="D75" s="103"/>
       <c r="E75" s="108"/>
       <c r="F75" s="48" t="str">
@@ -5735,11 +7280,11 @@
         <v>0</v>
       </c>
       <c r="H75" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B75,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B75,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I75" s="50" t="e">
-        <f>VLOOKUP(B75,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B75,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J75" s="50" t="e">
@@ -5748,10 +7293,10 @@
       </c>
       <c r="K75" s="51"/>
     </row>
-    <row r="76" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="104"/>
-      <c r="B76" s="180"/>
-      <c r="C76" s="181"/>
+      <c r="B76" s="215"/>
+      <c r="C76" s="216"/>
       <c r="D76" s="103"/>
       <c r="E76" s="108"/>
       <c r="F76" s="48" t="str">
@@ -5763,11 +7308,11 @@
         <v>0</v>
       </c>
       <c r="H76" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B76,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B76,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I76" s="50" t="e">
-        <f>VLOOKUP(B76,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B76,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J76" s="50" t="e">
@@ -5776,10 +7321,10 @@
       </c>
       <c r="K76" s="51"/>
     </row>
-    <row r="77" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="104"/>
-      <c r="B77" s="180"/>
-      <c r="C77" s="181"/>
+      <c r="B77" s="215"/>
+      <c r="C77" s="216"/>
       <c r="D77" s="103"/>
       <c r="E77" s="108"/>
       <c r="F77" s="48" t="str">
@@ -5791,11 +7336,11 @@
         <v>0</v>
       </c>
       <c r="H77" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B77,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B77,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I77" s="50" t="e">
-        <f>VLOOKUP(B77,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B77,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J77" s="50" t="e">
@@ -5804,10 +7349,10 @@
       </c>
       <c r="K77" s="51"/>
     </row>
-    <row r="78" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="104"/>
-      <c r="B78" s="180"/>
-      <c r="C78" s="181"/>
+      <c r="B78" s="215"/>
+      <c r="C78" s="216"/>
       <c r="D78" s="103"/>
       <c r="E78" s="108"/>
       <c r="F78" s="48" t="str">
@@ -5819,11 +7364,11 @@
         <v>0</v>
       </c>
       <c r="H78" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B78,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B78,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I78" s="50" t="e">
-        <f>VLOOKUP(B78,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B78,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J78" s="50" t="e">
@@ -5832,10 +7377,10 @@
       </c>
       <c r="K78" s="51"/>
     </row>
-    <row r="79" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="104"/>
-      <c r="B79" s="180"/>
-      <c r="C79" s="181"/>
+      <c r="B79" s="215"/>
+      <c r="C79" s="216"/>
       <c r="D79" s="103"/>
       <c r="E79" s="108"/>
       <c r="F79" s="48" t="str">
@@ -5847,11 +7392,11 @@
         <v>0</v>
       </c>
       <c r="H79" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B79,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B79,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I79" s="50" t="e">
-        <f>VLOOKUP(B79,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B79,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J79" s="50" t="e">
@@ -5860,10 +7405,10 @@
       </c>
       <c r="K79" s="51"/>
     </row>
-    <row r="80" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="104"/>
-      <c r="B80" s="180"/>
-      <c r="C80" s="181"/>
+      <c r="B80" s="215"/>
+      <c r="C80" s="216"/>
       <c r="D80" s="103"/>
       <c r="E80" s="108"/>
       <c r="F80" s="48" t="str">
@@ -5875,11 +7420,11 @@
         <v>0</v>
       </c>
       <c r="H80" s="78" t="str">
-        <f>IFERROR(VLOOKUP(B80,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
+        <f>IFERROR(VLOOKUP(B80,'Trans. Type Definitions'!$B$1:$F$36,4,FALSE), "0")</f>
         <v>0</v>
       </c>
       <c r="I80" s="50" t="e">
-        <f>VLOOKUP(B80,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
+        <f>VLOOKUP(B80,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J80" s="50" t="e">
@@ -5888,105 +7433,105 @@
       </c>
       <c r="K80" s="51"/>
     </row>
-    <row r="84" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="177" t="s">
+    <row r="84" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="239" t="s">
         <v>117</v>
       </c>
-      <c r="B85" s="178"/>
-      <c r="C85" s="178"/>
-      <c r="D85" s="178"/>
-      <c r="E85" s="179"/>
-    </row>
-    <row r="86" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="240"/>
+      <c r="C85" s="240"/>
+      <c r="D85" s="240"/>
+      <c r="E85" s="241"/>
+    </row>
+    <row r="86" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D86" s="40"/>
     </row>
-    <row r="87" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="167" t="s">
+    <row r="87" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="246" t="s">
         <v>156</v>
       </c>
-      <c r="B87" s="168"/>
-      <c r="C87" s="168"/>
-      <c r="D87" s="168"/>
-      <c r="E87" s="169"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="247"/>
+      <c r="C87" s="247"/>
+      <c r="D87" s="247"/>
+      <c r="E87" s="248"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="173"/>
-      <c r="C88" s="173"/>
-      <c r="D88" s="173"/>
-      <c r="E88" s="174"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="252"/>
+      <c r="C88" s="252"/>
+      <c r="D88" s="252"/>
+      <c r="E88" s="253"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="175"/>
-      <c r="C89" s="175"/>
-      <c r="D89" s="175"/>
-      <c r="E89" s="176"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="254"/>
+      <c r="C89" s="254"/>
+      <c r="D89" s="254"/>
+      <c r="E89" s="255"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="175"/>
-      <c r="C90" s="175"/>
-      <c r="D90" s="175"/>
-      <c r="E90" s="176"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="254"/>
+      <c r="C90" s="254"/>
+      <c r="D90" s="254"/>
+      <c r="E90" s="255"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="175"/>
-      <c r="C91" s="175"/>
-      <c r="D91" s="175"/>
-      <c r="E91" s="176"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="254"/>
+      <c r="C91" s="254"/>
+      <c r="D91" s="254"/>
+      <c r="E91" s="255"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B92" s="163"/>
-      <c r="C92" s="163"/>
-      <c r="D92" s="163"/>
-      <c r="E92" s="164"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="242"/>
+      <c r="C92" s="242"/>
+      <c r="D92" s="242"/>
+      <c r="E92" s="243"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B93" s="163"/>
-      <c r="C93" s="163"/>
-      <c r="D93" s="163"/>
-      <c r="E93" s="164"/>
-    </row>
-    <row r="94" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="242"/>
+      <c r="C93" s="242"/>
+      <c r="D93" s="242"/>
+      <c r="E93" s="243"/>
+    </row>
+    <row r="94" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="B94" s="165"/>
-      <c r="C94" s="165"/>
-      <c r="D94" s="165"/>
-      <c r="E94" s="166"/>
-    </row>
-    <row r="95" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="244"/>
+      <c r="C94" s="244"/>
+      <c r="D94" s="244"/>
+      <c r="E94" s="245"/>
+    </row>
+    <row r="95" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B95" s="41"/>
       <c r="C95" s="41"/>
     </row>
-    <row r="96" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="167" t="s">
+    <row r="96" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="246" t="s">
         <v>158</v>
       </c>
-      <c r="B96" s="168"/>
-      <c r="C96" s="168"/>
-      <c r="D96" s="168"/>
-      <c r="E96" s="169"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="247"/>
+      <c r="C96" s="247"/>
+      <c r="D96" s="247"/>
+      <c r="E96" s="248"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="61" t="s">
         <v>15</v>
       </c>
@@ -6003,7 +7548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="58" t="s">
         <v>20</v>
       </c>
@@ -6012,7 +7557,7 @@
       <c r="D98" s="111"/>
       <c r="E98" s="112"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="58" t="s">
         <v>21</v>
       </c>
@@ -6021,7 +7566,7 @@
       <c r="D99" s="113"/>
       <c r="E99" s="114"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="58" t="s">
         <v>22</v>
       </c>
@@ -6030,7 +7575,7 @@
       <c r="D100" s="115"/>
       <c r="E100" s="116"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="58" t="s">
         <v>23</v>
       </c>
@@ -6039,7 +7584,7 @@
       <c r="D101" s="115"/>
       <c r="E101" s="116"/>
     </row>
-    <row r="102" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="64" t="s">
         <v>24</v>
       </c>
@@ -6048,20 +7593,20 @@
       <c r="D102" s="117"/>
       <c r="E102" s="119"/>
     </row>
-    <row r="103" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B103" s="41"/>
       <c r="C103" s="41"/>
     </row>
-    <row r="104" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="170" t="s">
+    <row r="104" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="249" t="s">
         <v>159</v>
       </c>
-      <c r="B104" s="171"/>
-      <c r="C104" s="171"/>
-      <c r="D104" s="171"/>
-      <c r="E104" s="172"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="250"/>
+      <c r="C104" s="250"/>
+      <c r="D104" s="250"/>
+      <c r="E104" s="251"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>73</v>
       </c>
@@ -6070,7 +7615,7 @@
       <c r="D105" s="120"/>
       <c r="E105" s="121"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>74</v>
       </c>
@@ -6079,7 +7624,7 @@
       <c r="D106" s="120"/>
       <c r="E106" s="123"/>
     </row>
-    <row r="107" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>72</v>
       </c>
@@ -6088,26 +7633,26 @@
       <c r="D107" s="118"/>
       <c r="E107" s="125"/>
     </row>
-    <row r="108" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="228" t="s">
+    <row r="108" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="168" t="s">
         <v>160</v>
       </c>
-      <c r="B109" s="229"/>
-      <c r="C109" s="229"/>
-      <c r="D109" s="229"/>
-      <c r="E109" s="230"/>
-    </row>
-    <row r="110" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="169"/>
+      <c r="C109" s="169"/>
+      <c r="D109" s="169"/>
+      <c r="E109" s="170"/>
+    </row>
+    <row r="110" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B110" s="239"/>
-      <c r="C110" s="239"/>
-      <c r="D110" s="239"/>
-      <c r="E110" s="240"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="178"/>
+      <c r="C110" s="178"/>
+      <c r="D110" s="178"/>
+      <c r="E110" s="179"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>107</v>
       </c>
@@ -6116,7 +7661,7 @@
       <c r="D111" s="128"/>
       <c r="E111" s="129"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>103</v>
       </c>
@@ -6125,7 +7670,7 @@
       <c r="D112" s="128"/>
       <c r="E112" s="129"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>104</v>
       </c>
@@ -6137,32 +7682,100 @@
       <c r="D113" s="88"/>
       <c r="E113" s="89"/>
     </row>
-    <row r="114" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="241" t="s">
+    <row r="114" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="180" t="s">
         <v>105</v>
       </c>
-      <c r="B114" s="231"/>
-      <c r="C114" s="231"/>
-      <c r="D114" s="231"/>
-      <c r="E114" s="232"/>
-    </row>
-    <row r="115" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="242"/>
-      <c r="B115" s="233"/>
-      <c r="C115" s="233"/>
-      <c r="D115" s="233"/>
-      <c r="E115" s="234"/>
+      <c r="B114" s="171"/>
+      <c r="C114" s="171"/>
+      <c r="D114" s="171"/>
+      <c r="E114" s="172"/>
+    </row>
+    <row r="115" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="181"/>
+      <c r="B115" s="173"/>
+      <c r="C115" s="173"/>
+      <c r="D115" s="173"/>
+      <c r="E115" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="B114:E115"/>
     <mergeCell ref="D15:G15"/>
@@ -6179,94 +7792,27 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
+  <phoneticPr fontId="44" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C11" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C11">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39:C80" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39:C80">
       <formula1>TransactionType</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39:D80 B15:C15 B18:C20 B7:C8 B10:B11" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39:D80 B15:C15 B18:C20 B7:C8 B10:B11">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E39:E80" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E39:E80">
       <formula1>Inpact</formula1>
     </dataValidation>
   </dataValidations>
@@ -6287,70 +7833,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B44" sqref="B44:D44"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="142" customWidth="1"/>
-    <col min="2" max="2" width="58.77734375" style="85" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="85"/>
-    <col min="4" max="4" width="133.5546875" style="86" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" style="78" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" style="78" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="78"/>
+    <col min="1" max="1" width="3.5" style="142" customWidth="1"/>
+    <col min="2" max="3" width="58.75" style="85" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="85"/>
+    <col min="5" max="5" width="133.5" style="86" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.625" style="78" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="78" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="91"/>
+      <c r="D1" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="E1" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="79"/>
+      <c r="G1" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="80"/>
+      <c r="I1" s="81"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="142">
         <v>1</v>
       </c>
       <c r="B2" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="E2" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="G2" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="82"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="66"/>
+      <c r="I2" s="82"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="142">
         <f>A2+1</f>
         <v>2</v>
@@ -6358,22 +7908,25 @@
       <c r="B3" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="E3" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="106" t="s">
+      <c r="G3" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="80"/>
-    </row>
-    <row r="4" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="H3" s="66"/>
+      <c r="I3" s="80"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="142">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>3</v>
@@ -6381,22 +7934,25 @@
       <c r="B4" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="76" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="E4" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="67">
+      <c r="F4" s="67">
         <v>1</v>
       </c>
-      <c r="F4" s="106" t="s">
+      <c r="G4" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="80"/>
-    </row>
-    <row r="5" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="H4" s="66"/>
+      <c r="I4" s="80"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="142">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6404,20 +7960,23 @@
       <c r="B5" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="E5" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="67">
+      <c r="F5" s="67">
         <v>1</v>
       </c>
-      <c r="F5" s="66"/>
       <c r="G5" s="66"/>
-      <c r="H5" s="80"/>
-    </row>
-    <row r="6" spans="1:8" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="66"/>
+      <c r="I5" s="80"/>
+    </row>
+    <row r="6" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="142">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6425,20 +7984,23 @@
       <c r="B6" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="E6" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="70">
+      <c r="F6" s="70">
         <v>1</v>
       </c>
-      <c r="F6" s="71"/>
       <c r="G6" s="71"/>
-      <c r="H6" s="84"/>
-    </row>
-    <row r="7" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="H6" s="71"/>
+      <c r="I6" s="84"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="142">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6446,20 +8008,23 @@
       <c r="B7" s="158" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="159" t="s">
+      <c r="C7" s="158" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="160" t="s">
+      <c r="E7" s="160" t="s">
         <v>169</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="66"/>
       <c r="G7" s="66"/>
-      <c r="H7" s="80"/>
-    </row>
-    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="H7" s="66"/>
+      <c r="I7" s="80"/>
+    </row>
+    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="142">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6467,20 +8032,23 @@
       <c r="B8" s="158" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="159" t="s">
+      <c r="C8" s="158" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="160" t="s">
+      <c r="E8" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="66"/>
       <c r="G8" s="66"/>
-      <c r="H8" s="80"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="66"/>
+      <c r="I8" s="80"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="142">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6488,20 +8056,23 @@
       <c r="B9" s="158" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="159" t="s">
+      <c r="C9" s="158" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="160" t="s">
+      <c r="E9" s="160" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="66"/>
       <c r="G9" s="66"/>
-      <c r="H9" s="80"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="66"/>
+      <c r="I9" s="80"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="142">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6509,20 +8080,23 @@
       <c r="B10" s="158" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="159" t="s">
+      <c r="C10" s="158" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="160" t="s">
+      <c r="E10" s="160" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="66"/>
       <c r="G10" s="66"/>
-      <c r="H10" s="80"/>
-    </row>
-    <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="H10" s="66"/>
+      <c r="I10" s="80"/>
+    </row>
+    <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="142">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6530,20 +8104,23 @@
       <c r="B11" s="158" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="159" t="s">
+      <c r="C11" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="160" t="s">
+      <c r="E11" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="66"/>
       <c r="G11" s="66"/>
-      <c r="H11" s="80"/>
-    </row>
-    <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="H11" s="66"/>
+      <c r="I11" s="80"/>
+    </row>
+    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="142">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6551,20 +8128,23 @@
       <c r="B12" s="158" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="159" t="s">
+      <c r="C12" s="158" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="160" t="s">
+      <c r="E12" s="160" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="F12" s="66"/>
       <c r="G12" s="66"/>
-      <c r="H12" s="80"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="66"/>
+      <c r="I12" s="80"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="142">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6572,20 +8152,23 @@
       <c r="B13" s="158" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="159" t="s">
+      <c r="C13" s="158" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="160" t="s">
+      <c r="E13" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="F13" s="66"/>
       <c r="G13" s="66"/>
-      <c r="H13" s="80"/>
-    </row>
-    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="H13" s="66"/>
+      <c r="I13" s="80"/>
+    </row>
+    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="142">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6593,20 +8176,23 @@
       <c r="B14" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="159" t="s">
+      <c r="C14" s="158" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="160" t="s">
+      <c r="E14" s="160" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="66"/>
       <c r="G14" s="66"/>
-      <c r="H14" s="80"/>
-    </row>
-    <row r="15" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="H14" s="66"/>
+      <c r="I14" s="80"/>
+    </row>
+    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="142">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6614,20 +8200,23 @@
       <c r="B15" s="158" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="159" t="s">
+      <c r="C15" s="158" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="160" t="s">
+      <c r="E15" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="F15" s="66"/>
       <c r="G15" s="66"/>
-      <c r="H15" s="80"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="66"/>
+      <c r="I15" s="80"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="142">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6635,20 +8224,23 @@
       <c r="B16" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="140" t="s">
+      <c r="C16" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="E16" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="67">
+      <c r="F16" s="67">
         <v>1</v>
       </c>
-      <c r="F16" s="66"/>
       <c r="G16" s="66"/>
-      <c r="H16" s="80"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="66"/>
+      <c r="I16" s="80"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="142">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6656,20 +8248,23 @@
       <c r="B17" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="140" t="s">
+      <c r="C17" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="E17" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="F17" s="66"/>
       <c r="G17" s="66"/>
-      <c r="H17" s="80"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="66"/>
+      <c r="I17" s="80"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="142">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6678,19 +8273,22 @@
         <v>68</v>
       </c>
       <c r="C18" s="76" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="E18" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="67">
+      <c r="F18" s="67">
         <v>1</v>
       </c>
-      <c r="F18" s="66"/>
       <c r="G18" s="66"/>
-      <c r="H18" s="80"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="66"/>
+      <c r="I18" s="80"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="142">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6698,20 +8296,23 @@
       <c r="B19" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="257" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="72" t="s">
+      <c r="E19" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>1</v>
       </c>
-      <c r="F19" s="66"/>
       <c r="G19" s="66"/>
-      <c r="H19" s="80"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="66"/>
+      <c r="I19" s="80"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="142">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6719,20 +8320,23 @@
       <c r="B20" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="140" t="s">
+      <c r="C20" s="257" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="E20" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>-1</v>
       </c>
-      <c r="F20" s="66"/>
       <c r="G20" s="66"/>
-      <c r="H20" s="80"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="66"/>
+      <c r="I20" s="80"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="142">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6740,20 +8344,23 @@
       <c r="B21" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="140" t="s">
+      <c r="C21" s="257" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="E21" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>-1</v>
       </c>
-      <c r="F21" s="66"/>
       <c r="G21" s="66"/>
-      <c r="H21" s="80"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="66"/>
+      <c r="I21" s="80"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="142">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6761,20 +8368,23 @@
       <c r="B22" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="257" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="E22" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>-1</v>
       </c>
-      <c r="F22" s="66"/>
       <c r="G22" s="66"/>
-      <c r="H22" s="80"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="66"/>
+      <c r="I22" s="80"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="142">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6782,20 +8392,23 @@
       <c r="B23" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="140" t="s">
+      <c r="C23" s="257" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="72" t="s">
+      <c r="E23" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <v>-1</v>
       </c>
-      <c r="F23" s="66"/>
       <c r="G23" s="66"/>
-      <c r="H23" s="80"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="66"/>
+      <c r="I23" s="80"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="142">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6803,20 +8416,23 @@
       <c r="B24" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="140" t="s">
+      <c r="C24" s="257" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="72" t="s">
+      <c r="E24" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="4">
         <v>-1</v>
       </c>
-      <c r="F24" s="66"/>
       <c r="G24" s="66"/>
-      <c r="H24" s="80"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="66"/>
+      <c r="I24" s="80"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="142">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6824,20 +8440,23 @@
       <c r="B25" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="140" t="s">
+      <c r="C25" s="257" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="72" t="s">
+      <c r="E25" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>1</v>
       </c>
-      <c r="F25" s="66"/>
       <c r="G25" s="66"/>
-      <c r="H25" s="80"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="66"/>
+      <c r="I25" s="80"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="142">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6845,20 +8464,23 @@
       <c r="B26" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="140" t="s">
+      <c r="C26" s="257" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="72" t="s">
+      <c r="E26" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <v>1</v>
       </c>
-      <c r="F26" s="66"/>
       <c r="G26" s="66"/>
-      <c r="H26" s="80"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="66"/>
+      <c r="I26" s="80"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="142">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6866,19 +8488,22 @@
       <c r="B27" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="140" t="s">
+      <c r="C27" s="257" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="72" t="s">
+      <c r="E27" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="5">
         <v>-1</v>
       </c>
-      <c r="F27" s="68"/>
       <c r="G27" s="68"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="68"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="142">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6886,19 +8511,22 @@
       <c r="B28" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="258" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="73" t="s">
+      <c r="E28" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="E28" s="69">
+      <c r="F28" s="69">
         <v>-1</v>
       </c>
-      <c r="F28" s="68"/>
       <c r="G28" s="68"/>
-    </row>
-    <row r="29" spans="1:8" s="135" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="68"/>
+    </row>
+    <row r="29" spans="1:9" s="135" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="151">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6906,19 +8534,22 @@
       <c r="B29" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="131" t="s">
+      <c r="C29" s="259" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="132" t="s">
+      <c r="E29" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="E29" s="133">
+      <c r="F29" s="133">
         <v>-1</v>
       </c>
-      <c r="F29" s="134"/>
       <c r="G29" s="134"/>
-    </row>
-    <row r="30" spans="1:8" s="135" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="134"/>
+    </row>
+    <row r="30" spans="1:9" s="135" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="151">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6926,19 +8557,22 @@
       <c r="B30" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="141" t="s">
+      <c r="C30" s="260" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="137" t="s">
+      <c r="E30" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="138">
+      <c r="F30" s="138">
         <v>-1</v>
       </c>
-      <c r="F30" s="134"/>
       <c r="G30" s="134"/>
-    </row>
-    <row r="31" spans="1:8" s="135" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="134"/>
+    </row>
+    <row r="31" spans="1:9" s="135" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="151">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6946,19 +8580,22 @@
       <c r="B31" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="141" t="s">
+      <c r="C31" s="260" t="s">
+        <v>203</v>
+      </c>
+      <c r="D31" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="137" t="s">
+      <c r="E31" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="138">
+      <c r="F31" s="138">
         <v>-1</v>
       </c>
-      <c r="F31" s="134"/>
       <c r="G31" s="134"/>
-    </row>
-    <row r="32" spans="1:8" s="135" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="134"/>
+    </row>
+    <row r="32" spans="1:9" s="135" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="151">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6966,39 +8603,45 @@
       <c r="B32" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="141" t="s">
+      <c r="C32" s="260" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="137" t="s">
+      <c r="E32" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="138">
+      <c r="F32" s="138">
         <v>-1</v>
       </c>
-      <c r="F32" s="134"/>
       <c r="G32" s="134"/>
-    </row>
-    <row r="33" spans="1:7" s="135" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="134"/>
+    </row>
+    <row r="33" spans="1:8" s="135" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="151">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="254" t="s">
+      <c r="B33" s="163" t="s">
         <v>175</v>
       </c>
-      <c r="C33" s="255" t="s">
+      <c r="C33" s="261" t="s">
+        <v>205</v>
+      </c>
+      <c r="D33" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="256" t="s">
+      <c r="E33" s="165" t="s">
         <v>178</v>
       </c>
-      <c r="E33" s="138">
+      <c r="F33" s="138">
         <v>1</v>
       </c>
-      <c r="F33" s="134"/>
       <c r="G33" s="134"/>
-    </row>
-    <row r="34" spans="1:7" s="135" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="134"/>
+    </row>
+    <row r="34" spans="1:8" s="135" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="151">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -7006,19 +8649,22 @@
       <c r="B34" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="131" t="s">
+      <c r="C34" s="259" t="s">
+        <v>206</v>
+      </c>
+      <c r="D34" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="132" t="s">
+      <c r="E34" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="133">
+      <c r="F34" s="133">
         <v>-1</v>
       </c>
-      <c r="F34" s="134"/>
       <c r="G34" s="134"/>
-    </row>
-    <row r="35" spans="1:7" s="135" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="134"/>
+    </row>
+    <row r="35" spans="1:8" s="135" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="151">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -7026,19 +8672,22 @@
       <c r="B35" s="131" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="131" t="s">
+      <c r="C35" s="259" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="132" t="s">
+      <c r="E35" s="132" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="133">
+      <c r="F35" s="133">
         <v>-1</v>
       </c>
-      <c r="F35" s="134"/>
       <c r="G35" s="134"/>
-    </row>
-    <row r="36" spans="1:7" s="135" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="134"/>
+    </row>
+    <row r="36" spans="1:8" s="135" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="151">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -7046,85 +8695,93 @@
       <c r="B36" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="141" t="s">
+      <c r="C36" s="260" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="137" t="s">
+      <c r="E36" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="138">
+      <c r="F36" s="138">
         <v>-1</v>
       </c>
-      <c r="F36" s="134"/>
       <c r="G36" s="134"/>
-    </row>
-    <row r="38" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="134"/>
+    </row>
+    <row r="38" spans="1:8" s="85" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="142"/>
       <c r="B38" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="143"/>
-    </row>
-    <row r="39" spans="1:7" s="85" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="139"/>
+      <c r="E38" s="143"/>
+    </row>
+    <row r="39" spans="1:8" s="85" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="142"/>
-      <c r="B39" s="253" t="s">
+      <c r="B39" s="256" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="253"/>
-      <c r="D39" s="253"/>
-    </row>
-    <row r="40" spans="1:7" s="85" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C39" s="256"/>
+      <c r="D39" s="256"/>
+      <c r="E39" s="256"/>
+    </row>
+    <row r="40" spans="1:8" s="85" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="142"/>
       <c r="B40" s="85" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="142"/>
       <c r="B41" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="D41" s="143"/>
-    </row>
-    <row r="42" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="143"/>
+    </row>
+    <row r="42" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="142"/>
-      <c r="D42" s="143"/>
-    </row>
-    <row r="43" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="143"/>
+    </row>
+    <row r="43" spans="1:8" s="85" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="142"/>
       <c r="B43" s="139" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="143"/>
-    </row>
-    <row r="44" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="139"/>
+      <c r="E43" s="143"/>
+    </row>
+    <row r="44" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="142"/>
-      <c r="B44" s="253" t="s">
+      <c r="B44" s="256" t="s">
         <v>177</v>
       </c>
-      <c r="C44" s="253"/>
-      <c r="D44" s="253"/>
-    </row>
-    <row r="45" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="256"/>
+      <c r="D44" s="256"/>
+      <c r="E44" s="256"/>
+    </row>
+    <row r="45" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="142"/>
-      <c r="D45" s="143"/>
-    </row>
-    <row r="46" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="143"/>
+    </row>
+    <row r="46" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="142"/>
-      <c r="D46" s="143"/>
-    </row>
-    <row r="47" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="143"/>
+    </row>
+    <row r="47" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="142"/>
-      <c r="D47" s="143"/>
+      <c r="E47" s="143"/>
     </row>
   </sheetData>
   <sortState ref="B2:E27">
     <sortCondition ref="B2:B27"/>
   </sortState>
   <mergeCells count="2">
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B44:E44"/>
   </mergeCells>
+  <phoneticPr fontId="44" type="noConversion"/>
   <pageMargins left="0.2" right="0.2" top="1.25" bottom="0.75" header="0.2" footer="0.3"/>
   <pageSetup scale="66" orientation="landscape" r:id="rId1"/>
   <headerFooter>

--- a/ilpa/ILPA-Best-Practices-Capital-Call-and-Distribution-Notice-Template-v1.2.xlsx
+++ b/ilpa/ILPA-Best-Practices-Capital-Call-and-Distribution-Notice-Template-v1.2.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="251">
   <si>
     <t>Impact on Unfunded Balance (Current Notice)</t>
   </si>
@@ -3058,6 +3058,309 @@
       <t>？？</t>
     </r>
     <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自LP的电话，代表GP的资本要求份额（通常用作未来管理费的抵消）</t>
+  </si>
+  <si>
+    <t>要求投资新的或现有的基础资产</t>
+  </si>
+  <si>
+    <r>
+      <t>要求定期管理。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>费用/ GP分配，扣除任何豁免或抵消（在“边计算”部分提供管理费用计算）;减少没有资金的承诺</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>要求定期管理。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>费用/ GP分配，扣除任何豁免或抵消（在“边计算”部分提供管理费用计算）;对没有资金的承诺没有影响</t>
+    </r>
+  </si>
+  <si>
+    <t>根据LPA的定义，呼吁建立合伙企业/基金费用</t>
+  </si>
+  <si>
+    <r>
+      <t>要求向基金收取基金管理费用，包括会计，估价服务，备案费和信息技术活动;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>不包括审计和税务准备的费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>向基金收取的用于审计基金财务记录和编制与基金有关的任何税务文件的费用;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>不包括与组织基金，投资尽职调查和基金管理费用相关的任何费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>向基金收取银行/金融服务的费用;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>不包括基金管理费用</t>
+    </r>
+  </si>
+  <si>
+    <t>向基金收取的证券登记和其他与监管有关的活动的费用;不包括基金管理费用</t>
+  </si>
+  <si>
+    <r>
+      <t>向基金收取的费用，以确认有关潜在投资机会的所有重大假设;包括与特定投资机会的尽职调查明确相关的所有费用，包括法律，差旅和其他费用;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>包括完成和未完成的交易;排除管理费用以及识别和寻找潜在投资机会的成本;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>不包括基金管理费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>代表基金向基金收取法律服务的费用;包括法律分析，以解释或修改基金的LPA;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>不包括与组织/管理基金或投资尽职调查相关的任何法律费用</t>
+    </r>
+  </si>
+  <si>
+    <t>向基金收取的设立基金的费用，包括任何法律/审计费用;不包括任何基金管理费用或安置费用</t>
+  </si>
+  <si>
+    <r>
+      <t>代表基金向基金收取的与旅行和娱乐有关的费用;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>可能包括与LPAC会议或未报销的投资组合公司会议相关的旅行;不包括与尽职调查相关的差旅费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>向基金收取的费用，未在别处说明;可能包括年度会议费用，保险，合伙企业税收和交易发起/监督费用;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>（在Call / Dist。模板的最左栏中提供这些费用的说明）</t>
+    </r>
+  </si>
+  <si>
+    <t>向筹款/经理/关联方或外部各方支付筹款服务的费用/费用</t>
+  </si>
+  <si>
+    <t>LP承诺随后关闭基金的利息</t>
+  </si>
+  <si>
+    <t>在最终使用资金尚未确定时，减少未提供资金的义务</t>
+  </si>
+  <si>
+    <t>按照LPA中的瀑布计算（偏离分配）定义，GP的分配份额继续进行</t>
+  </si>
+  <si>
+    <t>按照LPA中的瀑布计算（偏移到Carry）的定义，将超出的回报分配给GP</t>
+  </si>
+  <si>
+    <t>从相关持股中获得的收入或股息</t>
+  </si>
+  <si>
+    <t>上面没有另外定义的杂项分发（在工作表的最左栏中提供这些费用的说明）</t>
+  </si>
+  <si>
+    <t>通过全面或部分出售基础持有来实现收益</t>
+  </si>
+  <si>
+    <t>从股票分配中实现收益</t>
+  </si>
+  <si>
+    <t>全部或部分出售相关持股的损失</t>
+  </si>
+  <si>
+    <t>实现了股票分配的损失</t>
+  </si>
+  <si>
+    <t>全部或部分出售相关持股的投资资本回报</t>
+  </si>
+  <si>
+    <t>退还管理费</t>
+  </si>
+  <si>
+    <t>退还合伙费用</t>
+  </si>
+  <si>
+    <t>股票分配的成本基础</t>
+  </si>
+  <si>
+    <t>未使用收益的回报需要投资（通常会增加无资金的承诺）</t>
+  </si>
+  <si>
+    <t>从承诺随后关闭基金的LP收到的利息</t>
+  </si>
+  <si>
+    <t>从分配中扣除的税（抵消已实现的收益和/或收入/股息）</t>
+  </si>
+  <si>
+    <t>可以在将来再次调用的管理费退还</t>
+  </si>
+  <si>
+    <t>返回可以在将来再次调用的合伙费用</t>
+  </si>
+  <si>
+    <t>以前称为基础持有的资本回报可以再次调用</t>
   </si>
 </sst>
 </file>
@@ -3069,7 +3372,7 @@
     <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3406,8 +3709,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="&amp;#23435;&amp;#20307;"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3450,8 +3765,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -3964,13 +4285,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -4479,375 +4815,387 @@
     <xf numFmtId="0" fontId="43" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="18" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="18" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="30" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="30" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="30" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="30" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="18" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="18" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4894,7 +5242,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5384,7 +5732,7 @@
       <selection pane="bottomRight" activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="57.625" style="40" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="25.75" style="40" customWidth="1"/>
@@ -5404,12 +5752,12 @@
     <col min="18" max="16384" width="9.125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="195" t="s">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A1" s="226" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="196"/>
-      <c r="C1" s="197"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="228"/>
       <c r="D1" s="6"/>
       <c r="E1" s="109" t="s">
         <v>75</v>
@@ -5425,14 +5773,14 @@
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
     </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="147" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="229" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="199"/>
+      <c r="C2" s="230"/>
       <c r="D2" s="161" t="s">
         <v>77</v>
       </c>
@@ -5446,12 +5794,12 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="200" t="s">
+    <row r="3" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
+      <c r="A3" s="231" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="201"/>
-      <c r="C3" s="202"/>
+      <c r="B3" s="232"/>
+      <c r="C3" s="233"/>
       <c r="D3" s="154"/>
       <c r="E3" s="152"/>
       <c r="F3" s="154"/>
@@ -5463,19 +5811,19 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="203">
+      <c r="B4" s="234">
         <v>42527</v>
       </c>
-      <c r="C4" s="204"/>
-      <c r="D4" s="166" t="s">
+      <c r="C4" s="235"/>
+      <c r="D4" s="260" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
+      <c r="E4" s="243"/>
+      <c r="F4" s="243"/>
       <c r="G4" s="154"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -5484,19 +5832,19 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="193">
+      <c r="B5" s="222">
         <v>42541</v>
       </c>
-      <c r="C5" s="194"/>
-      <c r="D5" s="166" t="s">
+      <c r="C5" s="223"/>
+      <c r="D5" s="260" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
       <c r="G5" s="154"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -5505,19 +5853,19 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="193" t="s">
+      <c r="B6" s="222" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="166" t="s">
+      <c r="C6" s="223"/>
+      <c r="D6" s="260" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
       <c r="G6" s="154"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -5526,19 +5874,19 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="205">
+      <c r="B7" s="217">
         <v>1000000</v>
       </c>
-      <c r="C7" s="206"/>
-      <c r="D7" s="166" t="s">
+      <c r="C7" s="218"/>
+      <c r="D7" s="260" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
+      <c r="E7" s="243"/>
+      <c r="F7" s="243"/>
       <c r="G7" s="154"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -5547,25 +5895,25 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="205">
+      <c r="B8" s="217">
         <v>1000000000</v>
       </c>
-      <c r="C8" s="206"/>
-      <c r="D8" s="166" t="s">
+      <c r="C8" s="218"/>
+      <c r="D8" s="260" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="243"/>
       <c r="G8" s="154"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:15" s="8" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="8" customFormat="1" ht="25.15" customHeight="1">
       <c r="A9" s="148" t="s">
         <v>2</v>
       </c>
@@ -5583,7 +5931,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>137</v>
       </c>
@@ -5593,17 +5941,17 @@
       <c r="C10" s="99">
         <v>-10000000</v>
       </c>
-      <c r="D10" s="166" t="s">
+      <c r="D10" s="260" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
       <c r="G10" s="156"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>138</v>
       </c>
@@ -5613,17 +5961,17 @@
       <c r="C11" s="101">
         <v>0</v>
       </c>
-      <c r="D11" s="166" t="s">
+      <c r="D11" s="260" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
+      <c r="E11" s="243"/>
+      <c r="F11" s="243"/>
       <c r="G11" s="156"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A12" s="17" t="s">
         <v>121</v>
       </c>
@@ -5643,12 +5991,12 @@
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="207" t="s">
+    <row r="13" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
+      <c r="A13" s="219" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="208"/>
-      <c r="C13" s="209"/>
+      <c r="B13" s="220"/>
+      <c r="C13" s="221"/>
       <c r="D13" s="155"/>
       <c r="E13" s="156"/>
       <c r="F13" s="156"/>
@@ -5657,20 +6005,20 @@
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="193" t="s">
+      <c r="B14" s="222" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="194"/>
-      <c r="D14" s="167" t="s">
+      <c r="C14" s="223"/>
+      <c r="D14" s="243" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
+      <c r="E14" s="243"/>
+      <c r="F14" s="243"/>
+      <c r="G14" s="243"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -5678,20 +6026,20 @@
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="210">
+      <c r="B15" s="224">
         <v>50000000</v>
       </c>
-      <c r="C15" s="211"/>
-      <c r="D15" s="167" t="s">
+      <c r="C15" s="225"/>
+      <c r="D15" s="243" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
+      <c r="E15" s="243"/>
+      <c r="F15" s="243"/>
+      <c r="G15" s="243"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -5699,15 +6047,15 @@
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A16" s="146" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="187">
+      <c r="B16" s="256">
         <f>IF(B8=0,0,B15/B8)</f>
         <v>0.05</v>
       </c>
-      <c r="C16" s="188"/>
+      <c r="C16" s="257"/>
       <c r="D16" s="162"/>
       <c r="E16" s="157"/>
       <c r="F16" s="157"/>
@@ -5719,20 +6067,20 @@
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A17" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="189">
+      <c r="B17" s="258">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="C17" s="190"/>
-      <c r="D17" s="175" t="s">
+      <c r="C17" s="259"/>
+      <c r="D17" s="244" t="s">
         <v>174</v>
       </c>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
+      <c r="E17" s="245"/>
+      <c r="F17" s="245"/>
+      <c r="G17" s="245"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -5740,20 +6088,20 @@
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="191">
+      <c r="B18" s="190">
         <v>47500000</v>
       </c>
-      <c r="C18" s="192"/>
-      <c r="D18" s="176" t="s">
+      <c r="C18" s="191"/>
+      <c r="D18" s="245" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="176"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="176"/>
+      <c r="E18" s="245"/>
+      <c r="F18" s="245"/>
+      <c r="G18" s="245"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -5761,20 +6109,20 @@
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
     </row>
-    <row r="19" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="191">
+      <c r="B19" s="190">
         <v>2500000</v>
       </c>
-      <c r="C19" s="192"/>
-      <c r="D19" s="176" t="s">
+      <c r="C19" s="191"/>
+      <c r="D19" s="245" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="176"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="176"/>
+      <c r="E19" s="245"/>
+      <c r="F19" s="245"/>
+      <c r="G19" s="245"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -5782,20 +6130,20 @@
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A20" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="191">
+      <c r="B20" s="190">
         <v>500000</v>
       </c>
-      <c r="C20" s="192"/>
-      <c r="D20" s="176" t="s">
+      <c r="C20" s="191"/>
+      <c r="D20" s="245" t="s">
         <v>167</v>
       </c>
-      <c r="E20" s="176"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="176"/>
+      <c r="E20" s="245"/>
+      <c r="F20" s="245"/>
+      <c r="G20" s="245"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
@@ -5803,12 +6151,12 @@
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
     </row>
-    <row r="21" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="212" t="s">
+    <row r="21" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="A21" s="192" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="213"/>
-      <c r="C21" s="214"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="194"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
@@ -5820,12 +6168,12 @@
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
     </row>
-    <row r="22" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="182" t="s">
+    <row r="22" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="A22" s="251" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="183"/>
-      <c r="C22" s="184"/>
+      <c r="B22" s="252"/>
+      <c r="C22" s="253"/>
       <c r="D22" s="24"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
@@ -5837,15 +6185,15 @@
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
     </row>
-    <row r="23" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A23" s="144" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="185">
+      <c r="B23" s="254">
         <f>B18</f>
         <v>47500000</v>
       </c>
-      <c r="C23" s="186"/>
+      <c r="C23" s="255"/>
       <c r="D23" s="26"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
@@ -5857,15 +6205,15 @@
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
     </row>
-    <row r="24" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A24" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="217">
+      <c r="B24" s="195">
         <f>SUM(F39:F80)</f>
         <v>-237500</v>
       </c>
-      <c r="C24" s="218"/>
+      <c r="C24" s="196"/>
       <c r="D24" s="26"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -5877,15 +6225,15 @@
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
     </row>
-    <row r="25" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A25" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="219">
+      <c r="B25" s="197">
         <f>B23+B24</f>
         <v>47262500</v>
       </c>
-      <c r="C25" s="220"/>
+      <c r="C25" s="198"/>
       <c r="D25" s="26"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -5897,7 +6245,7 @@
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
     </row>
-    <row r="26" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A26" s="95" t="s">
         <v>5</v>
       </c>
@@ -5918,7 +6266,7 @@
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
     </row>
-    <row r="27" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A27" s="25" t="s">
         <v>152</v>
       </c>
@@ -5941,7 +6289,7 @@
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
     </row>
-    <row r="28" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A28" s="29" t="s">
         <v>122</v>
       </c>
@@ -5964,7 +6312,7 @@
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
     </row>
-    <row r="29" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A29" s="32" t="s">
         <v>153</v>
       </c>
@@ -5987,7 +6335,7 @@
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
     </row>
-    <row r="30" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A30" s="29" t="s">
         <v>6</v>
       </c>
@@ -6010,7 +6358,7 @@
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
     </row>
-    <row r="31" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A31" s="35" t="s">
         <v>154</v>
       </c>
@@ -6033,7 +6381,7 @@
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
     </row>
-    <row r="32" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A32" s="29" t="s">
         <v>122</v>
       </c>
@@ -6056,15 +6404,15 @@
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
     </row>
-    <row r="33" spans="1:17" s="8" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="8" customFormat="1" ht="30.75" thickBot="1">
       <c r="A33" s="93" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="221">
+      <c r="B33" s="199">
         <f>SUMIF(G39:G80,"&gt; -999999999999999999")</f>
         <v>0</v>
       </c>
-      <c r="C33" s="222"/>
+      <c r="C33" s="200"/>
       <c r="D33" s="38"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
@@ -6076,16 +6424,16 @@
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
     </row>
-    <row r="34" spans="1:17" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="177" t="s">
+    <row r="34" spans="1:17" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A34" s="246" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="177"/>
-      <c r="C34" s="177"/>
-      <c r="D34" s="177"/>
-      <c r="E34" s="177"/>
-      <c r="F34" s="177"/>
-      <c r="G34" s="177"/>
+      <c r="B34" s="246"/>
+      <c r="C34" s="246"/>
+      <c r="D34" s="246"/>
+      <c r="E34" s="246"/>
+      <c r="F34" s="246"/>
+      <c r="G34" s="246"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
@@ -6093,16 +6441,16 @@
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
     </row>
-    <row r="35" spans="1:17" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="223" t="s">
+    <row r="35" spans="1:17" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A35" s="201" t="s">
         <v>172</v>
       </c>
-      <c r="B35" s="223"/>
-      <c r="C35" s="223"/>
-      <c r="D35" s="223"/>
-      <c r="E35" s="223"/>
-      <c r="F35" s="223"/>
-      <c r="G35" s="223"/>
+      <c r="B35" s="201"/>
+      <c r="C35" s="201"/>
+      <c r="D35" s="201"/>
+      <c r="E35" s="201"/>
+      <c r="F35" s="201"/>
+      <c r="G35" s="201"/>
       <c r="H35" s="39"/>
       <c r="I35" s="39"/>
       <c r="J35" s="39"/>
@@ -6110,48 +6458,48 @@
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
     </row>
-    <row r="36" spans="1:17" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="224" t="s">
+    <row r="36" spans="1:17" ht="16.149999999999999" customHeight="1" thickBot="1">
+      <c r="A36" s="202" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="225"/>
-      <c r="C36" s="225"/>
-      <c r="D36" s="225"/>
-      <c r="E36" s="225"/>
-      <c r="F36" s="225"/>
-      <c r="G36" s="226"/>
+      <c r="B36" s="203"/>
+      <c r="C36" s="203"/>
+      <c r="D36" s="203"/>
+      <c r="E36" s="203"/>
+      <c r="F36" s="203"/>
+      <c r="G36" s="204"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="227" t="s">
+    <row r="37" spans="1:17">
+      <c r="A37" s="205" t="s">
         <v>147</v>
       </c>
-      <c r="B37" s="229" t="s">
+      <c r="B37" s="207" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="230"/>
-      <c r="D37" s="229" t="s">
+      <c r="C37" s="208"/>
+      <c r="D37" s="207" t="s">
         <v>149</v>
       </c>
-      <c r="E37" s="233" t="s">
+      <c r="E37" s="211" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="235" t="s">
+      <c r="F37" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="236"/>
+      <c r="G37" s="214"/>
       <c r="H37" s="42"/>
       <c r="I37" s="42"/>
       <c r="J37" s="42"/>
     </row>
-    <row r="38" spans="1:17" s="46" customFormat="1" ht="58.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="228"/>
-      <c r="B38" s="231"/>
-      <c r="C38" s="232"/>
-      <c r="D38" s="231"/>
-      <c r="E38" s="234"/>
+    <row r="38" spans="1:17" s="46" customFormat="1" ht="58.15" customHeight="1" thickBot="1">
+      <c r="A38" s="206"/>
+      <c r="B38" s="209"/>
+      <c r="C38" s="210"/>
+      <c r="D38" s="209"/>
+      <c r="E38" s="212"/>
       <c r="F38" s="43" t="s">
         <v>114</v>
       </c>
@@ -6163,14 +6511,14 @@
       <c r="J38" s="45"/>
       <c r="Q38" s="47"/>
     </row>
-    <row r="39" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="14.25">
       <c r="A39" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="237" t="s">
+      <c r="B39" s="215" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="238"/>
+      <c r="C39" s="216"/>
       <c r="D39" s="103">
         <v>237500</v>
       </c>
@@ -6199,10 +6547,10 @@
       </c>
       <c r="K39" s="51"/>
     </row>
-    <row r="40" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="14.25">
       <c r="A40" s="104"/>
-      <c r="B40" s="215"/>
-      <c r="C40" s="216"/>
+      <c r="B40" s="188"/>
+      <c r="C40" s="189"/>
       <c r="D40" s="103"/>
       <c r="E40" s="108"/>
       <c r="F40" s="48" t="str">
@@ -6227,10 +6575,10 @@
       </c>
       <c r="K40" s="51"/>
     </row>
-    <row r="41" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="14.25">
       <c r="A41" s="104"/>
-      <c r="B41" s="215"/>
-      <c r="C41" s="216"/>
+      <c r="B41" s="188"/>
+      <c r="C41" s="189"/>
       <c r="D41" s="103"/>
       <c r="E41" s="108"/>
       <c r="F41" s="48" t="str">
@@ -6255,10 +6603,10 @@
       </c>
       <c r="K41" s="51"/>
     </row>
-    <row r="42" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="14.25">
       <c r="A42" s="104"/>
-      <c r="B42" s="215"/>
-      <c r="C42" s="216"/>
+      <c r="B42" s="188"/>
+      <c r="C42" s="189"/>
       <c r="D42" s="103"/>
       <c r="E42" s="108"/>
       <c r="F42" s="48" t="str">
@@ -6283,10 +6631,10 @@
       </c>
       <c r="K42" s="51"/>
     </row>
-    <row r="43" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="14.25">
       <c r="A43" s="104"/>
-      <c r="B43" s="215"/>
-      <c r="C43" s="216"/>
+      <c r="B43" s="188"/>
+      <c r="C43" s="189"/>
       <c r="D43" s="103"/>
       <c r="E43" s="108"/>
       <c r="F43" s="48" t="str">
@@ -6311,10 +6659,10 @@
       </c>
       <c r="K43" s="51"/>
     </row>
-    <row r="44" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="14.25">
       <c r="A44" s="104"/>
-      <c r="B44" s="215"/>
-      <c r="C44" s="216"/>
+      <c r="B44" s="188"/>
+      <c r="C44" s="189"/>
       <c r="D44" s="103"/>
       <c r="E44" s="108"/>
       <c r="F44" s="48" t="str">
@@ -6339,10 +6687,10 @@
       </c>
       <c r="K44" s="51"/>
     </row>
-    <row r="45" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="14.25">
       <c r="A45" s="104"/>
-      <c r="B45" s="215"/>
-      <c r="C45" s="216"/>
+      <c r="B45" s="188"/>
+      <c r="C45" s="189"/>
       <c r="D45" s="103"/>
       <c r="E45" s="108"/>
       <c r="F45" s="48" t="str">
@@ -6367,10 +6715,10 @@
       </c>
       <c r="K45" s="51"/>
     </row>
-    <row r="46" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="14.25">
       <c r="A46" s="104"/>
-      <c r="B46" s="215"/>
-      <c r="C46" s="216"/>
+      <c r="B46" s="188"/>
+      <c r="C46" s="189"/>
       <c r="D46" s="103"/>
       <c r="E46" s="108"/>
       <c r="F46" s="48" t="str">
@@ -6395,10 +6743,10 @@
       </c>
       <c r="K46" s="51"/>
     </row>
-    <row r="47" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="14.25">
       <c r="A47" s="104"/>
-      <c r="B47" s="215"/>
-      <c r="C47" s="216"/>
+      <c r="B47" s="188"/>
+      <c r="C47" s="189"/>
       <c r="D47" s="103"/>
       <c r="E47" s="108"/>
       <c r="F47" s="48" t="str">
@@ -6423,10 +6771,10 @@
       </c>
       <c r="K47" s="51"/>
     </row>
-    <row r="48" spans="1:17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="14.25">
       <c r="A48" s="104"/>
-      <c r="B48" s="215"/>
-      <c r="C48" s="216"/>
+      <c r="B48" s="188"/>
+      <c r="C48" s="189"/>
       <c r="D48" s="103"/>
       <c r="E48" s="108"/>
       <c r="F48" s="48" t="str">
@@ -6451,10 +6799,10 @@
       </c>
       <c r="K48" s="51"/>
     </row>
-    <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="14.25">
       <c r="A49" s="104"/>
-      <c r="B49" s="215"/>
-      <c r="C49" s="216"/>
+      <c r="B49" s="188"/>
+      <c r="C49" s="189"/>
       <c r="D49" s="103"/>
       <c r="E49" s="108"/>
       <c r="F49" s="48" t="str">
@@ -6479,10 +6827,10 @@
       </c>
       <c r="K49" s="51"/>
     </row>
-    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="14.25">
       <c r="A50" s="104"/>
-      <c r="B50" s="215"/>
-      <c r="C50" s="216"/>
+      <c r="B50" s="188"/>
+      <c r="C50" s="189"/>
       <c r="D50" s="103"/>
       <c r="E50" s="108"/>
       <c r="F50" s="48" t="str">
@@ -6507,10 +6855,10 @@
       </c>
       <c r="K50" s="51"/>
     </row>
-    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="14.25">
       <c r="A51" s="104"/>
-      <c r="B51" s="215"/>
-      <c r="C51" s="216"/>
+      <c r="B51" s="188"/>
+      <c r="C51" s="189"/>
       <c r="D51" s="103"/>
       <c r="E51" s="108"/>
       <c r="F51" s="48" t="str">
@@ -6535,10 +6883,10 @@
       </c>
       <c r="K51" s="51"/>
     </row>
-    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="14.25">
       <c r="A52" s="104"/>
-      <c r="B52" s="215"/>
-      <c r="C52" s="216"/>
+      <c r="B52" s="188"/>
+      <c r="C52" s="189"/>
       <c r="D52" s="103"/>
       <c r="E52" s="108"/>
       <c r="F52" s="48" t="str">
@@ -6563,10 +6911,10 @@
       </c>
       <c r="K52" s="51"/>
     </row>
-    <row r="53" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="14.25">
       <c r="A53" s="104"/>
-      <c r="B53" s="215"/>
-      <c r="C53" s="216"/>
+      <c r="B53" s="188"/>
+      <c r="C53" s="189"/>
       <c r="D53" s="103"/>
       <c r="E53" s="108"/>
       <c r="F53" s="48" t="str">
@@ -6591,10 +6939,10 @@
       </c>
       <c r="K53" s="51"/>
     </row>
-    <row r="54" spans="1:18" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" s="53" customFormat="1" ht="14.25">
       <c r="A54" s="104"/>
-      <c r="B54" s="215"/>
-      <c r="C54" s="216"/>
+      <c r="B54" s="188"/>
+      <c r="C54" s="189"/>
       <c r="D54" s="103"/>
       <c r="E54" s="108"/>
       <c r="F54" s="48" t="str">
@@ -6624,10 +6972,10 @@
       <c r="O54" s="52"/>
       <c r="P54" s="52"/>
     </row>
-    <row r="55" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="14.25">
       <c r="A55" s="104"/>
-      <c r="B55" s="215"/>
-      <c r="C55" s="216"/>
+      <c r="B55" s="188"/>
+      <c r="C55" s="189"/>
       <c r="D55" s="103"/>
       <c r="E55" s="108"/>
       <c r="F55" s="48" t="str">
@@ -6657,10 +7005,10 @@
       <c r="O55" s="55"/>
       <c r="P55" s="54"/>
     </row>
-    <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="15" customHeight="1">
       <c r="A56" s="104"/>
-      <c r="B56" s="215"/>
-      <c r="C56" s="216"/>
+      <c r="B56" s="188"/>
+      <c r="C56" s="189"/>
       <c r="D56" s="103"/>
       <c r="E56" s="108"/>
       <c r="F56" s="48" t="str">
@@ -6690,10 +7038,10 @@
       <c r="O56" s="55"/>
       <c r="P56" s="54"/>
     </row>
-    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="15.75" customHeight="1">
       <c r="A57" s="104"/>
-      <c r="B57" s="215"/>
-      <c r="C57" s="216"/>
+      <c r="B57" s="188"/>
+      <c r="C57" s="189"/>
       <c r="D57" s="103"/>
       <c r="E57" s="108"/>
       <c r="F57" s="48" t="str">
@@ -6723,10 +7071,10 @@
       <c r="O57" s="55"/>
       <c r="P57" s="54"/>
     </row>
-    <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="15" customHeight="1">
       <c r="A58" s="104"/>
-      <c r="B58" s="215"/>
-      <c r="C58" s="216"/>
+      <c r="B58" s="188"/>
+      <c r="C58" s="189"/>
       <c r="D58" s="103"/>
       <c r="E58" s="108"/>
       <c r="F58" s="48" t="str">
@@ -6756,10 +7104,10 @@
       <c r="O58" s="55"/>
       <c r="P58" s="54"/>
     </row>
-    <row r="59" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="15" customHeight="1">
       <c r="A59" s="104"/>
-      <c r="B59" s="215"/>
-      <c r="C59" s="216"/>
+      <c r="B59" s="188"/>
+      <c r="C59" s="189"/>
       <c r="D59" s="103"/>
       <c r="E59" s="108"/>
       <c r="F59" s="48" t="str">
@@ -6789,10 +7137,10 @@
       <c r="O59" s="54"/>
       <c r="P59" s="54"/>
     </row>
-    <row r="60" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="14.25">
       <c r="A60" s="104"/>
-      <c r="B60" s="215"/>
-      <c r="C60" s="216"/>
+      <c r="B60" s="188"/>
+      <c r="C60" s="189"/>
       <c r="D60" s="103"/>
       <c r="E60" s="108"/>
       <c r="F60" s="48" t="str">
@@ -6822,10 +7170,10 @@
       <c r="O60" s="54"/>
       <c r="P60" s="54"/>
     </row>
-    <row r="61" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="12.75" customHeight="1">
       <c r="A61" s="104"/>
-      <c r="B61" s="215"/>
-      <c r="C61" s="216"/>
+      <c r="B61" s="188"/>
+      <c r="C61" s="189"/>
       <c r="D61" s="103"/>
       <c r="E61" s="108"/>
       <c r="F61" s="48" t="str">
@@ -6857,10 +7205,10 @@
       <c r="Q61" s="41"/>
       <c r="R61" s="41"/>
     </row>
-    <row r="62" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="15" customHeight="1">
       <c r="A62" s="104"/>
-      <c r="B62" s="215"/>
-      <c r="C62" s="216"/>
+      <c r="B62" s="188"/>
+      <c r="C62" s="189"/>
       <c r="D62" s="103"/>
       <c r="E62" s="108"/>
       <c r="F62" s="48" t="str">
@@ -6892,10 +7240,10 @@
       <c r="Q62" s="41"/>
       <c r="R62" s="41"/>
     </row>
-    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" ht="14.25">
       <c r="A63" s="104"/>
-      <c r="B63" s="215"/>
-      <c r="C63" s="216"/>
+      <c r="B63" s="188"/>
+      <c r="C63" s="189"/>
       <c r="D63" s="103"/>
       <c r="E63" s="108"/>
       <c r="F63" s="48" t="str">
@@ -6927,10 +7275,10 @@
       <c r="Q63" s="41"/>
       <c r="R63" s="41"/>
     </row>
-    <row r="64" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" ht="14.25">
       <c r="A64" s="104"/>
-      <c r="B64" s="215"/>
-      <c r="C64" s="216"/>
+      <c r="B64" s="188"/>
+      <c r="C64" s="189"/>
       <c r="D64" s="103"/>
       <c r="E64" s="108"/>
       <c r="F64" s="48" t="str">
@@ -6962,10 +7310,10 @@
       <c r="Q64" s="41"/>
       <c r="R64" s="41"/>
     </row>
-    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" ht="14.25">
       <c r="A65" s="104"/>
-      <c r="B65" s="215"/>
-      <c r="C65" s="216"/>
+      <c r="B65" s="188"/>
+      <c r="C65" s="189"/>
       <c r="D65" s="103"/>
       <c r="E65" s="108"/>
       <c r="F65" s="48" t="str">
@@ -6996,10 +7344,10 @@
       <c r="P65" s="55"/>
       <c r="R65" s="56"/>
     </row>
-    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" ht="14.25">
       <c r="A66" s="104"/>
-      <c r="B66" s="215"/>
-      <c r="C66" s="216"/>
+      <c r="B66" s="188"/>
+      <c r="C66" s="189"/>
       <c r="D66" s="103"/>
       <c r="E66" s="108"/>
       <c r="F66" s="48" t="str">
@@ -7030,10 +7378,10 @@
       <c r="P66" s="55"/>
       <c r="R66" s="11"/>
     </row>
-    <row r="67" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" ht="12.75" customHeight="1">
       <c r="A67" s="104"/>
-      <c r="B67" s="215"/>
-      <c r="C67" s="216"/>
+      <c r="B67" s="188"/>
+      <c r="C67" s="189"/>
       <c r="D67" s="103"/>
       <c r="E67" s="108"/>
       <c r="F67" s="48" t="str">
@@ -7064,10 +7412,10 @@
       <c r="P67" s="54"/>
       <c r="R67" s="12"/>
     </row>
-    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" ht="14.25">
       <c r="A68" s="104"/>
-      <c r="B68" s="215"/>
-      <c r="C68" s="216"/>
+      <c r="B68" s="188"/>
+      <c r="C68" s="189"/>
       <c r="D68" s="103"/>
       <c r="E68" s="108"/>
       <c r="F68" s="48" t="str">
@@ -7097,10 +7445,10 @@
       <c r="O68" s="54"/>
       <c r="P68" s="54"/>
     </row>
-    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" ht="14.25">
       <c r="A69" s="104"/>
-      <c r="B69" s="215"/>
-      <c r="C69" s="216"/>
+      <c r="B69" s="188"/>
+      <c r="C69" s="189"/>
       <c r="D69" s="103"/>
       <c r="E69" s="108"/>
       <c r="F69" s="48" t="str">
@@ -7125,10 +7473,10 @@
       </c>
       <c r="K69" s="51"/>
     </row>
-    <row r="70" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" ht="14.25">
       <c r="A70" s="104"/>
-      <c r="B70" s="215"/>
-      <c r="C70" s="216"/>
+      <c r="B70" s="188"/>
+      <c r="C70" s="189"/>
       <c r="D70" s="103"/>
       <c r="E70" s="108"/>
       <c r="F70" s="48" t="str">
@@ -7153,10 +7501,10 @@
       </c>
       <c r="K70" s="51"/>
     </row>
-    <row r="71" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" ht="14.25">
       <c r="A71" s="104"/>
-      <c r="B71" s="215"/>
-      <c r="C71" s="216"/>
+      <c r="B71" s="188"/>
+      <c r="C71" s="189"/>
       <c r="D71" s="103"/>
       <c r="E71" s="108"/>
       <c r="F71" s="48" t="str">
@@ -7181,10 +7529,10 @@
       </c>
       <c r="K71" s="51"/>
     </row>
-    <row r="72" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" ht="14.25">
       <c r="A72" s="104"/>
-      <c r="B72" s="215"/>
-      <c r="C72" s="216"/>
+      <c r="B72" s="188"/>
+      <c r="C72" s="189"/>
       <c r="D72" s="103"/>
       <c r="E72" s="108"/>
       <c r="F72" s="48" t="str">
@@ -7209,10 +7557,10 @@
       </c>
       <c r="K72" s="51"/>
     </row>
-    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" ht="14.25">
       <c r="A73" s="104"/>
-      <c r="B73" s="215"/>
-      <c r="C73" s="216"/>
+      <c r="B73" s="188"/>
+      <c r="C73" s="189"/>
       <c r="D73" s="103"/>
       <c r="E73" s="108"/>
       <c r="F73" s="48" t="str">
@@ -7237,10 +7585,10 @@
       </c>
       <c r="K73" s="51"/>
     </row>
-    <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" ht="14.25">
       <c r="A74" s="104"/>
-      <c r="B74" s="215"/>
-      <c r="C74" s="216"/>
+      <c r="B74" s="188"/>
+      <c r="C74" s="189"/>
       <c r="D74" s="103"/>
       <c r="E74" s="108"/>
       <c r="F74" s="48" t="str">
@@ -7265,10 +7613,10 @@
       </c>
       <c r="K74" s="51"/>
     </row>
-    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" ht="14.25">
       <c r="A75" s="104"/>
-      <c r="B75" s="215"/>
-      <c r="C75" s="216"/>
+      <c r="B75" s="188"/>
+      <c r="C75" s="189"/>
       <c r="D75" s="103"/>
       <c r="E75" s="108"/>
       <c r="F75" s="48" t="str">
@@ -7293,10 +7641,10 @@
       </c>
       <c r="K75" s="51"/>
     </row>
-    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" ht="14.25">
       <c r="A76" s="104"/>
-      <c r="B76" s="215"/>
-      <c r="C76" s="216"/>
+      <c r="B76" s="188"/>
+      <c r="C76" s="189"/>
       <c r="D76" s="103"/>
       <c r="E76" s="108"/>
       <c r="F76" s="48" t="str">
@@ -7321,10 +7669,10 @@
       </c>
       <c r="K76" s="51"/>
     </row>
-    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" ht="14.25">
       <c r="A77" s="104"/>
-      <c r="B77" s="215"/>
-      <c r="C77" s="216"/>
+      <c r="B77" s="188"/>
+      <c r="C77" s="189"/>
       <c r="D77" s="103"/>
       <c r="E77" s="108"/>
       <c r="F77" s="48" t="str">
@@ -7349,10 +7697,10 @@
       </c>
       <c r="K77" s="51"/>
     </row>
-    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" ht="14.25">
       <c r="A78" s="104"/>
-      <c r="B78" s="215"/>
-      <c r="C78" s="216"/>
+      <c r="B78" s="188"/>
+      <c r="C78" s="189"/>
       <c r="D78" s="103"/>
       <c r="E78" s="108"/>
       <c r="F78" s="48" t="str">
@@ -7377,10 +7725,10 @@
       </c>
       <c r="K78" s="51"/>
     </row>
-    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" ht="14.25">
       <c r="A79" s="104"/>
-      <c r="B79" s="215"/>
-      <c r="C79" s="216"/>
+      <c r="B79" s="188"/>
+      <c r="C79" s="189"/>
       <c r="D79" s="103"/>
       <c r="E79" s="108"/>
       <c r="F79" s="48" t="str">
@@ -7405,10 +7753,10 @@
       </c>
       <c r="K79" s="51"/>
     </row>
-    <row r="80" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" ht="14.25">
       <c r="A80" s="104"/>
-      <c r="B80" s="215"/>
-      <c r="C80" s="216"/>
+      <c r="B80" s="188"/>
+      <c r="C80" s="189"/>
       <c r="D80" s="103"/>
       <c r="E80" s="108"/>
       <c r="F80" s="48" t="str">
@@ -7433,105 +7781,105 @@
       </c>
       <c r="K80" s="51"/>
     </row>
-    <row r="84" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="239" t="s">
+    <row r="84" spans="1:5" ht="13.5" thickBot="1"/>
+    <row r="85" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A85" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="B85" s="240"/>
-      <c r="C85" s="240"/>
-      <c r="D85" s="240"/>
-      <c r="E85" s="241"/>
-    </row>
-    <row r="86" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="186"/>
+      <c r="C85" s="186"/>
+      <c r="D85" s="186"/>
+      <c r="E85" s="187"/>
+    </row>
+    <row r="86" spans="1:5" ht="13.5" thickBot="1">
       <c r="D86" s="40"/>
     </row>
-    <row r="87" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="246" t="s">
+    <row r="87" spans="1:5" ht="13.5" thickBot="1">
+      <c r="A87" s="175" t="s">
         <v>156</v>
       </c>
-      <c r="B87" s="247"/>
-      <c r="C87" s="247"/>
-      <c r="D87" s="247"/>
-      <c r="E87" s="248"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="176"/>
+      <c r="C87" s="176"/>
+      <c r="D87" s="176"/>
+      <c r="E87" s="177"/>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="252"/>
-      <c r="C88" s="252"/>
-      <c r="D88" s="252"/>
-      <c r="E88" s="253"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="181"/>
+      <c r="C88" s="181"/>
+      <c r="D88" s="181"/>
+      <c r="E88" s="182"/>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="254"/>
-      <c r="C89" s="254"/>
-      <c r="D89" s="254"/>
-      <c r="E89" s="255"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="183"/>
+      <c r="C89" s="183"/>
+      <c r="D89" s="183"/>
+      <c r="E89" s="184"/>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="254"/>
-      <c r="C90" s="254"/>
-      <c r="D90" s="254"/>
-      <c r="E90" s="255"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="183"/>
+      <c r="C90" s="183"/>
+      <c r="D90" s="183"/>
+      <c r="E90" s="184"/>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="254"/>
-      <c r="C91" s="254"/>
-      <c r="D91" s="254"/>
-      <c r="E91" s="255"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="183"/>
+      <c r="C91" s="183"/>
+      <c r="D91" s="183"/>
+      <c r="E91" s="184"/>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B92" s="242"/>
-      <c r="C92" s="242"/>
-      <c r="D92" s="242"/>
-      <c r="E92" s="243"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="171"/>
+      <c r="C92" s="171"/>
+      <c r="D92" s="171"/>
+      <c r="E92" s="172"/>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B93" s="242"/>
-      <c r="C93" s="242"/>
-      <c r="D93" s="242"/>
-      <c r="E93" s="243"/>
-    </row>
-    <row r="94" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="171"/>
+      <c r="C93" s="171"/>
+      <c r="D93" s="171"/>
+      <c r="E93" s="172"/>
+    </row>
+    <row r="94" spans="1:5" ht="13.5" thickBot="1">
       <c r="A94" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="B94" s="244"/>
-      <c r="C94" s="244"/>
-      <c r="D94" s="244"/>
-      <c r="E94" s="245"/>
-    </row>
-    <row r="95" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="173"/>
+      <c r="C94" s="173"/>
+      <c r="D94" s="173"/>
+      <c r="E94" s="174"/>
+    </row>
+    <row r="95" spans="1:5" ht="13.5" thickBot="1">
       <c r="B95" s="41"/>
       <c r="C95" s="41"/>
     </row>
-    <row r="96" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="246" t="s">
+    <row r="96" spans="1:5" ht="13.5" thickBot="1">
+      <c r="A96" s="175" t="s">
         <v>158</v>
       </c>
-      <c r="B96" s="247"/>
-      <c r="C96" s="247"/>
-      <c r="D96" s="247"/>
-      <c r="E96" s="248"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="176"/>
+      <c r="C96" s="176"/>
+      <c r="D96" s="176"/>
+      <c r="E96" s="177"/>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="61" t="s">
         <v>15</v>
       </c>
@@ -7548,7 +7896,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5">
       <c r="A98" s="58" t="s">
         <v>20</v>
       </c>
@@ -7557,7 +7905,7 @@
       <c r="D98" s="111"/>
       <c r="E98" s="112"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99" s="58" t="s">
         <v>21</v>
       </c>
@@ -7566,7 +7914,7 @@
       <c r="D99" s="113"/>
       <c r="E99" s="114"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100" s="58" t="s">
         <v>22</v>
       </c>
@@ -7575,7 +7923,7 @@
       <c r="D100" s="115"/>
       <c r="E100" s="116"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" s="58" t="s">
         <v>23</v>
       </c>
@@ -7584,7 +7932,7 @@
       <c r="D101" s="115"/>
       <c r="E101" s="116"/>
     </row>
-    <row r="102" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="13.5" thickBot="1">
       <c r="A102" s="64" t="s">
         <v>24</v>
       </c>
@@ -7593,20 +7941,20 @@
       <c r="D102" s="117"/>
       <c r="E102" s="119"/>
     </row>
-    <row r="103" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="13.5" thickBot="1">
       <c r="B103" s="41"/>
       <c r="C103" s="41"/>
     </row>
-    <row r="104" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="249" t="s">
+    <row r="104" spans="1:5" ht="13.5" thickBot="1">
+      <c r="A104" s="178" t="s">
         <v>159</v>
       </c>
-      <c r="B104" s="250"/>
-      <c r="C104" s="250"/>
-      <c r="D104" s="250"/>
-      <c r="E104" s="251"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="179"/>
+      <c r="C104" s="179"/>
+      <c r="D104" s="179"/>
+      <c r="E104" s="180"/>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
         <v>73</v>
       </c>
@@ -7615,7 +7963,7 @@
       <c r="D105" s="120"/>
       <c r="E105" s="121"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
         <v>74</v>
       </c>
@@ -7624,7 +7972,7 @@
       <c r="D106" s="120"/>
       <c r="E106" s="123"/>
     </row>
-    <row r="107" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="13.5" thickBot="1">
       <c r="A107" s="3" t="s">
         <v>72</v>
       </c>
@@ -7633,26 +7981,26 @@
       <c r="D107" s="118"/>
       <c r="E107" s="125"/>
     </row>
-    <row r="108" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="168" t="s">
+    <row r="108" spans="1:5" ht="13.5" thickBot="1"/>
+    <row r="109" spans="1:5" ht="15" thickBot="1">
+      <c r="A109" s="236" t="s">
         <v>160</v>
       </c>
-      <c r="B109" s="169"/>
-      <c r="C109" s="169"/>
-      <c r="D109" s="169"/>
-      <c r="E109" s="170"/>
-    </row>
-    <row r="110" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="237"/>
+      <c r="C109" s="237"/>
+      <c r="D109" s="237"/>
+      <c r="E109" s="238"/>
+    </row>
+    <row r="110" spans="1:5" ht="14.45" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B110" s="178"/>
-      <c r="C110" s="178"/>
-      <c r="D110" s="178"/>
-      <c r="E110" s="179"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="247"/>
+      <c r="C110" s="247"/>
+      <c r="D110" s="247"/>
+      <c r="E110" s="248"/>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
         <v>107</v>
       </c>
@@ -7661,7 +8009,7 @@
       <c r="D111" s="128"/>
       <c r="E111" s="129"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
         <v>103</v>
       </c>
@@ -7670,7 +8018,7 @@
       <c r="D112" s="128"/>
       <c r="E112" s="129"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
         <v>104</v>
       </c>
@@ -7682,73 +8030,59 @@
       <c r="D113" s="88"/>
       <c r="E113" s="89"/>
     </row>
-    <row r="114" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="180" t="s">
+    <row r="114" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A114" s="249" t="s">
         <v>105</v>
       </c>
-      <c r="B114" s="171"/>
-      <c r="C114" s="171"/>
-      <c r="D114" s="171"/>
-      <c r="E114" s="172"/>
-    </row>
-    <row r="115" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="181"/>
-      <c r="B115" s="173"/>
-      <c r="C115" s="173"/>
-      <c r="D115" s="173"/>
-      <c r="E115" s="174"/>
+      <c r="B114" s="239"/>
+      <c r="C114" s="239"/>
+      <c r="D114" s="239"/>
+      <c r="E114" s="240"/>
+    </row>
+    <row r="115" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="A115" s="250"/>
+      <c r="B115" s="241"/>
+      <c r="C115" s="241"/>
+      <c r="D115" s="241"/>
+      <c r="E115" s="242"/>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="B114:E115"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="B44:C44"/>
@@ -7765,41 +8099,55 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="B114:E115"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
   </mergeCells>
   <phoneticPr fontId="44" type="noConversion"/>
   <dataValidations count="4">
@@ -7840,24 +8188,26 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.5" style="142" customWidth="1"/>
-    <col min="2" max="3" width="58.75" style="85" customWidth="1"/>
+    <col min="2" max="2" width="48.875" style="85" customWidth="1"/>
+    <col min="3" max="3" width="46.5" style="85" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" style="85"/>
-    <col min="5" max="5" width="133.5" style="86" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.625" style="78" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="78" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="78"/>
+    <col min="5" max="5" width="69.75" style="86" customWidth="1"/>
+    <col min="6" max="6" width="2.875" style="78" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="78" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.125" style="78" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1">
       <c r="B1" s="91" t="s">
         <v>25</v>
       </c>
@@ -7875,7 +8225,7 @@
       <c r="H1" s="80"/>
       <c r="I1" s="81"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="26.25" thickBot="1">
       <c r="A2" s="142">
         <v>1</v>
       </c>
@@ -7897,10 +8247,12 @@
       <c r="G2" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="66"/>
+      <c r="H2" s="262" t="s">
+        <v>216</v>
+      </c>
       <c r="I2" s="82"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" thickBot="1">
       <c r="A3" s="142">
         <f>A2+1</f>
         <v>2</v>
@@ -7923,10 +8275,12 @@
       <c r="G3" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="66"/>
+      <c r="H3" s="262" t="s">
+        <v>217</v>
+      </c>
       <c r="I3" s="80"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="26.25" thickBot="1">
       <c r="A4" s="142">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>3</v>
@@ -7949,10 +8303,12 @@
       <c r="G4" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="66"/>
+      <c r="H4" s="262" t="s">
+        <v>218</v>
+      </c>
       <c r="I4" s="80"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="26.25" thickBot="1">
       <c r="A5" s="142">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7973,10 +8329,12 @@
         <v>1</v>
       </c>
       <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
+      <c r="H5" s="262" t="s">
+        <v>219</v>
+      </c>
       <c r="I5" s="80"/>
     </row>
-    <row r="6" spans="1:9" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="83" customFormat="1" ht="15" thickBot="1">
       <c r="A6" s="142">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7997,10 +8355,12 @@
         <v>1</v>
       </c>
       <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
+      <c r="H6" s="262" t="s">
+        <v>220</v>
+      </c>
       <c r="I6" s="84"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="26.25" thickBot="1">
       <c r="A7" s="142">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8021,10 +8381,12 @@
         <v>1</v>
       </c>
       <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+      <c r="H7" s="263" t="s">
+        <v>221</v>
+      </c>
       <c r="I7" s="80"/>
     </row>
-    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="39" thickBot="1">
       <c r="A8" s="142">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8045,10 +8407,12 @@
         <v>1</v>
       </c>
       <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
+      <c r="H8" s="263" t="s">
+        <v>222</v>
+      </c>
       <c r="I8" s="80"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="26.25" thickBot="1">
       <c r="A9" s="142">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8069,10 +8433,12 @@
         <v>1</v>
       </c>
       <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
+      <c r="H9" s="263" t="s">
+        <v>223</v>
+      </c>
       <c r="I9" s="80"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="26.25" thickBot="1">
       <c r="A10" s="142">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8093,10 +8459,12 @@
         <v>1</v>
       </c>
       <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
+      <c r="H10" s="263" t="s">
+        <v>224</v>
+      </c>
       <c r="I10" s="80"/>
     </row>
-    <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="77.25" thickBot="1">
       <c r="A11" s="142">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8117,10 +8485,12 @@
         <v>1</v>
       </c>
       <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
+      <c r="H11" s="263" t="s">
+        <v>225</v>
+      </c>
       <c r="I11" s="80"/>
     </row>
-    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="39" thickBot="1">
       <c r="A12" s="142">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8141,10 +8511,12 @@
         <v>1</v>
       </c>
       <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
+      <c r="H12" s="263" t="s">
+        <v>226</v>
+      </c>
       <c r="I12" s="80"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="26.25" thickBot="1">
       <c r="A13" s="142">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8165,10 +8537,12 @@
         <v>1</v>
       </c>
       <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
+      <c r="H13" s="263" t="s">
+        <v>227</v>
+      </c>
       <c r="I13" s="80"/>
     </row>
-    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="39" thickBot="1">
       <c r="A14" s="142">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -8189,10 +8563,12 @@
         <v>1</v>
       </c>
       <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
+      <c r="H14" s="263" t="s">
+        <v>228</v>
+      </c>
       <c r="I14" s="80"/>
     </row>
-    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="39" thickBot="1">
       <c r="A15" s="142">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -8213,10 +8589,12 @@
         <v>1</v>
       </c>
       <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
+      <c r="H15" s="263" t="s">
+        <v>229</v>
+      </c>
       <c r="I15" s="80"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15" thickBot="1">
       <c r="A16" s="142">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -8237,10 +8615,12 @@
         <v>1</v>
       </c>
       <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
+      <c r="H16" s="262" t="s">
+        <v>230</v>
+      </c>
       <c r="I16" s="80"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" thickBot="1">
       <c r="A17" s="142">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8261,10 +8641,12 @@
         <v>1</v>
       </c>
       <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
+      <c r="H17" s="262" t="s">
+        <v>231</v>
+      </c>
       <c r="I17" s="80"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15" thickBot="1">
       <c r="A18" s="142">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8285,10 +8667,12 @@
         <v>1</v>
       </c>
       <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
+      <c r="H18" s="262" t="s">
+        <v>232</v>
+      </c>
       <c r="I18" s="80"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="26.25" thickBot="1">
       <c r="A19" s="142">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -8296,7 +8680,7 @@
       <c r="B19" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="257" t="s">
+      <c r="C19" s="166" t="s">
         <v>214</v>
       </c>
       <c r="D19" s="140" t="s">
@@ -8309,10 +8693,12 @@
         <v>1</v>
       </c>
       <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
+      <c r="H19" s="262" t="s">
+        <v>233</v>
+      </c>
       <c r="I19" s="80"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="26.25" thickBot="1">
       <c r="A20" s="142">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -8320,7 +8706,7 @@
       <c r="B20" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="257" t="s">
+      <c r="C20" s="166" t="s">
         <v>215</v>
       </c>
       <c r="D20" s="140" t="s">
@@ -8333,10 +8719,12 @@
         <v>-1</v>
       </c>
       <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
+      <c r="H20" s="262" t="s">
+        <v>234</v>
+      </c>
       <c r="I20" s="80"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15" thickBot="1">
       <c r="A21" s="142">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -8344,7 +8732,7 @@
       <c r="B21" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="257" t="s">
+      <c r="C21" s="166" t="s">
         <v>193</v>
       </c>
       <c r="D21" s="140" t="s">
@@ -8357,10 +8745,12 @@
         <v>-1</v>
       </c>
       <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
+      <c r="H21" s="262" t="s">
+        <v>235</v>
+      </c>
       <c r="I21" s="80"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="26.25" thickBot="1">
       <c r="A22" s="142">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -8368,7 +8758,7 @@
       <c r="B22" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="257" t="s">
+      <c r="C22" s="166" t="s">
         <v>194</v>
       </c>
       <c r="D22" s="140" t="s">
@@ -8381,10 +8771,12 @@
         <v>-1</v>
       </c>
       <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
+      <c r="H22" s="262" t="s">
+        <v>236</v>
+      </c>
       <c r="I22" s="80"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15" thickBot="1">
       <c r="A23" s="142">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -8392,7 +8784,7 @@
       <c r="B23" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="257" t="s">
+      <c r="C23" s="166" t="s">
         <v>195</v>
       </c>
       <c r="D23" s="140" t="s">
@@ -8405,10 +8797,12 @@
         <v>-1</v>
       </c>
       <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
+      <c r="H23" s="262" t="s">
+        <v>237</v>
+      </c>
       <c r="I23" s="80"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15" thickBot="1">
       <c r="A24" s="142">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -8416,7 +8810,7 @@
       <c r="B24" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="257" t="s">
+      <c r="C24" s="166" t="s">
         <v>196</v>
       </c>
       <c r="D24" s="140" t="s">
@@ -8429,10 +8823,12 @@
         <v>-1</v>
       </c>
       <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
+      <c r="H24" s="262" t="s">
+        <v>238</v>
+      </c>
       <c r="I24" s="80"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15" thickBot="1">
       <c r="A25" s="142">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -8440,7 +8836,7 @@
       <c r="B25" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="257" t="s">
+      <c r="C25" s="166" t="s">
         <v>197</v>
       </c>
       <c r="D25" s="140" t="s">
@@ -8453,10 +8849,12 @@
         <v>1</v>
       </c>
       <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
+      <c r="H25" s="262" t="s">
+        <v>239</v>
+      </c>
       <c r="I25" s="80"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15" thickBot="1">
       <c r="A26" s="142">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -8464,7 +8862,7 @@
       <c r="B26" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="257" t="s">
+      <c r="C26" s="166" t="s">
         <v>198</v>
       </c>
       <c r="D26" s="140" t="s">
@@ -8477,10 +8875,12 @@
         <v>1</v>
       </c>
       <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
+      <c r="H26" s="262" t="s">
+        <v>240</v>
+      </c>
       <c r="I26" s="80"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15" thickBot="1">
       <c r="A27" s="142">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -8488,7 +8888,7 @@
       <c r="B27" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="257" t="s">
+      <c r="C27" s="166" t="s">
         <v>199</v>
       </c>
       <c r="D27" s="140" t="s">
@@ -8501,9 +8901,11 @@
         <v>-1</v>
       </c>
       <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H27" s="262" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" thickBot="1">
       <c r="A28" s="142">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -8511,7 +8913,7 @@
       <c r="B28" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="258" t="s">
+      <c r="C28" s="167" t="s">
         <v>200</v>
       </c>
       <c r="D28" s="76" t="s">
@@ -8524,9 +8926,11 @@
         <v>-1</v>
       </c>
       <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-    </row>
-    <row r="29" spans="1:9" s="135" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="262" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="135" customFormat="1" ht="15" thickBot="1">
       <c r="A29" s="151">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -8534,7 +8938,7 @@
       <c r="B29" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="259" t="s">
+      <c r="C29" s="168" t="s">
         <v>201</v>
       </c>
       <c r="D29" s="131" t="s">
@@ -8547,9 +8951,11 @@
         <v>-1</v>
       </c>
       <c r="G29" s="134"/>
-      <c r="H29" s="134"/>
-    </row>
-    <row r="30" spans="1:9" s="135" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="264" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="135" customFormat="1" ht="15" thickBot="1">
       <c r="A30" s="151">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -8557,7 +8963,7 @@
       <c r="B30" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="260" t="s">
+      <c r="C30" s="169" t="s">
         <v>202</v>
       </c>
       <c r="D30" s="141" t="s">
@@ -8570,9 +8976,11 @@
         <v>-1</v>
       </c>
       <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-    </row>
-    <row r="31" spans="1:9" s="135" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="264" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="135" customFormat="1" ht="15" thickBot="1">
       <c r="A31" s="151">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -8580,7 +8988,7 @@
       <c r="B31" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="260" t="s">
+      <c r="C31" s="169" t="s">
         <v>203</v>
       </c>
       <c r="D31" s="141" t="s">
@@ -8593,9 +9001,11 @@
         <v>-1</v>
       </c>
       <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-    </row>
-    <row r="32" spans="1:9" s="135" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H31" s="264" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="135" customFormat="1" ht="15" thickBot="1">
       <c r="A32" s="151">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -8603,7 +9013,7 @@
       <c r="B32" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="260" t="s">
+      <c r="C32" s="169" t="s">
         <v>204</v>
       </c>
       <c r="D32" s="141" t="s">
@@ -8616,9 +9026,11 @@
         <v>-1</v>
       </c>
       <c r="G32" s="134"/>
-      <c r="H32" s="134"/>
-    </row>
-    <row r="33" spans="1:8" s="135" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H32" s="264" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="135" customFormat="1" ht="15" thickBot="1">
       <c r="A33" s="151">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -8626,7 +9038,7 @@
       <c r="B33" s="163" t="s">
         <v>175</v>
       </c>
-      <c r="C33" s="261" t="s">
+      <c r="C33" s="170" t="s">
         <v>205</v>
       </c>
       <c r="D33" s="164" t="s">
@@ -8639,9 +9051,11 @@
         <v>1</v>
       </c>
       <c r="G33" s="134"/>
-      <c r="H33" s="134"/>
-    </row>
-    <row r="34" spans="1:8" s="135" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="265" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="135" customFormat="1" ht="15" thickBot="1">
       <c r="A34" s="151">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -8649,7 +9063,7 @@
       <c r="B34" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="259" t="s">
+      <c r="C34" s="168" t="s">
         <v>206</v>
       </c>
       <c r="D34" s="131" t="s">
@@ -8662,9 +9076,11 @@
         <v>-1</v>
       </c>
       <c r="G34" s="134"/>
-      <c r="H34" s="134"/>
-    </row>
-    <row r="35" spans="1:8" s="135" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H34" s="264" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="135" customFormat="1" ht="15" thickBot="1">
       <c r="A35" s="151">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -8672,7 +9088,7 @@
       <c r="B35" s="131" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="259" t="s">
+      <c r="C35" s="168" t="s">
         <v>207</v>
       </c>
       <c r="D35" s="131" t="s">
@@ -8685,9 +9101,11 @@
         <v>-1</v>
       </c>
       <c r="G35" s="134"/>
-      <c r="H35" s="134"/>
-    </row>
-    <row r="36" spans="1:8" s="135" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H35" s="264" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="135" customFormat="1" ht="15" thickBot="1">
       <c r="A36" s="151">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -8695,7 +9113,7 @@
       <c r="B36" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="260" t="s">
+      <c r="C36" s="169" t="s">
         <v>208</v>
       </c>
       <c r="D36" s="141" t="s">
@@ -8708,9 +9126,11 @@
         <v>-1</v>
       </c>
       <c r="G36" s="134"/>
-      <c r="H36" s="134"/>
-    </row>
-    <row r="38" spans="1:8" s="85" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="H36" s="264" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="85" customFormat="1" ht="15">
       <c r="A38" s="142"/>
       <c r="B38" s="139" t="s">
         <v>161</v>
@@ -8718,33 +9138,33 @@
       <c r="C38" s="139"/>
       <c r="E38" s="143"/>
     </row>
-    <row r="39" spans="1:8" s="85" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" s="85" customFormat="1" ht="14.45" customHeight="1">
       <c r="A39" s="142"/>
-      <c r="B39" s="256" t="s">
+      <c r="B39" s="261" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="256"/>
-      <c r="D39" s="256"/>
-      <c r="E39" s="256"/>
-    </row>
-    <row r="40" spans="1:8" s="85" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="C39" s="261"/>
+      <c r="D39" s="261"/>
+      <c r="E39" s="261"/>
+    </row>
+    <row r="40" spans="1:8" s="85" customFormat="1" ht="15">
       <c r="A40" s="142"/>
       <c r="B40" s="85" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" s="85" customFormat="1">
       <c r="A41" s="142"/>
       <c r="B41" s="85" t="s">
         <v>162</v>
       </c>
       <c r="E41" s="143"/>
     </row>
-    <row r="42" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" s="85" customFormat="1">
       <c r="A42" s="142"/>
       <c r="E42" s="143"/>
     </row>
-    <row r="43" spans="1:8" s="85" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" s="85" customFormat="1" ht="15">
       <c r="A43" s="142"/>
       <c r="B43" s="139" t="s">
         <v>176</v>
@@ -8752,24 +9172,24 @@
       <c r="C43" s="139"/>
       <c r="E43" s="143"/>
     </row>
-    <row r="44" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" s="85" customFormat="1">
       <c r="A44" s="142"/>
-      <c r="B44" s="256" t="s">
+      <c r="B44" s="261" t="s">
         <v>177</v>
       </c>
-      <c r="C44" s="256"/>
-      <c r="D44" s="256"/>
-      <c r="E44" s="256"/>
-    </row>
-    <row r="45" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="261"/>
+      <c r="D44" s="261"/>
+      <c r="E44" s="261"/>
+    </row>
+    <row r="45" spans="1:8" s="85" customFormat="1">
       <c r="A45" s="142"/>
       <c r="E45" s="143"/>
     </row>
-    <row r="46" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" s="85" customFormat="1">
       <c r="A46" s="142"/>
       <c r="E46" s="143"/>
     </row>
-    <row r="47" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" s="85" customFormat="1">
       <c r="A47" s="142"/>
       <c r="E47" s="143"/>
     </row>

--- a/ilpa/ILPA-Best-Practices-Capital-Call-and-Distribution-Notice-Template-v1.2.xlsx
+++ b/ilpa/ILPA-Best-Practices-Capital-Call-and-Distribution-Notice-Template-v1.2.xlsx
@@ -1524,7 +1524,16 @@
   </si>
   <si>
     <r>
-      <t>Call</t>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1534,7 +1543,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>款：</t>
+      <t>收入</t>
     </r>
     <r>
       <rPr>
@@ -1543,7 +1552,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -1553,12 +1562,288 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>投资</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Call</t>
+      <t>股息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在极左栏提供说明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已实现的增益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现金</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已实现增益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股票</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已实现损失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现金</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已实现亏损</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库存</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资本回报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现金</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1568,7 +1853,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>款：</t>
+      <t>资本回报</t>
     </r>
     <r>
       <rPr>
@@ -1577,7 +1862,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>-</t>
     </r>
     <r>
       <rPr>
@@ -1589,6 +1874,11 @@
       </rPr>
       <t>管理费</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1596,7 +1886,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1606,7 +1896,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>内部承诺</t>
+      <t>资本回报</t>
     </r>
     <r>
       <rPr>
@@ -1615,12 +1905,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Call</t>
+      <t>-</t>
     </r>
     <r>
       <rPr>
@@ -1630,7 +1915,127 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>款：</t>
+      <t>合伙费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股本回报率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股票</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所谓的超额资本的回归</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后续的收盘价</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扣缴税款</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
     </r>
     <r>
       <rPr>
@@ -1649,7 +2054,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>管理费</t>
+      <t>临时资本回报</t>
     </r>
     <r>
       <rPr>
@@ -1658,7 +2063,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (</t>
+      <t>-</t>
     </r>
     <r>
       <rPr>
@@ -1668,7 +2073,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>外部承诺</t>
+      <t>管理费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
     </r>
     <r>
       <rPr>
@@ -1677,12 +2087,50 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Call</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>临时回资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合伙费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1692,7 +2140,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>款：</t>
+      <t>临时资本回报</t>
     </r>
     <r>
       <rPr>
@@ -1701,7 +2149,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>-</t>
     </r>
     <r>
       <rPr>
@@ -1711,22 +2159,99 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>合作伙伴费用</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Call</t>
+      <t>投资</t>
+    </r>
+  </si>
+  <si>
+    <t>来自LP的电话，代表GP的资本要求份额（通常用作未来管理费的抵消）</t>
+  </si>
+  <si>
+    <t>要求投资新的或现有的基础资产</t>
+  </si>
+  <si>
+    <r>
+      <t>要求定期管理。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>费用/ GP分配，扣除任何豁免或抵消（在“边计算”部分提供管理费用计算）;减少没有资金的承诺</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>要求定期管理。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>费用/ GP分配，扣除任何豁免或抵消（在“边计算”部分提供管理费用计算）;对没有资金的承诺没有影响</t>
+    </r>
+  </si>
+  <si>
+    <t>根据LPA的定义，呼吁建立合伙企业/基金费用</t>
+  </si>
+  <si>
+    <r>
+      <t>要求向基金收取基金管理费用，包括会计，估价服务，备案费和信息技术活动;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>款：</t>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>不包括审计和税务准备的费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>向基金收取的用于审计基金财务记录和编制与基金有关的任何税务文件的费用;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
     </r>
     <r>
       <rPr>
@@ -1735,17 +2260,47 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>不包括与组织基金，投资尽职调查和基金管理费用相关的任何费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>向基金收取银行/金融服务的费用;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合作伙伴费用</t>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>不包括基金管理费用</t>
+    </r>
+  </si>
+  <si>
+    <t>向基金收取的证券登记和其他与监管有关的活动的费用;不包括基金管理费用</t>
+  </si>
+  <si>
+    <r>
+      <t>向基金收取的费用，以确认有关潜在投资机会的所有重大假设;包括与特定投资机会的尽职调查明确相关的所有费用，包括法律，差旅和其他费用;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
     </r>
     <r>
       <rPr>
@@ -1754,32 +2309,65 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>–</t>
+      <t>包括完成和未完成的交易;排除管理费用以及识别和寻找潜在投资机会的成本;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>审计和税务准备</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Call</t>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>不包括基金管理费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>代表基金向基金收取法律服务的费用;包括法律分析，以解释或修改基金的LPA;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>款：</t>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>不包括与组织/管理基金或投资尽职调查相关的任何法律费用</t>
+    </r>
+  </si>
+  <si>
+    <t>向基金收取的设立基金的费用，包括任何法律/审计费用;不包括任何基金管理费用或安置费用</t>
+  </si>
+  <si>
+    <r>
+      <t>代表基金向基金收取的与旅行和娱乐有关的费用;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
     </r>
     <r>
       <rPr>
@@ -1788,345 +2376,94 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>可能包括与LPAC会议或未报销的投资组合公司会议相关的旅行;不包括与尽职调查相关的差旅费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>向基金收取的费用，未在别处说明;可能包括年度会议费用，保险，合伙企业税收和交易发起/监督费用;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合伙费</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>银行费用</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Call</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>款：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合伙费</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>托管费用</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Call</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>款：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合伙企业开支</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>尽职调查</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Call</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>款：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合伙企业费用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>法律</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Call</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>款：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合作伙伴费用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>其他</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在最左边的专栏中详细说明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Call</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>款：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配售代理费用</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Call</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>款：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周转金</t>
-    </r>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>（在Call / Dist。模板的最左栏中提供这些费用的说明）</t>
+    </r>
+  </si>
+  <si>
+    <t>向筹款/经理/关联方或外部各方支付筹款服务的费用/费用</t>
+  </si>
+  <si>
+    <t>LP承诺随后关闭基金的利息</t>
+  </si>
+  <si>
+    <t>在最终使用资金尚未确定时，减少未提供资金的义务</t>
+  </si>
+  <si>
+    <t>按照LPA中的瀑布计算（偏离分配）定义，GP的分配份额继续进行</t>
+  </si>
+  <si>
+    <t>按照LPA中的瀑布计算（偏移到Carry）的定义，将超出的回报分配给GP</t>
+  </si>
+  <si>
+    <t>从相关持股中获得的收入或股息</t>
+  </si>
+  <si>
+    <t>上面没有另外定义的杂项分发（在工作表的最左栏中提供这些费用的说明）</t>
+  </si>
+  <si>
+    <t>通过全面或部分出售基础持有来实现收益</t>
+  </si>
+  <si>
+    <t>从股票分配中实现收益</t>
+  </si>
+  <si>
+    <t>全部或部分出售相关持股的损失</t>
+  </si>
+  <si>
+    <t>实现了股票分配的损失</t>
+  </si>
+  <si>
+    <t>全部或部分出售相关持股的投资资本回报</t>
+  </si>
+  <si>
+    <t>退还管理费</t>
+  </si>
+  <si>
+    <t>退还合伙费用</t>
+  </si>
+  <si>
+    <t>股票分配的成本基础</t>
+  </si>
+  <si>
+    <t>未使用收益的回报需要投资（通常会增加无资金的承诺）</t>
+  </si>
+  <si>
+    <t>从承诺随后关闭基金的LP收到的利息</t>
+  </si>
+  <si>
+    <t>从分配中扣除的税（抵消已实现的收益和/或收入/股息）</t>
+  </si>
+  <si>
+    <t>可以在将来再次调用的管理费退还</t>
+  </si>
+  <si>
+    <t>返回可以在将来再次调用的合伙费用</t>
+  </si>
+  <si>
+    <t>以前称为基础持有的资本回报可以再次调用</t>
   </si>
   <si>
     <r>
@@ -2149,1218 +2486,64 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>收入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>股息</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>分配：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>其他</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在极左栏提供说明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>分配：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已实现的增益</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>现金</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>分配：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已实现增益</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>股票</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>分配：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已实现损失</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>现金</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>分配：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已实现亏损</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>库存</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>分配：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>资本回报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>现金</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>分配：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>资本回报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>管理费</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>分配：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>资本回报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合伙费用</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>分配：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>股本回报率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>股票</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>分配：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所谓的超额资本的回归</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>分配：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>后续的收盘价</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>分配：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>扣缴税款</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>分配：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>临时资本回报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>管理费</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>分配：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>临时回资</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合伙费用</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>分配：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>临时资本回报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投资</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Call</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>款：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> GP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的贡献</t>
+      <t>附带收益</t>
     </r>
     <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Call</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>款：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合伙企业开支</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会计、行政和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> IT</t>
-    </r>
+    <t>缴款： GP的贡献</t>
+  </si>
+  <si>
+    <t>缴款： 投资</t>
+  </si>
+  <si>
+    <t>缴款： 管理费 (内部承诺)</t>
+  </si>
+  <si>
+    <t>缴款： 管理费 (外部承诺)</t>
+  </si>
+  <si>
+    <t>缴款： 合作伙伴费用</t>
+  </si>
+  <si>
+    <t>缴款： 合伙企业开支–会计、行政和 IT</t>
+  </si>
+  <si>
+    <t>缴款： 合作伙伴费用–审计和税务准备</t>
+  </si>
+  <si>
+    <t>缴款： 合伙费–银行费用</t>
+  </si>
+  <si>
+    <t>缴款： 合伙费–托管费用</t>
+  </si>
+  <si>
+    <t>缴款： 合伙企业开支--尽职调查</t>
+  </si>
+  <si>
+    <t>缴款： 合伙企业费用–法律</t>
+  </si>
+  <si>
+    <t>缴款： 合作伙伴费用–机构成本</t>
+  </si>
+  <si>
+    <t>缴款： 合作费用–其他商旅和娱乐</t>
+  </si>
+  <si>
+    <t>缴款： 合作伙伴费用–其他 (在最左边的专栏中详细说明)</t>
+  </si>
+  <si>
+    <t>缴款： 配售代理费用</t>
+  </si>
+  <si>
+    <t>缴款： 后续关单利息</t>
+  </si>
+  <si>
+    <t>缴款： 周转金</t>
+  </si>
+  <si>
+    <t>分配：回拨</t>
     <phoneticPr fontId="44" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Call</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>款：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合作伙伴费用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>机构成本</t>
-    </r>
-    <phoneticPr fontId="44" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Call</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>款：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合作费用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>–</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>其他商旅和娱乐</t>
-    </r>
-    <phoneticPr fontId="44" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Call</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>款：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>后续关单利息</t>
-    </r>
-    <phoneticPr fontId="44" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>分配：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>？</t>
-    </r>
-    <phoneticPr fontId="44" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>分配：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>？？</t>
-    </r>
-    <phoneticPr fontId="44" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自LP的电话，代表GP的资本要求份额（通常用作未来管理费的抵消）</t>
-  </si>
-  <si>
-    <t>要求投资新的或现有的基础资产</t>
-  </si>
-  <si>
-    <r>
-      <t>要求定期管理。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="&amp;#23435;&amp;#20307;"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>费用/ GP分配，扣除任何豁免或抵消（在“边计算”部分提供管理费用计算）;减少没有资金的承诺</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>要求定期管理。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="&amp;#23435;&amp;#20307;"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>费用/ GP分配，扣除任何豁免或抵消（在“边计算”部分提供管理费用计算）;对没有资金的承诺没有影响</t>
-    </r>
-  </si>
-  <si>
-    <t>根据LPA的定义，呼吁建立合伙企业/基金费用</t>
-  </si>
-  <si>
-    <r>
-      <t>要求向基金收取基金管理费用，包括会计，估价服务，备案费和信息技术活动;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="&amp;#23435;&amp;#20307;"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>不包括审计和税务准备的费用</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>向基金收取的用于审计基金财务记录和编制与基金有关的任何税务文件的费用;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="&amp;#23435;&amp;#20307;"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>不包括与组织基金，投资尽职调查和基金管理费用相关的任何费用</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>向基金收取银行/金融服务的费用;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="&amp;#23435;&amp;#20307;"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>不包括基金管理费用</t>
-    </r>
-  </si>
-  <si>
-    <t>向基金收取的证券登记和其他与监管有关的活动的费用;不包括基金管理费用</t>
-  </si>
-  <si>
-    <r>
-      <t>向基金收取的费用，以确认有关潜在投资机会的所有重大假设;包括与特定投资机会的尽职调查明确相关的所有费用，包括法律，差旅和其他费用;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="&amp;#23435;&amp;#20307;"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>包括完成和未完成的交易;排除管理费用以及识别和寻找潜在投资机会的成本;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="&amp;#23435;&amp;#20307;"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>不包括基金管理费用</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>代表基金向基金收取法律服务的费用;包括法律分析，以解释或修改基金的LPA;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="&amp;#23435;&amp;#20307;"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>不包括与组织/管理基金或投资尽职调查相关的任何法律费用</t>
-    </r>
-  </si>
-  <si>
-    <t>向基金收取的设立基金的费用，包括任何法律/审计费用;不包括任何基金管理费用或安置费用</t>
-  </si>
-  <si>
-    <r>
-      <t>代表基金向基金收取的与旅行和娱乐有关的费用;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="&amp;#23435;&amp;#20307;"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>可能包括与LPAC会议或未报销的投资组合公司会议相关的旅行;不包括与尽职调查相关的差旅费用</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>向基金收取的费用，未在别处说明;可能包括年度会议费用，保险，合伙企业税收和交易发起/监督费用;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="&amp;#23435;&amp;#20307;"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>（在Call / Dist。模板的最左栏中提供这些费用的说明）</t>
-    </r>
-  </si>
-  <si>
-    <t>向筹款/经理/关联方或外部各方支付筹款服务的费用/费用</t>
-  </si>
-  <si>
-    <t>LP承诺随后关闭基金的利息</t>
-  </si>
-  <si>
-    <t>在最终使用资金尚未确定时，减少未提供资金的义务</t>
-  </si>
-  <si>
-    <t>按照LPA中的瀑布计算（偏离分配）定义，GP的分配份额继续进行</t>
-  </si>
-  <si>
-    <t>按照LPA中的瀑布计算（偏移到Carry）的定义，将超出的回报分配给GP</t>
-  </si>
-  <si>
-    <t>从相关持股中获得的收入或股息</t>
-  </si>
-  <si>
-    <t>上面没有另外定义的杂项分发（在工作表的最左栏中提供这些费用的说明）</t>
-  </si>
-  <si>
-    <t>通过全面或部分出售基础持有来实现收益</t>
-  </si>
-  <si>
-    <t>从股票分配中实现收益</t>
-  </si>
-  <si>
-    <t>全部或部分出售相关持股的损失</t>
-  </si>
-  <si>
-    <t>实现了股票分配的损失</t>
-  </si>
-  <si>
-    <t>全部或部分出售相关持股的投资资本回报</t>
-  </si>
-  <si>
-    <t>退还管理费</t>
-  </si>
-  <si>
-    <t>退还合伙费用</t>
-  </si>
-  <si>
-    <t>股票分配的成本基础</t>
-  </si>
-  <si>
-    <t>未使用收益的回报需要投资（通常会增加无资金的承诺）</t>
-  </si>
-  <si>
-    <t>从承诺随后关闭基金的LP收到的利息</t>
-  </si>
-  <si>
-    <t>从分配中扣除的税（抵消已实现的收益和/或收入/股息）</t>
-  </si>
-  <si>
-    <t>可以在将来再次调用的管理费退还</t>
-  </si>
-  <si>
-    <t>返回可以在将来再次调用的合伙费用</t>
-  </si>
-  <si>
-    <t>以前称为基础持有的资本回报可以再次调用</t>
   </si>
 </sst>
 </file>
@@ -4830,6 +4013,314 @@
     <xf numFmtId="0" fontId="47" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="30" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="30" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="18" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="18" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="177" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -4886,316 +4377,8 @@
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="18" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="18" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="30" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="30" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5242,7 +4425,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5753,11 +4936,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="204" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="228"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="206"/>
       <c r="D1" s="6"/>
       <c r="E1" s="109" t="s">
         <v>75</v>
@@ -5777,10 +4960,10 @@
       <c r="A2" s="147" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="229" t="s">
+      <c r="B2" s="207" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="230"/>
+      <c r="C2" s="208"/>
       <c r="D2" s="161" t="s">
         <v>77</v>
       </c>
@@ -5795,11 +4978,11 @@
       <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A3" s="231" t="s">
+      <c r="A3" s="209" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="233"/>
+      <c r="B3" s="210"/>
+      <c r="C3" s="211"/>
       <c r="D3" s="154"/>
       <c r="E3" s="152"/>
       <c r="F3" s="154"/>
@@ -5815,15 +4998,15 @@
       <c r="A4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="234">
+      <c r="B4" s="212">
         <v>42527</v>
       </c>
-      <c r="C4" s="235"/>
-      <c r="D4" s="260" t="s">
+      <c r="C4" s="213"/>
+      <c r="D4" s="175" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="243"/>
-      <c r="F4" s="243"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
       <c r="G4" s="154"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -5836,15 +5019,15 @@
       <c r="A5" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="222">
+      <c r="B5" s="202">
         <v>42541</v>
       </c>
-      <c r="C5" s="223"/>
-      <c r="D5" s="260" t="s">
+      <c r="C5" s="203"/>
+      <c r="D5" s="175" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="243"/>
-      <c r="F5" s="243"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
       <c r="G5" s="154"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -5857,15 +5040,15 @@
       <c r="A6" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="222" t="s">
+      <c r="B6" s="202" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="223"/>
-      <c r="D6" s="260" t="s">
+      <c r="C6" s="203"/>
+      <c r="D6" s="175" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="243"/>
-      <c r="F6" s="243"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
       <c r="G6" s="154"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -5878,15 +5061,15 @@
       <c r="A7" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="217">
+      <c r="B7" s="214">
         <v>1000000</v>
       </c>
-      <c r="C7" s="218"/>
-      <c r="D7" s="260" t="s">
+      <c r="C7" s="215"/>
+      <c r="D7" s="175" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="243"/>
-      <c r="F7" s="243"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
       <c r="G7" s="154"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -5899,15 +5082,15 @@
       <c r="A8" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="217">
+      <c r="B8" s="214">
         <v>1000000000</v>
       </c>
-      <c r="C8" s="218"/>
-      <c r="D8" s="260" t="s">
+      <c r="C8" s="215"/>
+      <c r="D8" s="175" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="243"/>
-      <c r="F8" s="243"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
       <c r="G8" s="154"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -5941,11 +5124,11 @@
       <c r="C10" s="99">
         <v>-10000000</v>
       </c>
-      <c r="D10" s="260" t="s">
+      <c r="D10" s="175" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
       <c r="G10" s="156"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -5961,11 +5144,11 @@
       <c r="C11" s="101">
         <v>0</v>
       </c>
-      <c r="D11" s="260" t="s">
+      <c r="D11" s="175" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="243"/>
-      <c r="F11" s="243"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
       <c r="G11" s="156"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -5992,11 +5175,11 @@
       <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A13" s="219" t="s">
+      <c r="A13" s="216" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="220"/>
-      <c r="C13" s="221"/>
+      <c r="B13" s="217"/>
+      <c r="C13" s="218"/>
       <c r="D13" s="155"/>
       <c r="E13" s="156"/>
       <c r="F13" s="156"/>
@@ -6009,16 +5192,16 @@
       <c r="A14" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="222" t="s">
+      <c r="B14" s="202" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="223"/>
-      <c r="D14" s="243" t="s">
+      <c r="C14" s="203"/>
+      <c r="D14" s="176" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="243"/>
-      <c r="F14" s="243"/>
-      <c r="G14" s="243"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -6030,16 +5213,16 @@
       <c r="A15" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="224">
+      <c r="B15" s="219">
         <v>50000000</v>
       </c>
-      <c r="C15" s="225"/>
-      <c r="D15" s="243" t="s">
+      <c r="C15" s="220"/>
+      <c r="D15" s="176" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="243"/>
-      <c r="F15" s="243"/>
-      <c r="G15" s="243"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="176"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -6051,11 +5234,11 @@
       <c r="A16" s="146" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="256">
+      <c r="B16" s="196">
         <f>IF(B8=0,0,B15/B8)</f>
         <v>0.05</v>
       </c>
-      <c r="C16" s="257"/>
+      <c r="C16" s="197"/>
       <c r="D16" s="162"/>
       <c r="E16" s="157"/>
       <c r="F16" s="157"/>
@@ -6071,16 +5254,16 @@
       <c r="A17" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="258">
+      <c r="B17" s="198">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="C17" s="259"/>
-      <c r="D17" s="244" t="s">
+      <c r="C17" s="199"/>
+      <c r="D17" s="184" t="s">
         <v>174</v>
       </c>
-      <c r="E17" s="245"/>
-      <c r="F17" s="245"/>
-      <c r="G17" s="245"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -6092,16 +5275,16 @@
       <c r="A18" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="190">
+      <c r="B18" s="200">
         <v>47500000</v>
       </c>
-      <c r="C18" s="191"/>
-      <c r="D18" s="245" t="s">
+      <c r="C18" s="201"/>
+      <c r="D18" s="185" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="245"/>
-      <c r="F18" s="245"/>
-      <c r="G18" s="245"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -6113,16 +5296,16 @@
       <c r="A19" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="190">
+      <c r="B19" s="200">
         <v>2500000</v>
       </c>
-      <c r="C19" s="191"/>
-      <c r="D19" s="245" t="s">
+      <c r="C19" s="201"/>
+      <c r="D19" s="185" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="245"/>
-      <c r="F19" s="245"/>
-      <c r="G19" s="245"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="185"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -6134,16 +5317,16 @@
       <c r="A20" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="190">
+      <c r="B20" s="200">
         <v>500000</v>
       </c>
-      <c r="C20" s="191"/>
-      <c r="D20" s="245" t="s">
+      <c r="C20" s="201"/>
+      <c r="D20" s="185" t="s">
         <v>167</v>
       </c>
-      <c r="E20" s="245"/>
-      <c r="F20" s="245"/>
-      <c r="G20" s="245"/>
+      <c r="E20" s="185"/>
+      <c r="F20" s="185"/>
+      <c r="G20" s="185"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
@@ -6152,11 +5335,11 @@
       <c r="O20" s="9"/>
     </row>
     <row r="21" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A21" s="192" t="s">
+      <c r="A21" s="221" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="193"/>
-      <c r="C21" s="194"/>
+      <c r="B21" s="222"/>
+      <c r="C21" s="223"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
@@ -6169,11 +5352,11 @@
       <c r="O21" s="9"/>
     </row>
     <row r="22" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A22" s="251" t="s">
+      <c r="A22" s="191" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="252"/>
-      <c r="C22" s="253"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="193"/>
       <c r="D22" s="24"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
@@ -6189,11 +5372,11 @@
       <c r="A23" s="144" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="254">
+      <c r="B23" s="194">
         <f>B18</f>
         <v>47500000</v>
       </c>
-      <c r="C23" s="255"/>
+      <c r="C23" s="195"/>
       <c r="D23" s="26"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
@@ -6209,11 +5392,11 @@
       <c r="A24" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="195">
+      <c r="B24" s="226">
         <f>SUM(F39:F80)</f>
         <v>-237500</v>
       </c>
-      <c r="C24" s="196"/>
+      <c r="C24" s="227"/>
       <c r="D24" s="26"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -6229,11 +5412,11 @@
       <c r="A25" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="197">
+      <c r="B25" s="228">
         <f>B23+B24</f>
         <v>47262500</v>
       </c>
-      <c r="C25" s="198"/>
+      <c r="C25" s="229"/>
       <c r="D25" s="26"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -6408,11 +5591,11 @@
       <c r="A33" s="93" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="199">
+      <c r="B33" s="230">
         <f>SUMIF(G39:G80,"&gt; -999999999999999999")</f>
         <v>0</v>
       </c>
-      <c r="C33" s="200"/>
+      <c r="C33" s="231"/>
       <c r="D33" s="38"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
@@ -6425,15 +5608,15 @@
       <c r="O33" s="9"/>
     </row>
     <row r="34" spans="1:17" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A34" s="246" t="s">
+      <c r="A34" s="186" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="246"/>
-      <c r="C34" s="246"/>
-      <c r="D34" s="246"/>
-      <c r="E34" s="246"/>
-      <c r="F34" s="246"/>
-      <c r="G34" s="246"/>
+      <c r="B34" s="186"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="186"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="186"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
@@ -6442,15 +5625,15 @@
       <c r="O34" s="9"/>
     </row>
     <row r="35" spans="1:17" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A35" s="201" t="s">
+      <c r="A35" s="232" t="s">
         <v>172</v>
       </c>
-      <c r="B35" s="201"/>
-      <c r="C35" s="201"/>
-      <c r="D35" s="201"/>
-      <c r="E35" s="201"/>
-      <c r="F35" s="201"/>
-      <c r="G35" s="201"/>
+      <c r="B35" s="232"/>
+      <c r="C35" s="232"/>
+      <c r="D35" s="232"/>
+      <c r="E35" s="232"/>
+      <c r="F35" s="232"/>
+      <c r="G35" s="232"/>
       <c r="H35" s="39"/>
       <c r="I35" s="39"/>
       <c r="J35" s="39"/>
@@ -6459,47 +5642,47 @@
       <c r="O35" s="9"/>
     </row>
     <row r="36" spans="1:17" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A36" s="202" t="s">
+      <c r="A36" s="233" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="203"/>
-      <c r="C36" s="203"/>
-      <c r="D36" s="203"/>
-      <c r="E36" s="203"/>
-      <c r="F36" s="203"/>
-      <c r="G36" s="204"/>
+      <c r="B36" s="234"/>
+      <c r="C36" s="234"/>
+      <c r="D36" s="234"/>
+      <c r="E36" s="234"/>
+      <c r="F36" s="234"/>
+      <c r="G36" s="235"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="205" t="s">
+      <c r="A37" s="236" t="s">
         <v>147</v>
       </c>
-      <c r="B37" s="207" t="s">
+      <c r="B37" s="238" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="208"/>
-      <c r="D37" s="207" t="s">
+      <c r="C37" s="239"/>
+      <c r="D37" s="238" t="s">
         <v>149</v>
       </c>
-      <c r="E37" s="211" t="s">
+      <c r="E37" s="242" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="213" t="s">
+      <c r="F37" s="244" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="214"/>
+      <c r="G37" s="245"/>
       <c r="H37" s="42"/>
       <c r="I37" s="42"/>
       <c r="J37" s="42"/>
     </row>
     <row r="38" spans="1:17" s="46" customFormat="1" ht="58.15" customHeight="1" thickBot="1">
-      <c r="A38" s="206"/>
-      <c r="B38" s="209"/>
-      <c r="C38" s="210"/>
-      <c r="D38" s="209"/>
-      <c r="E38" s="212"/>
+      <c r="A38" s="237"/>
+      <c r="B38" s="240"/>
+      <c r="C38" s="241"/>
+      <c r="D38" s="240"/>
+      <c r="E38" s="243"/>
       <c r="F38" s="43" t="s">
         <v>114</v>
       </c>
@@ -6515,10 +5698,10 @@
       <c r="A39" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="215" t="s">
+      <c r="B39" s="246" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="216"/>
+      <c r="C39" s="247"/>
       <c r="D39" s="103">
         <v>237500</v>
       </c>
@@ -6539,7 +5722,7 @@
       </c>
       <c r="I39" s="50" t="str">
         <f>VLOOKUP(B39,'Trans. Type Definitions'!$B$1:$D$36,2,FALSE)</f>
-        <v>Call款： 投资</v>
+        <v>缴款： 投资</v>
       </c>
       <c r="J39" s="50">
         <f t="shared" ref="J39:J80" si="0">IF(I39="Call", G39,0)</f>
@@ -6549,8 +5732,8 @@
     </row>
     <row r="40" spans="1:17" ht="14.25">
       <c r="A40" s="104"/>
-      <c r="B40" s="188"/>
-      <c r="C40" s="189"/>
+      <c r="B40" s="224"/>
+      <c r="C40" s="225"/>
       <c r="D40" s="103"/>
       <c r="E40" s="108"/>
       <c r="F40" s="48" t="str">
@@ -6577,8 +5760,8 @@
     </row>
     <row r="41" spans="1:17" ht="14.25">
       <c r="A41" s="104"/>
-      <c r="B41" s="188"/>
-      <c r="C41" s="189"/>
+      <c r="B41" s="224"/>
+      <c r="C41" s="225"/>
       <c r="D41" s="103"/>
       <c r="E41" s="108"/>
       <c r="F41" s="48" t="str">
@@ -6605,8 +5788,8 @@
     </row>
     <row r="42" spans="1:17" ht="14.25">
       <c r="A42" s="104"/>
-      <c r="B42" s="188"/>
-      <c r="C42" s="189"/>
+      <c r="B42" s="224"/>
+      <c r="C42" s="225"/>
       <c r="D42" s="103"/>
       <c r="E42" s="108"/>
       <c r="F42" s="48" t="str">
@@ -6633,8 +5816,8 @@
     </row>
     <row r="43" spans="1:17" ht="14.25">
       <c r="A43" s="104"/>
-      <c r="B43" s="188"/>
-      <c r="C43" s="189"/>
+      <c r="B43" s="224"/>
+      <c r="C43" s="225"/>
       <c r="D43" s="103"/>
       <c r="E43" s="108"/>
       <c r="F43" s="48" t="str">
@@ -6661,8 +5844,8 @@
     </row>
     <row r="44" spans="1:17" ht="14.25">
       <c r="A44" s="104"/>
-      <c r="B44" s="188"/>
-      <c r="C44" s="189"/>
+      <c r="B44" s="224"/>
+      <c r="C44" s="225"/>
       <c r="D44" s="103"/>
       <c r="E44" s="108"/>
       <c r="F44" s="48" t="str">
@@ -6689,8 +5872,8 @@
     </row>
     <row r="45" spans="1:17" ht="14.25">
       <c r="A45" s="104"/>
-      <c r="B45" s="188"/>
-      <c r="C45" s="189"/>
+      <c r="B45" s="224"/>
+      <c r="C45" s="225"/>
       <c r="D45" s="103"/>
       <c r="E45" s="108"/>
       <c r="F45" s="48" t="str">
@@ -6717,8 +5900,8 @@
     </row>
     <row r="46" spans="1:17" ht="14.25">
       <c r="A46" s="104"/>
-      <c r="B46" s="188"/>
-      <c r="C46" s="189"/>
+      <c r="B46" s="224"/>
+      <c r="C46" s="225"/>
       <c r="D46" s="103"/>
       <c r="E46" s="108"/>
       <c r="F46" s="48" t="str">
@@ -6745,8 +5928,8 @@
     </row>
     <row r="47" spans="1:17" ht="14.25">
       <c r="A47" s="104"/>
-      <c r="B47" s="188"/>
-      <c r="C47" s="189"/>
+      <c r="B47" s="224"/>
+      <c r="C47" s="225"/>
       <c r="D47" s="103"/>
       <c r="E47" s="108"/>
       <c r="F47" s="48" t="str">
@@ -6773,8 +5956,8 @@
     </row>
     <row r="48" spans="1:17" ht="14.25">
       <c r="A48" s="104"/>
-      <c r="B48" s="188"/>
-      <c r="C48" s="189"/>
+      <c r="B48" s="224"/>
+      <c r="C48" s="225"/>
       <c r="D48" s="103"/>
       <c r="E48" s="108"/>
       <c r="F48" s="48" t="str">
@@ -6801,8 +5984,8 @@
     </row>
     <row r="49" spans="1:18" ht="14.25">
       <c r="A49" s="104"/>
-      <c r="B49" s="188"/>
-      <c r="C49" s="189"/>
+      <c r="B49" s="224"/>
+      <c r="C49" s="225"/>
       <c r="D49" s="103"/>
       <c r="E49" s="108"/>
       <c r="F49" s="48" t="str">
@@ -6829,8 +6012,8 @@
     </row>
     <row r="50" spans="1:18" ht="14.25">
       <c r="A50" s="104"/>
-      <c r="B50" s="188"/>
-      <c r="C50" s="189"/>
+      <c r="B50" s="224"/>
+      <c r="C50" s="225"/>
       <c r="D50" s="103"/>
       <c r="E50" s="108"/>
       <c r="F50" s="48" t="str">
@@ -6857,8 +6040,8 @@
     </row>
     <row r="51" spans="1:18" ht="14.25">
       <c r="A51" s="104"/>
-      <c r="B51" s="188"/>
-      <c r="C51" s="189"/>
+      <c r="B51" s="224"/>
+      <c r="C51" s="225"/>
       <c r="D51" s="103"/>
       <c r="E51" s="108"/>
       <c r="F51" s="48" t="str">
@@ -6885,8 +6068,8 @@
     </row>
     <row r="52" spans="1:18" ht="14.25">
       <c r="A52" s="104"/>
-      <c r="B52" s="188"/>
-      <c r="C52" s="189"/>
+      <c r="B52" s="224"/>
+      <c r="C52" s="225"/>
       <c r="D52" s="103"/>
       <c r="E52" s="108"/>
       <c r="F52" s="48" t="str">
@@ -6913,8 +6096,8 @@
     </row>
     <row r="53" spans="1:18" ht="14.25">
       <c r="A53" s="104"/>
-      <c r="B53" s="188"/>
-      <c r="C53" s="189"/>
+      <c r="B53" s="224"/>
+      <c r="C53" s="225"/>
       <c r="D53" s="103"/>
       <c r="E53" s="108"/>
       <c r="F53" s="48" t="str">
@@ -6941,8 +6124,8 @@
     </row>
     <row r="54" spans="1:18" s="53" customFormat="1" ht="14.25">
       <c r="A54" s="104"/>
-      <c r="B54" s="188"/>
-      <c r="C54" s="189"/>
+      <c r="B54" s="224"/>
+      <c r="C54" s="225"/>
       <c r="D54" s="103"/>
       <c r="E54" s="108"/>
       <c r="F54" s="48" t="str">
@@ -6974,8 +6157,8 @@
     </row>
     <row r="55" spans="1:18" ht="14.25">
       <c r="A55" s="104"/>
-      <c r="B55" s="188"/>
-      <c r="C55" s="189"/>
+      <c r="B55" s="224"/>
+      <c r="C55" s="225"/>
       <c r="D55" s="103"/>
       <c r="E55" s="108"/>
       <c r="F55" s="48" t="str">
@@ -7007,8 +6190,8 @@
     </row>
     <row r="56" spans="1:18" ht="15" customHeight="1">
       <c r="A56" s="104"/>
-      <c r="B56" s="188"/>
-      <c r="C56" s="189"/>
+      <c r="B56" s="224"/>
+      <c r="C56" s="225"/>
       <c r="D56" s="103"/>
       <c r="E56" s="108"/>
       <c r="F56" s="48" t="str">
@@ -7040,8 +6223,8 @@
     </row>
     <row r="57" spans="1:18" ht="15.75" customHeight="1">
       <c r="A57" s="104"/>
-      <c r="B57" s="188"/>
-      <c r="C57" s="189"/>
+      <c r="B57" s="224"/>
+      <c r="C57" s="225"/>
       <c r="D57" s="103"/>
       <c r="E57" s="108"/>
       <c r="F57" s="48" t="str">
@@ -7073,8 +6256,8 @@
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1">
       <c r="A58" s="104"/>
-      <c r="B58" s="188"/>
-      <c r="C58" s="189"/>
+      <c r="B58" s="224"/>
+      <c r="C58" s="225"/>
       <c r="D58" s="103"/>
       <c r="E58" s="108"/>
       <c r="F58" s="48" t="str">
@@ -7106,8 +6289,8 @@
     </row>
     <row r="59" spans="1:18" ht="15" customHeight="1">
       <c r="A59" s="104"/>
-      <c r="B59" s="188"/>
-      <c r="C59" s="189"/>
+      <c r="B59" s="224"/>
+      <c r="C59" s="225"/>
       <c r="D59" s="103"/>
       <c r="E59" s="108"/>
       <c r="F59" s="48" t="str">
@@ -7139,8 +6322,8 @@
     </row>
     <row r="60" spans="1:18" ht="14.25">
       <c r="A60" s="104"/>
-      <c r="B60" s="188"/>
-      <c r="C60" s="189"/>
+      <c r="B60" s="224"/>
+      <c r="C60" s="225"/>
       <c r="D60" s="103"/>
       <c r="E60" s="108"/>
       <c r="F60" s="48" t="str">
@@ -7172,8 +6355,8 @@
     </row>
     <row r="61" spans="1:18" ht="12.75" customHeight="1">
       <c r="A61" s="104"/>
-      <c r="B61" s="188"/>
-      <c r="C61" s="189"/>
+      <c r="B61" s="224"/>
+      <c r="C61" s="225"/>
       <c r="D61" s="103"/>
       <c r="E61" s="108"/>
       <c r="F61" s="48" t="str">
@@ -7207,8 +6390,8 @@
     </row>
     <row r="62" spans="1:18" ht="15" customHeight="1">
       <c r="A62" s="104"/>
-      <c r="B62" s="188"/>
-      <c r="C62" s="189"/>
+      <c r="B62" s="224"/>
+      <c r="C62" s="225"/>
       <c r="D62" s="103"/>
       <c r="E62" s="108"/>
       <c r="F62" s="48" t="str">
@@ -7242,8 +6425,8 @@
     </row>
     <row r="63" spans="1:18" ht="14.25">
       <c r="A63" s="104"/>
-      <c r="B63" s="188"/>
-      <c r="C63" s="189"/>
+      <c r="B63" s="224"/>
+      <c r="C63" s="225"/>
       <c r="D63" s="103"/>
       <c r="E63" s="108"/>
       <c r="F63" s="48" t="str">
@@ -7277,8 +6460,8 @@
     </row>
     <row r="64" spans="1:18" ht="14.25">
       <c r="A64" s="104"/>
-      <c r="B64" s="188"/>
-      <c r="C64" s="189"/>
+      <c r="B64" s="224"/>
+      <c r="C64" s="225"/>
       <c r="D64" s="103"/>
       <c r="E64" s="108"/>
       <c r="F64" s="48" t="str">
@@ -7312,8 +6495,8 @@
     </row>
     <row r="65" spans="1:18" ht="14.25">
       <c r="A65" s="104"/>
-      <c r="B65" s="188"/>
-      <c r="C65" s="189"/>
+      <c r="B65" s="224"/>
+      <c r="C65" s="225"/>
       <c r="D65" s="103"/>
       <c r="E65" s="108"/>
       <c r="F65" s="48" t="str">
@@ -7346,8 +6529,8 @@
     </row>
     <row r="66" spans="1:18" ht="14.25">
       <c r="A66" s="104"/>
-      <c r="B66" s="188"/>
-      <c r="C66" s="189"/>
+      <c r="B66" s="224"/>
+      <c r="C66" s="225"/>
       <c r="D66" s="103"/>
       <c r="E66" s="108"/>
       <c r="F66" s="48" t="str">
@@ -7380,8 +6563,8 @@
     </row>
     <row r="67" spans="1:18" ht="12.75" customHeight="1">
       <c r="A67" s="104"/>
-      <c r="B67" s="188"/>
-      <c r="C67" s="189"/>
+      <c r="B67" s="224"/>
+      <c r="C67" s="225"/>
       <c r="D67" s="103"/>
       <c r="E67" s="108"/>
       <c r="F67" s="48" t="str">
@@ -7414,8 +6597,8 @@
     </row>
     <row r="68" spans="1:18" ht="14.25">
       <c r="A68" s="104"/>
-      <c r="B68" s="188"/>
-      <c r="C68" s="189"/>
+      <c r="B68" s="224"/>
+      <c r="C68" s="225"/>
       <c r="D68" s="103"/>
       <c r="E68" s="108"/>
       <c r="F68" s="48" t="str">
@@ -7447,8 +6630,8 @@
     </row>
     <row r="69" spans="1:18" ht="14.25">
       <c r="A69" s="104"/>
-      <c r="B69" s="188"/>
-      <c r="C69" s="189"/>
+      <c r="B69" s="224"/>
+      <c r="C69" s="225"/>
       <c r="D69" s="103"/>
       <c r="E69" s="108"/>
       <c r="F69" s="48" t="str">
@@ -7475,8 +6658,8 @@
     </row>
     <row r="70" spans="1:18" ht="14.25">
       <c r="A70" s="104"/>
-      <c r="B70" s="188"/>
-      <c r="C70" s="189"/>
+      <c r="B70" s="224"/>
+      <c r="C70" s="225"/>
       <c r="D70" s="103"/>
       <c r="E70" s="108"/>
       <c r="F70" s="48" t="str">
@@ -7503,8 +6686,8 @@
     </row>
     <row r="71" spans="1:18" ht="14.25">
       <c r="A71" s="104"/>
-      <c r="B71" s="188"/>
-      <c r="C71" s="189"/>
+      <c r="B71" s="224"/>
+      <c r="C71" s="225"/>
       <c r="D71" s="103"/>
       <c r="E71" s="108"/>
       <c r="F71" s="48" t="str">
@@ -7531,8 +6714,8 @@
     </row>
     <row r="72" spans="1:18" ht="14.25">
       <c r="A72" s="104"/>
-      <c r="B72" s="188"/>
-      <c r="C72" s="189"/>
+      <c r="B72" s="224"/>
+      <c r="C72" s="225"/>
       <c r="D72" s="103"/>
       <c r="E72" s="108"/>
       <c r="F72" s="48" t="str">
@@ -7559,8 +6742,8 @@
     </row>
     <row r="73" spans="1:18" ht="14.25">
       <c r="A73" s="104"/>
-      <c r="B73" s="188"/>
-      <c r="C73" s="189"/>
+      <c r="B73" s="224"/>
+      <c r="C73" s="225"/>
       <c r="D73" s="103"/>
       <c r="E73" s="108"/>
       <c r="F73" s="48" t="str">
@@ -7587,8 +6770,8 @@
     </row>
     <row r="74" spans="1:18" ht="14.25">
       <c r="A74" s="104"/>
-      <c r="B74" s="188"/>
-      <c r="C74" s="189"/>
+      <c r="B74" s="224"/>
+      <c r="C74" s="225"/>
       <c r="D74" s="103"/>
       <c r="E74" s="108"/>
       <c r="F74" s="48" t="str">
@@ -7615,8 +6798,8 @@
     </row>
     <row r="75" spans="1:18" ht="14.25">
       <c r="A75" s="104"/>
-      <c r="B75" s="188"/>
-      <c r="C75" s="189"/>
+      <c r="B75" s="224"/>
+      <c r="C75" s="225"/>
       <c r="D75" s="103"/>
       <c r="E75" s="108"/>
       <c r="F75" s="48" t="str">
@@ -7643,8 +6826,8 @@
     </row>
     <row r="76" spans="1:18" ht="14.25">
       <c r="A76" s="104"/>
-      <c r="B76" s="188"/>
-      <c r="C76" s="189"/>
+      <c r="B76" s="224"/>
+      <c r="C76" s="225"/>
       <c r="D76" s="103"/>
       <c r="E76" s="108"/>
       <c r="F76" s="48" t="str">
@@ -7671,8 +6854,8 @@
     </row>
     <row r="77" spans="1:18" ht="14.25">
       <c r="A77" s="104"/>
-      <c r="B77" s="188"/>
-      <c r="C77" s="189"/>
+      <c r="B77" s="224"/>
+      <c r="C77" s="225"/>
       <c r="D77" s="103"/>
       <c r="E77" s="108"/>
       <c r="F77" s="48" t="str">
@@ -7699,8 +6882,8 @@
     </row>
     <row r="78" spans="1:18" ht="14.25">
       <c r="A78" s="104"/>
-      <c r="B78" s="188"/>
-      <c r="C78" s="189"/>
+      <c r="B78" s="224"/>
+      <c r="C78" s="225"/>
       <c r="D78" s="103"/>
       <c r="E78" s="108"/>
       <c r="F78" s="48" t="str">
@@ -7727,8 +6910,8 @@
     </row>
     <row r="79" spans="1:18" ht="14.25">
       <c r="A79" s="104"/>
-      <c r="B79" s="188"/>
-      <c r="C79" s="189"/>
+      <c r="B79" s="224"/>
+      <c r="C79" s="225"/>
       <c r="D79" s="103"/>
       <c r="E79" s="108"/>
       <c r="F79" s="48" t="str">
@@ -7755,8 +6938,8 @@
     </row>
     <row r="80" spans="1:18" ht="14.25">
       <c r="A80" s="104"/>
-      <c r="B80" s="188"/>
-      <c r="C80" s="189"/>
+      <c r="B80" s="224"/>
+      <c r="C80" s="225"/>
       <c r="D80" s="103"/>
       <c r="E80" s="108"/>
       <c r="F80" s="48" t="str">
@@ -7783,101 +6966,101 @@
     </row>
     <row r="84" spans="1:5" ht="13.5" thickBot="1"/>
     <row r="85" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A85" s="185" t="s">
+      <c r="A85" s="248" t="s">
         <v>117</v>
       </c>
-      <c r="B85" s="186"/>
-      <c r="C85" s="186"/>
-      <c r="D85" s="186"/>
-      <c r="E85" s="187"/>
+      <c r="B85" s="249"/>
+      <c r="C85" s="249"/>
+      <c r="D85" s="249"/>
+      <c r="E85" s="250"/>
     </row>
     <row r="86" spans="1:5" ht="13.5" thickBot="1">
       <c r="D86" s="40"/>
     </row>
     <row r="87" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A87" s="175" t="s">
+      <c r="A87" s="255" t="s">
         <v>156</v>
       </c>
-      <c r="B87" s="176"/>
-      <c r="C87" s="176"/>
-      <c r="D87" s="176"/>
-      <c r="E87" s="177"/>
+      <c r="B87" s="256"/>
+      <c r="C87" s="256"/>
+      <c r="D87" s="256"/>
+      <c r="E87" s="257"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="181"/>
-      <c r="C88" s="181"/>
-      <c r="D88" s="181"/>
-      <c r="E88" s="182"/>
+      <c r="B88" s="261"/>
+      <c r="C88" s="261"/>
+      <c r="D88" s="261"/>
+      <c r="E88" s="262"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="183"/>
-      <c r="C89" s="183"/>
-      <c r="D89" s="183"/>
-      <c r="E89" s="184"/>
+      <c r="B89" s="263"/>
+      <c r="C89" s="263"/>
+      <c r="D89" s="263"/>
+      <c r="E89" s="264"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="183"/>
-      <c r="C90" s="183"/>
-      <c r="D90" s="183"/>
-      <c r="E90" s="184"/>
+      <c r="B90" s="263"/>
+      <c r="C90" s="263"/>
+      <c r="D90" s="263"/>
+      <c r="E90" s="264"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="183"/>
-      <c r="C91" s="183"/>
-      <c r="D91" s="183"/>
-      <c r="E91" s="184"/>
+      <c r="B91" s="263"/>
+      <c r="C91" s="263"/>
+      <c r="D91" s="263"/>
+      <c r="E91" s="264"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B92" s="171"/>
-      <c r="C92" s="171"/>
-      <c r="D92" s="171"/>
-      <c r="E92" s="172"/>
+      <c r="B92" s="251"/>
+      <c r="C92" s="251"/>
+      <c r="D92" s="251"/>
+      <c r="E92" s="252"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B93" s="171"/>
-      <c r="C93" s="171"/>
-      <c r="D93" s="171"/>
-      <c r="E93" s="172"/>
+      <c r="B93" s="251"/>
+      <c r="C93" s="251"/>
+      <c r="D93" s="251"/>
+      <c r="E93" s="252"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" thickBot="1">
       <c r="A94" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="B94" s="173"/>
-      <c r="C94" s="173"/>
-      <c r="D94" s="173"/>
-      <c r="E94" s="174"/>
+      <c r="B94" s="253"/>
+      <c r="C94" s="253"/>
+      <c r="D94" s="253"/>
+      <c r="E94" s="254"/>
     </row>
     <row r="95" spans="1:5" ht="13.5" thickBot="1">
       <c r="B95" s="41"/>
       <c r="C95" s="41"/>
     </row>
     <row r="96" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A96" s="175" t="s">
+      <c r="A96" s="255" t="s">
         <v>158</v>
       </c>
-      <c r="B96" s="176"/>
-      <c r="C96" s="176"/>
-      <c r="D96" s="176"/>
-      <c r="E96" s="177"/>
+      <c r="B96" s="256"/>
+      <c r="C96" s="256"/>
+      <c r="D96" s="256"/>
+      <c r="E96" s="257"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="61" t="s">
@@ -7946,13 +7129,13 @@
       <c r="C103" s="41"/>
     </row>
     <row r="104" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A104" s="178" t="s">
+      <c r="A104" s="258" t="s">
         <v>159</v>
       </c>
-      <c r="B104" s="179"/>
-      <c r="C104" s="179"/>
-      <c r="D104" s="179"/>
-      <c r="E104" s="180"/>
+      <c r="B104" s="259"/>
+      <c r="C104" s="259"/>
+      <c r="D104" s="259"/>
+      <c r="E104" s="260"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
@@ -7983,22 +7166,22 @@
     </row>
     <row r="108" spans="1:5" ht="13.5" thickBot="1"/>
     <row r="109" spans="1:5" ht="15" thickBot="1">
-      <c r="A109" s="236" t="s">
+      <c r="A109" s="177" t="s">
         <v>160</v>
       </c>
-      <c r="B109" s="237"/>
-      <c r="C109" s="237"/>
-      <c r="D109" s="237"/>
-      <c r="E109" s="238"/>
+      <c r="B109" s="178"/>
+      <c r="C109" s="178"/>
+      <c r="D109" s="178"/>
+      <c r="E109" s="179"/>
     </row>
     <row r="110" spans="1:5" ht="14.45" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B110" s="247"/>
-      <c r="C110" s="247"/>
-      <c r="D110" s="247"/>
-      <c r="E110" s="248"/>
+      <c r="B110" s="187"/>
+      <c r="C110" s="187"/>
+      <c r="D110" s="187"/>
+      <c r="E110" s="188"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
@@ -8031,31 +7214,99 @@
       <c r="E113" s="89"/>
     </row>
     <row r="114" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A114" s="249" t="s">
+      <c r="A114" s="189" t="s">
         <v>105</v>
       </c>
-      <c r="B114" s="239"/>
-      <c r="C114" s="239"/>
-      <c r="D114" s="239"/>
-      <c r="E114" s="240"/>
+      <c r="B114" s="180"/>
+      <c r="C114" s="180"/>
+      <c r="D114" s="180"/>
+      <c r="E114" s="181"/>
     </row>
     <row r="115" spans="1:5" ht="15" customHeight="1" thickBot="1">
-      <c r="A115" s="250"/>
-      <c r="B115" s="241"/>
-      <c r="C115" s="241"/>
-      <c r="D115" s="241"/>
-      <c r="E115" s="242"/>
+      <c r="A115" s="190"/>
+      <c r="B115" s="182"/>
+      <c r="C115" s="182"/>
+      <c r="D115" s="182"/>
+      <c r="E115" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="B114:E115"/>
     <mergeCell ref="D15:G15"/>
@@ -8072,82 +7323,14 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <phoneticPr fontId="44" type="noConversion"/>
   <dataValidations count="4">
@@ -8188,10 +7371,10 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -8233,7 +7416,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="D2" s="140" t="s">
         <v>30</v>
@@ -8247,8 +7430,8 @@
       <c r="G2" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="262" t="s">
-        <v>216</v>
+      <c r="H2" s="171" t="s">
+        <v>197</v>
       </c>
       <c r="I2" s="82"/>
     </row>
@@ -8261,7 +7444,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="D3" s="140" t="s">
         <v>30</v>
@@ -8275,8 +7458,8 @@
       <c r="G3" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="262" t="s">
-        <v>217</v>
+      <c r="H3" s="171" t="s">
+        <v>198</v>
       </c>
       <c r="I3" s="80"/>
     </row>
@@ -8289,7 +7472,7 @@
         <v>66</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="D4" s="140" t="s">
         <v>30</v>
@@ -8303,8 +7486,8 @@
       <c r="G4" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="262" t="s">
-        <v>218</v>
+      <c r="H4" s="171" t="s">
+        <v>199</v>
       </c>
       <c r="I4" s="80"/>
     </row>
@@ -8317,7 +7500,7 @@
         <v>67</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="D5" s="140" t="s">
         <v>30</v>
@@ -8329,8 +7512,8 @@
         <v>1</v>
       </c>
       <c r="G5" s="66"/>
-      <c r="H5" s="262" t="s">
-        <v>219</v>
+      <c r="H5" s="171" t="s">
+        <v>200</v>
       </c>
       <c r="I5" s="80"/>
     </row>
@@ -8343,7 +7526,7 @@
         <v>34</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="D6" s="140" t="s">
         <v>30</v>
@@ -8355,8 +7538,8 @@
         <v>1</v>
       </c>
       <c r="G6" s="71"/>
-      <c r="H6" s="262" t="s">
-        <v>220</v>
+      <c r="H6" s="171" t="s">
+        <v>201</v>
       </c>
       <c r="I6" s="84"/>
     </row>
@@ -8369,7 +7552,7 @@
         <v>87</v>
       </c>
       <c r="C7" s="158" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="D7" s="159" t="s">
         <v>30</v>
@@ -8381,8 +7564,8 @@
         <v>1</v>
       </c>
       <c r="G7" s="66"/>
-      <c r="H7" s="263" t="s">
-        <v>221</v>
+      <c r="H7" s="172" t="s">
+        <v>202</v>
       </c>
       <c r="I7" s="80"/>
     </row>
@@ -8395,7 +7578,7 @@
         <v>88</v>
       </c>
       <c r="C8" s="158" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="D8" s="159" t="s">
         <v>30</v>
@@ -8407,8 +7590,8 @@
         <v>1</v>
       </c>
       <c r="G8" s="66"/>
-      <c r="H8" s="263" t="s">
-        <v>222</v>
+      <c r="H8" s="172" t="s">
+        <v>203</v>
       </c>
       <c r="I8" s="80"/>
     </row>
@@ -8421,7 +7604,7 @@
         <v>89</v>
       </c>
       <c r="C9" s="158" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="D9" s="159" t="s">
         <v>30</v>
@@ -8433,8 +7616,8 @@
         <v>1</v>
       </c>
       <c r="G9" s="66"/>
-      <c r="H9" s="263" t="s">
-        <v>223</v>
+      <c r="H9" s="172" t="s">
+        <v>204</v>
       </c>
       <c r="I9" s="80"/>
     </row>
@@ -8447,7 +7630,7 @@
         <v>90</v>
       </c>
       <c r="C10" s="158" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="D10" s="159" t="s">
         <v>30</v>
@@ -8459,8 +7642,8 @@
         <v>1</v>
       </c>
       <c r="G10" s="66"/>
-      <c r="H10" s="263" t="s">
-        <v>224</v>
+      <c r="H10" s="172" t="s">
+        <v>205</v>
       </c>
       <c r="I10" s="80"/>
     </row>
@@ -8473,7 +7656,7 @@
         <v>91</v>
       </c>
       <c r="C11" s="158" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="D11" s="159" t="s">
         <v>30</v>
@@ -8485,8 +7668,8 @@
         <v>1</v>
       </c>
       <c r="G11" s="66"/>
-      <c r="H11" s="263" t="s">
-        <v>225</v>
+      <c r="H11" s="172" t="s">
+        <v>206</v>
       </c>
       <c r="I11" s="80"/>
     </row>
@@ -8499,7 +7682,7 @@
         <v>92</v>
       </c>
       <c r="C12" s="158" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="D12" s="159" t="s">
         <v>30</v>
@@ -8511,8 +7694,8 @@
         <v>1</v>
       </c>
       <c r="G12" s="66"/>
-      <c r="H12" s="263" t="s">
-        <v>226</v>
+      <c r="H12" s="172" t="s">
+        <v>207</v>
       </c>
       <c r="I12" s="80"/>
     </row>
@@ -8525,7 +7708,7 @@
         <v>93</v>
       </c>
       <c r="C13" s="158" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="D13" s="159" t="s">
         <v>30</v>
@@ -8537,8 +7720,8 @@
         <v>1</v>
       </c>
       <c r="G13" s="66"/>
-      <c r="H13" s="263" t="s">
-        <v>227</v>
+      <c r="H13" s="172" t="s">
+        <v>208</v>
       </c>
       <c r="I13" s="80"/>
     </row>
@@ -8551,7 +7734,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="158" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="D14" s="159" t="s">
         <v>30</v>
@@ -8563,8 +7746,8 @@
         <v>1</v>
       </c>
       <c r="G14" s="66"/>
-      <c r="H14" s="263" t="s">
-        <v>228</v>
+      <c r="H14" s="172" t="s">
+        <v>209</v>
       </c>
       <c r="I14" s="80"/>
     </row>
@@ -8577,7 +7760,7 @@
         <v>109</v>
       </c>
       <c r="C15" s="158" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="D15" s="159" t="s">
         <v>30</v>
@@ -8589,8 +7772,8 @@
         <v>1</v>
       </c>
       <c r="G15" s="66"/>
-      <c r="H15" s="263" t="s">
-        <v>229</v>
+      <c r="H15" s="172" t="s">
+        <v>210</v>
       </c>
       <c r="I15" s="80"/>
     </row>
@@ -8603,7 +7786,7 @@
         <v>69</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="D16" s="140" t="s">
         <v>30</v>
@@ -8615,8 +7798,8 @@
         <v>1</v>
       </c>
       <c r="G16" s="66"/>
-      <c r="H16" s="262" t="s">
-        <v>230</v>
+      <c r="H16" s="171" t="s">
+        <v>211</v>
       </c>
       <c r="I16" s="80"/>
     </row>
@@ -8629,7 +7812,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="75" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="D17" s="140" t="s">
         <v>30</v>
@@ -8641,8 +7824,8 @@
         <v>1</v>
       </c>
       <c r="G17" s="66"/>
-      <c r="H17" s="262" t="s">
-        <v>231</v>
+      <c r="H17" s="171" t="s">
+        <v>212</v>
       </c>
       <c r="I17" s="80"/>
     </row>
@@ -8655,7 +7838,7 @@
         <v>68</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="D18" s="76" t="s">
         <v>30</v>
@@ -8667,8 +7850,8 @@
         <v>1</v>
       </c>
       <c r="G18" s="66"/>
-      <c r="H18" s="262" t="s">
-        <v>232</v>
+      <c r="H18" s="171" t="s">
+        <v>213</v>
       </c>
       <c r="I18" s="80"/>
     </row>
@@ -8681,7 +7864,7 @@
         <v>57</v>
       </c>
       <c r="C19" s="166" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="D19" s="140" t="s">
         <v>43</v>
@@ -8693,8 +7876,8 @@
         <v>1</v>
       </c>
       <c r="G19" s="66"/>
-      <c r="H19" s="262" t="s">
-        <v>233</v>
+      <c r="H19" s="171" t="s">
+        <v>214</v>
       </c>
       <c r="I19" s="80"/>
     </row>
@@ -8707,7 +7890,7 @@
         <v>59</v>
       </c>
       <c r="C20" s="166" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="D20" s="140" t="s">
         <v>43</v>
@@ -8719,8 +7902,8 @@
         <v>-1</v>
       </c>
       <c r="G20" s="66"/>
-      <c r="H20" s="262" t="s">
-        <v>234</v>
+      <c r="H20" s="171" t="s">
+        <v>215</v>
       </c>
       <c r="I20" s="80"/>
     </row>
@@ -8733,7 +7916,7 @@
         <v>55</v>
       </c>
       <c r="C21" s="166" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D21" s="140" t="s">
         <v>43</v>
@@ -8745,8 +7928,8 @@
         <v>-1</v>
       </c>
       <c r="G21" s="66"/>
-      <c r="H21" s="262" t="s">
-        <v>235</v>
+      <c r="H21" s="171" t="s">
+        <v>216</v>
       </c>
       <c r="I21" s="80"/>
     </row>
@@ -8759,7 +7942,7 @@
         <v>63</v>
       </c>
       <c r="C22" s="166" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D22" s="140" t="s">
         <v>43</v>
@@ -8771,8 +7954,8 @@
         <v>-1</v>
       </c>
       <c r="G22" s="66"/>
-      <c r="H22" s="262" t="s">
-        <v>236</v>
+      <c r="H22" s="171" t="s">
+        <v>217</v>
       </c>
       <c r="I22" s="80"/>
     </row>
@@ -8785,7 +7968,7 @@
         <v>45</v>
       </c>
       <c r="C23" s="166" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D23" s="140" t="s">
         <v>43</v>
@@ -8797,8 +7980,8 @@
         <v>-1</v>
       </c>
       <c r="G23" s="66"/>
-      <c r="H23" s="262" t="s">
-        <v>237</v>
+      <c r="H23" s="171" t="s">
+        <v>218</v>
       </c>
       <c r="I23" s="80"/>
     </row>
@@ -8811,7 +7994,7 @@
         <v>51</v>
       </c>
       <c r="C24" s="166" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D24" s="140" t="s">
         <v>43</v>
@@ -8823,8 +8006,8 @@
         <v>-1</v>
       </c>
       <c r="G24" s="66"/>
-      <c r="H24" s="262" t="s">
-        <v>238</v>
+      <c r="H24" s="171" t="s">
+        <v>219</v>
       </c>
       <c r="I24" s="80"/>
     </row>
@@ -8837,7 +8020,7 @@
         <v>47</v>
       </c>
       <c r="C25" s="166" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D25" s="140" t="s">
         <v>43</v>
@@ -8849,8 +8032,8 @@
         <v>1</v>
       </c>
       <c r="G25" s="66"/>
-      <c r="H25" s="262" t="s">
-        <v>239</v>
+      <c r="H25" s="171" t="s">
+        <v>220</v>
       </c>
       <c r="I25" s="80"/>
     </row>
@@ -8863,7 +8046,7 @@
         <v>53</v>
       </c>
       <c r="C26" s="166" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D26" s="140" t="s">
         <v>43</v>
@@ -8875,8 +8058,8 @@
         <v>1</v>
       </c>
       <c r="G26" s="66"/>
-      <c r="H26" s="262" t="s">
-        <v>240</v>
+      <c r="H26" s="171" t="s">
+        <v>221</v>
       </c>
       <c r="I26" s="80"/>
     </row>
@@ -8889,7 +8072,7 @@
         <v>42</v>
       </c>
       <c r="C27" s="166" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D27" s="140" t="s">
         <v>43</v>
@@ -8901,8 +8084,8 @@
         <v>-1</v>
       </c>
       <c r="G27" s="68"/>
-      <c r="H27" s="262" t="s">
-        <v>241</v>
+      <c r="H27" s="171" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1">
@@ -8914,7 +8097,7 @@
         <v>123</v>
       </c>
       <c r="C28" s="167" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D28" s="76" t="s">
         <v>43</v>
@@ -8926,8 +8109,8 @@
         <v>-1</v>
       </c>
       <c r="G28" s="68"/>
-      <c r="H28" s="262" t="s">
-        <v>242</v>
+      <c r="H28" s="171" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="135" customFormat="1" ht="15" thickBot="1">
@@ -8939,7 +8122,7 @@
         <v>124</v>
       </c>
       <c r="C29" s="168" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D29" s="131" t="s">
         <v>43</v>
@@ -8951,8 +8134,8 @@
         <v>-1</v>
       </c>
       <c r="G29" s="134"/>
-      <c r="H29" s="264" t="s">
-        <v>243</v>
+      <c r="H29" s="173" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="135" customFormat="1" ht="15" thickBot="1">
@@ -8964,7 +8147,7 @@
         <v>49</v>
       </c>
       <c r="C30" s="169" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D30" s="141" t="s">
         <v>43</v>
@@ -8976,8 +8159,8 @@
         <v>-1</v>
       </c>
       <c r="G30" s="134"/>
-      <c r="H30" s="264" t="s">
-        <v>244</v>
+      <c r="H30" s="173" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="135" customFormat="1" ht="15" thickBot="1">
@@ -8989,7 +8172,7 @@
         <v>70</v>
       </c>
       <c r="C31" s="169" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D31" s="141" t="s">
         <v>43</v>
@@ -9001,8 +8184,8 @@
         <v>-1</v>
       </c>
       <c r="G31" s="134"/>
-      <c r="H31" s="264" t="s">
-        <v>245</v>
+      <c r="H31" s="173" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="135" customFormat="1" ht="15" thickBot="1">
@@ -9014,7 +8197,7 @@
         <v>61</v>
       </c>
       <c r="C32" s="169" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D32" s="141" t="s">
         <v>43</v>
@@ -9026,8 +8209,8 @@
         <v>-1</v>
       </c>
       <c r="G32" s="134"/>
-      <c r="H32" s="264" t="s">
-        <v>246</v>
+      <c r="H32" s="173" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="135" customFormat="1" ht="15" thickBot="1">
@@ -9039,7 +8222,7 @@
         <v>175</v>
       </c>
       <c r="C33" s="170" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D33" s="164" t="s">
         <v>43</v>
@@ -9051,8 +8234,8 @@
         <v>1</v>
       </c>
       <c r="G33" s="134"/>
-      <c r="H33" s="265" t="s">
-        <v>247</v>
+      <c r="H33" s="174" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="135" customFormat="1" ht="15" thickBot="1">
@@ -9064,7 +8247,7 @@
         <v>129</v>
       </c>
       <c r="C34" s="168" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D34" s="131" t="s">
         <v>43</v>
@@ -9076,8 +8259,8 @@
         <v>-1</v>
       </c>
       <c r="G34" s="134"/>
-      <c r="H34" s="264" t="s">
-        <v>248</v>
+      <c r="H34" s="173" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="135" customFormat="1" ht="15" thickBot="1">
@@ -9089,7 +8272,7 @@
         <v>130</v>
       </c>
       <c r="C35" s="168" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D35" s="131" t="s">
         <v>43</v>
@@ -9101,8 +8284,8 @@
         <v>-1</v>
       </c>
       <c r="G35" s="134"/>
-      <c r="H35" s="264" t="s">
-        <v>249</v>
+      <c r="H35" s="173" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="135" customFormat="1" ht="15" thickBot="1">
@@ -9114,7 +8297,7 @@
         <v>71</v>
       </c>
       <c r="C36" s="169" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D36" s="141" t="s">
         <v>43</v>
@@ -9126,8 +8309,8 @@
         <v>-1</v>
       </c>
       <c r="G36" s="134"/>
-      <c r="H36" s="264" t="s">
-        <v>250</v>
+      <c r="H36" s="173" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="85" customFormat="1" ht="15">
@@ -9140,12 +8323,12 @@
     </row>
     <row r="39" spans="1:8" s="85" customFormat="1" ht="14.45" customHeight="1">
       <c r="A39" s="142"/>
-      <c r="B39" s="261" t="s">
+      <c r="B39" s="265" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="261"/>
-      <c r="D39" s="261"/>
-      <c r="E39" s="261"/>
+      <c r="C39" s="265"/>
+      <c r="D39" s="265"/>
+      <c r="E39" s="265"/>
     </row>
     <row r="40" spans="1:8" s="85" customFormat="1" ht="15">
       <c r="A40" s="142"/>
@@ -9174,12 +8357,12 @@
     </row>
     <row r="44" spans="1:8" s="85" customFormat="1">
       <c r="A44" s="142"/>
-      <c r="B44" s="261" t="s">
+      <c r="B44" s="265" t="s">
         <v>177</v>
       </c>
-      <c r="C44" s="261"/>
-      <c r="D44" s="261"/>
-      <c r="E44" s="261"/>
+      <c r="C44" s="265"/>
+      <c r="D44" s="265"/>
+      <c r="E44" s="265"/>
     </row>
     <row r="45" spans="1:8" s="85" customFormat="1">
       <c r="A45" s="142"/>

--- a/ilpa/ILPA-Best-Practices-Capital-Call-and-Distribution-Notice-Template-v1.2.xlsx
+++ b/ilpa/ILPA-Best-Practices-Capital-Call-and-Distribution-Notice-Template-v1.2.xlsx
@@ -152,9 +152,6 @@
     <t>No Impact</t>
   </si>
   <si>
-    <t>Call: Subsequent Close Interest</t>
-  </si>
-  <si>
     <t>Interest due from LPs that committed to subsequent closing of fund</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
     <t>Return of invested capital from the full or partial sale of an underlying holding</t>
   </si>
   <si>
-    <t>Dist: Realized Gain - Cash</t>
-  </si>
-  <si>
     <t>Realized gain from the full or partial sale of an underlying holding</t>
   </si>
   <si>
@@ -206,21 +200,12 @@
     <t>Realized loss from a stock distribution</t>
   </si>
   <si>
-    <t>Dist: Income/Dividends</t>
-  </si>
-  <si>
     <t>Income or dividends earned from underlying holdings</t>
   </si>
   <si>
-    <t>Dist: Carry</t>
-  </si>
-  <si>
     <t>GP's share of distribution proceeds, as defined by the waterfall calculation in the LPA (offset to distribution)</t>
   </si>
   <si>
-    <t>Dist: Clawback</t>
-  </si>
-  <si>
     <t>Return of excess carry distributed to GP, as defined by the waterfall calculation in the LPA (offset to Carry)</t>
   </si>
   <si>
@@ -246,9 +231,6 @@
   </si>
   <si>
     <t>Call: Working Capital</t>
-  </si>
-  <si>
-    <t>Call: Placement Agent Fees</t>
   </si>
   <si>
     <t>Dist: Return of Excess Capital Called</t>
@@ -1447,9 +1429,6 @@
     <t>NAV for the LP listed in 2.09, as a % of the NAV for the fund listed in 2.01 (n/a if fund has not reported)</t>
   </si>
   <si>
-    <t>Dist: Tax Withheld</t>
-  </si>
-  <si>
     <t>New in Version 1.2 (updated in Sept. 2018)</t>
   </si>
   <si>
@@ -2543,6 +2522,34 @@
   </si>
   <si>
     <t>分配：回拨</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>Call: Placement Agent Fees</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>Call: Subsequent Close Interest</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dist: Carry</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dist: Clawback</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dist: Income/Dividends</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dist: Realized Gain - Cash</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dist: Tax Withheld</t>
     <phoneticPr fontId="44" type="noConversion"/>
   </si>
 </sst>
@@ -4025,356 +4032,356 @@
     <xf numFmtId="0" fontId="43" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="18" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="18" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="30" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="30" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="30" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="30" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="18" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="18" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4425,7 +4432,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4909,7 +4916,7 @@
   <dimension ref="A1:R115"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B15" sqref="B15:C15"/>
@@ -4936,17 +4943,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A1" s="204" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="206"/>
+      <c r="A1" s="230" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="231"/>
+      <c r="C1" s="232"/>
       <c r="D1" s="6"/>
       <c r="E1" s="109" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F1" s="110" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
@@ -4958,14 +4965,14 @@
     </row>
     <row r="2" spans="1:15" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="147" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="207" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="208"/>
+        <v>173</v>
+      </c>
+      <c r="B2" s="233" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="234"/>
       <c r="D2" s="161" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E2" s="152"/>
       <c r="F2" s="153"/>
@@ -4978,11 +4985,11 @@
       <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A3" s="209" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="210"/>
-      <c r="C3" s="211"/>
+      <c r="A3" s="235" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="236"/>
+      <c r="C3" s="237"/>
       <c r="D3" s="154"/>
       <c r="E3" s="152"/>
       <c r="F3" s="154"/>
@@ -4996,17 +5003,17 @@
     </row>
     <row r="4" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="212">
+        <v>126</v>
+      </c>
+      <c r="B4" s="238">
         <v>42527</v>
       </c>
-      <c r="C4" s="213"/>
-      <c r="D4" s="175" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="264" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
       <c r="G4" s="154"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -5017,17 +5024,17 @@
     </row>
     <row r="5" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="202">
+        <v>127</v>
+      </c>
+      <c r="B5" s="226">
         <v>42541</v>
       </c>
-      <c r="C5" s="203"/>
-      <c r="D5" s="175" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
+      <c r="C5" s="227"/>
+      <c r="D5" s="264" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="247"/>
+      <c r="F5" s="247"/>
       <c r="G5" s="154"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -5038,17 +5045,17 @@
     </row>
     <row r="6" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="226" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="227"/>
+      <c r="D6" s="264" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="202" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="203"/>
-      <c r="D6" s="175" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
+      <c r="E6" s="247"/>
+      <c r="F6" s="247"/>
       <c r="G6" s="154"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -5059,17 +5066,17 @@
     </row>
     <row r="7" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="214">
+        <v>129</v>
+      </c>
+      <c r="B7" s="221">
         <v>1000000</v>
       </c>
-      <c r="C7" s="215"/>
-      <c r="D7" s="175" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
+      <c r="C7" s="222"/>
+      <c r="D7" s="264" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="247"/>
+      <c r="F7" s="247"/>
       <c r="G7" s="154"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -5080,17 +5087,17 @@
     </row>
     <row r="8" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="214">
+        <v>130</v>
+      </c>
+      <c r="B8" s="221">
         <v>1000000000</v>
       </c>
-      <c r="C8" s="215"/>
-      <c r="D8" s="175" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
+      <c r="C8" s="222"/>
+      <c r="D8" s="264" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="247"/>
+      <c r="F8" s="247"/>
       <c r="G8" s="154"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -5116,7 +5123,7 @@
     </row>
     <row r="10" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B10" s="98">
         <v>50000000</v>
@@ -5124,11 +5131,11 @@
       <c r="C10" s="99">
         <v>-10000000</v>
       </c>
-      <c r="D10" s="175" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="176"/>
-      <c r="F10" s="176"/>
+      <c r="D10" s="264" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="247"/>
+      <c r="F10" s="247"/>
       <c r="G10" s="156"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -5136,7 +5143,7 @@
     </row>
     <row r="11" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B11" s="100">
         <v>4700000</v>
@@ -5144,11 +5151,11 @@
       <c r="C11" s="101">
         <v>0</v>
       </c>
-      <c r="D11" s="175" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="176"/>
-      <c r="F11" s="176"/>
+      <c r="D11" s="264" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="247"/>
+      <c r="F11" s="247"/>
       <c r="G11" s="156"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -5156,7 +5163,7 @@
     </row>
     <row r="12" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A12" s="17" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B12" s="18">
         <f>B10+B11</f>
@@ -5175,11 +5182,11 @@
       <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A13" s="216" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="217"/>
-      <c r="C13" s="218"/>
+      <c r="A13" s="223" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="224"/>
+      <c r="C13" s="225"/>
       <c r="D13" s="155"/>
       <c r="E13" s="156"/>
       <c r="F13" s="156"/>
@@ -5190,18 +5197,18 @@
     </row>
     <row r="14" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="202" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="203"/>
-      <c r="D14" s="176" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="176"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
+        <v>133</v>
+      </c>
+      <c r="B14" s="226" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="227"/>
+      <c r="D14" s="247" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="247"/>
+      <c r="F14" s="247"/>
+      <c r="G14" s="247"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -5211,18 +5218,18 @@
     </row>
     <row r="15" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A15" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="219">
+        <v>96</v>
+      </c>
+      <c r="B15" s="228">
         <v>50000000</v>
       </c>
-      <c r="C15" s="220"/>
-      <c r="D15" s="176" t="s">
-        <v>143</v>
-      </c>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="176"/>
+      <c r="C15" s="229"/>
+      <c r="D15" s="247" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="247"/>
+      <c r="F15" s="247"/>
+      <c r="G15" s="247"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -5232,13 +5239,13 @@
     </row>
     <row r="16" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A16" s="146" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="196">
+        <v>112</v>
+      </c>
+      <c r="B16" s="260">
         <f>IF(B8=0,0,B15/B8)</f>
         <v>0.05</v>
       </c>
-      <c r="C16" s="197"/>
+      <c r="C16" s="261"/>
       <c r="D16" s="162"/>
       <c r="E16" s="157"/>
       <c r="F16" s="157"/>
@@ -5252,18 +5259,18 @@
     </row>
     <row r="17" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A17" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="198">
+        <v>167</v>
+      </c>
+      <c r="B17" s="262">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="C17" s="199"/>
-      <c r="D17" s="184" t="s">
-        <v>174</v>
-      </c>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="248" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="249"/>
+      <c r="F17" s="249"/>
+      <c r="G17" s="249"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -5273,18 +5280,18 @@
     </row>
     <row r="18" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="200">
+        <v>138</v>
+      </c>
+      <c r="B18" s="194">
         <v>47500000</v>
       </c>
-      <c r="C18" s="201"/>
-      <c r="D18" s="185" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="249" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="249"/>
+      <c r="F18" s="249"/>
+      <c r="G18" s="249"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -5294,18 +5301,18 @@
     </row>
     <row r="19" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19" s="200">
+        <v>139</v>
+      </c>
+      <c r="B19" s="194">
         <v>2500000</v>
       </c>
-      <c r="C19" s="201"/>
-      <c r="D19" s="185" t="s">
-        <v>166</v>
-      </c>
-      <c r="E19" s="185"/>
-      <c r="F19" s="185"/>
-      <c r="G19" s="185"/>
+      <c r="C19" s="195"/>
+      <c r="D19" s="249" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="249"/>
+      <c r="F19" s="249"/>
+      <c r="G19" s="249"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -5315,18 +5322,18 @@
     </row>
     <row r="20" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A20" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" s="200">
+        <v>140</v>
+      </c>
+      <c r="B20" s="194">
         <v>500000</v>
       </c>
-      <c r="C20" s="201"/>
-      <c r="D20" s="185" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="185"/>
-      <c r="F20" s="185"/>
-      <c r="G20" s="185"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="249" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="249"/>
+      <c r="F20" s="249"/>
+      <c r="G20" s="249"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
@@ -5335,11 +5342,11 @@
       <c r="O20" s="9"/>
     </row>
     <row r="21" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A21" s="221" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="222"/>
-      <c r="C21" s="223"/>
+      <c r="A21" s="196" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="197"/>
+      <c r="C21" s="198"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
@@ -5352,11 +5359,11 @@
       <c r="O21" s="9"/>
     </row>
     <row r="22" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A22" s="191" t="s">
-        <v>151</v>
-      </c>
-      <c r="B22" s="192"/>
-      <c r="C22" s="193"/>
+      <c r="A22" s="255" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="256"/>
+      <c r="C22" s="257"/>
       <c r="D22" s="24"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
@@ -5370,13 +5377,13 @@
     </row>
     <row r="23" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A23" s="144" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="194">
+        <v>100</v>
+      </c>
+      <c r="B23" s="258">
         <f>B18</f>
         <v>47500000</v>
       </c>
-      <c r="C23" s="195"/>
+      <c r="C23" s="259"/>
       <c r="D23" s="26"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
@@ -5392,11 +5399,11 @@
       <c r="A24" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="226">
+      <c r="B24" s="199">
         <f>SUM(F39:F80)</f>
         <v>-237500</v>
       </c>
-      <c r="C24" s="227"/>
+      <c r="C24" s="200"/>
       <c r="D24" s="26"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -5412,11 +5419,11 @@
       <c r="A25" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="228">
+      <c r="B25" s="201">
         <f>B23+B24</f>
         <v>47262500</v>
       </c>
-      <c r="C25" s="229"/>
+      <c r="C25" s="202"/>
       <c r="D25" s="26"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -5433,10 +5440,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="22"/>
@@ -5451,7 +5458,7 @@
     </row>
     <row r="27" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A27" s="25" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B27" s="27">
         <f>B19</f>
@@ -5474,7 +5481,7 @@
     </row>
     <row r="28" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A28" s="29" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B28" s="30">
         <f>IF(B10=0,0,B27/B10)</f>
@@ -5497,7 +5504,7 @@
     </row>
     <row r="29" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A29" s="32" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B29" s="33">
         <f>SUMIF(J39:J80,"&gt; -999999999999999999")</f>
@@ -5543,7 +5550,7 @@
     </row>
     <row r="31" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A31" s="35" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B31" s="33">
         <f>B29+B27</f>
@@ -5566,7 +5573,7 @@
     </row>
     <row r="32" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A32" s="29" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B32" s="36">
         <f>IF(B12=0,0,B31/B12)</f>
@@ -5589,13 +5596,13 @@
     </row>
     <row r="33" spans="1:17" s="8" customFormat="1" ht="30.75" thickBot="1">
       <c r="A33" s="93" t="s">
-        <v>155</v>
-      </c>
-      <c r="B33" s="230">
+        <v>149</v>
+      </c>
+      <c r="B33" s="203">
         <f>SUMIF(G39:G80,"&gt; -999999999999999999")</f>
         <v>0</v>
       </c>
-      <c r="C33" s="231"/>
+      <c r="C33" s="204"/>
       <c r="D33" s="38"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
@@ -5608,15 +5615,15 @@
       <c r="O33" s="9"/>
     </row>
     <row r="34" spans="1:17" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A34" s="186" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34" s="186"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
+      <c r="A34" s="250" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="250"/>
+      <c r="C34" s="250"/>
+      <c r="D34" s="250"/>
+      <c r="E34" s="250"/>
+      <c r="F34" s="250"/>
+      <c r="G34" s="250"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
@@ -5625,15 +5632,15 @@
       <c r="O34" s="9"/>
     </row>
     <row r="35" spans="1:17" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A35" s="232" t="s">
-        <v>172</v>
-      </c>
-      <c r="B35" s="232"/>
-      <c r="C35" s="232"/>
-      <c r="D35" s="232"/>
-      <c r="E35" s="232"/>
-      <c r="F35" s="232"/>
-      <c r="G35" s="232"/>
+      <c r="A35" s="205" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="205"/>
+      <c r="C35" s="205"/>
+      <c r="D35" s="205"/>
+      <c r="E35" s="205"/>
+      <c r="F35" s="205"/>
+      <c r="G35" s="205"/>
       <c r="H35" s="39"/>
       <c r="I35" s="39"/>
       <c r="J35" s="39"/>
@@ -5642,49 +5649,49 @@
       <c r="O35" s="9"/>
     </row>
     <row r="36" spans="1:17" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A36" s="233" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="234"/>
-      <c r="C36" s="234"/>
-      <c r="D36" s="234"/>
-      <c r="E36" s="234"/>
-      <c r="F36" s="234"/>
-      <c r="G36" s="235"/>
+      <c r="A36" s="206" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="207"/>
+      <c r="C36" s="207"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="207"/>
+      <c r="F36" s="207"/>
+      <c r="G36" s="208"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="236" t="s">
-        <v>147</v>
-      </c>
-      <c r="B37" s="238" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" s="239"/>
-      <c r="D37" s="238" t="s">
-        <v>149</v>
-      </c>
-      <c r="E37" s="242" t="s">
-        <v>150</v>
-      </c>
-      <c r="F37" s="244" t="s">
+      <c r="A37" s="209" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="211" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="212"/>
+      <c r="D37" s="211" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="215" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" s="217" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="245"/>
+      <c r="G37" s="218"/>
       <c r="H37" s="42"/>
       <c r="I37" s="42"/>
       <c r="J37" s="42"/>
     </row>
     <row r="38" spans="1:17" s="46" customFormat="1" ht="58.15" customHeight="1" thickBot="1">
-      <c r="A38" s="237"/>
-      <c r="B38" s="240"/>
-      <c r="C38" s="241"/>
-      <c r="D38" s="240"/>
-      <c r="E38" s="243"/>
+      <c r="A38" s="210"/>
+      <c r="B38" s="213"/>
+      <c r="C38" s="214"/>
+      <c r="D38" s="213"/>
+      <c r="E38" s="216"/>
       <c r="F38" s="43" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G38" s="44" t="s">
         <v>8</v>
@@ -5696,12 +5703,12 @@
     </row>
     <row r="39" spans="1:17" ht="14.25">
       <c r="A39" s="102" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="246" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="219" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="247"/>
+      <c r="C39" s="220"/>
       <c r="D39" s="103">
         <v>237500</v>
       </c>
@@ -5732,8 +5739,8 @@
     </row>
     <row r="40" spans="1:17" ht="14.25">
       <c r="A40" s="104"/>
-      <c r="B40" s="224"/>
-      <c r="C40" s="225"/>
+      <c r="B40" s="192"/>
+      <c r="C40" s="193"/>
       <c r="D40" s="103"/>
       <c r="E40" s="108"/>
       <c r="F40" s="48" t="str">
@@ -5760,8 +5767,8 @@
     </row>
     <row r="41" spans="1:17" ht="14.25">
       <c r="A41" s="104"/>
-      <c r="B41" s="224"/>
-      <c r="C41" s="225"/>
+      <c r="B41" s="192"/>
+      <c r="C41" s="193"/>
       <c r="D41" s="103"/>
       <c r="E41" s="108"/>
       <c r="F41" s="48" t="str">
@@ -5788,8 +5795,8 @@
     </row>
     <row r="42" spans="1:17" ht="14.25">
       <c r="A42" s="104"/>
-      <c r="B42" s="224"/>
-      <c r="C42" s="225"/>
+      <c r="B42" s="192"/>
+      <c r="C42" s="193"/>
       <c r="D42" s="103"/>
       <c r="E42" s="108"/>
       <c r="F42" s="48" t="str">
@@ -5816,8 +5823,8 @@
     </row>
     <row r="43" spans="1:17" ht="14.25">
       <c r="A43" s="104"/>
-      <c r="B43" s="224"/>
-      <c r="C43" s="225"/>
+      <c r="B43" s="192"/>
+      <c r="C43" s="193"/>
       <c r="D43" s="103"/>
       <c r="E43" s="108"/>
       <c r="F43" s="48" t="str">
@@ -5844,8 +5851,8 @@
     </row>
     <row r="44" spans="1:17" ht="14.25">
       <c r="A44" s="104"/>
-      <c r="B44" s="224"/>
-      <c r="C44" s="225"/>
+      <c r="B44" s="192"/>
+      <c r="C44" s="193"/>
       <c r="D44" s="103"/>
       <c r="E44" s="108"/>
       <c r="F44" s="48" t="str">
@@ -5872,8 +5879,8 @@
     </row>
     <row r="45" spans="1:17" ht="14.25">
       <c r="A45" s="104"/>
-      <c r="B45" s="224"/>
-      <c r="C45" s="225"/>
+      <c r="B45" s="192"/>
+      <c r="C45" s="193"/>
       <c r="D45" s="103"/>
       <c r="E45" s="108"/>
       <c r="F45" s="48" t="str">
@@ -5900,8 +5907,8 @@
     </row>
     <row r="46" spans="1:17" ht="14.25">
       <c r="A46" s="104"/>
-      <c r="B46" s="224"/>
-      <c r="C46" s="225"/>
+      <c r="B46" s="192"/>
+      <c r="C46" s="193"/>
       <c r="D46" s="103"/>
       <c r="E46" s="108"/>
       <c r="F46" s="48" t="str">
@@ -5928,8 +5935,8 @@
     </row>
     <row r="47" spans="1:17" ht="14.25">
       <c r="A47" s="104"/>
-      <c r="B47" s="224"/>
-      <c r="C47" s="225"/>
+      <c r="B47" s="192"/>
+      <c r="C47" s="193"/>
       <c r="D47" s="103"/>
       <c r="E47" s="108"/>
       <c r="F47" s="48" t="str">
@@ -5956,8 +5963,8 @@
     </row>
     <row r="48" spans="1:17" ht="14.25">
       <c r="A48" s="104"/>
-      <c r="B48" s="224"/>
-      <c r="C48" s="225"/>
+      <c r="B48" s="192"/>
+      <c r="C48" s="193"/>
       <c r="D48" s="103"/>
       <c r="E48" s="108"/>
       <c r="F48" s="48" t="str">
@@ -5984,8 +5991,8 @@
     </row>
     <row r="49" spans="1:18" ht="14.25">
       <c r="A49" s="104"/>
-      <c r="B49" s="224"/>
-      <c r="C49" s="225"/>
+      <c r="B49" s="192"/>
+      <c r="C49" s="193"/>
       <c r="D49" s="103"/>
       <c r="E49" s="108"/>
       <c r="F49" s="48" t="str">
@@ -6012,8 +6019,8 @@
     </row>
     <row r="50" spans="1:18" ht="14.25">
       <c r="A50" s="104"/>
-      <c r="B50" s="224"/>
-      <c r="C50" s="225"/>
+      <c r="B50" s="192"/>
+      <c r="C50" s="193"/>
       <c r="D50" s="103"/>
       <c r="E50" s="108"/>
       <c r="F50" s="48" t="str">
@@ -6040,8 +6047,8 @@
     </row>
     <row r="51" spans="1:18" ht="14.25">
       <c r="A51" s="104"/>
-      <c r="B51" s="224"/>
-      <c r="C51" s="225"/>
+      <c r="B51" s="192"/>
+      <c r="C51" s="193"/>
       <c r="D51" s="103"/>
       <c r="E51" s="108"/>
       <c r="F51" s="48" t="str">
@@ -6068,8 +6075,8 @@
     </row>
     <row r="52" spans="1:18" ht="14.25">
       <c r="A52" s="104"/>
-      <c r="B52" s="224"/>
-      <c r="C52" s="225"/>
+      <c r="B52" s="192"/>
+      <c r="C52" s="193"/>
       <c r="D52" s="103"/>
       <c r="E52" s="108"/>
       <c r="F52" s="48" t="str">
@@ -6096,8 +6103,8 @@
     </row>
     <row r="53" spans="1:18" ht="14.25">
       <c r="A53" s="104"/>
-      <c r="B53" s="224"/>
-      <c r="C53" s="225"/>
+      <c r="B53" s="192"/>
+      <c r="C53" s="193"/>
       <c r="D53" s="103"/>
       <c r="E53" s="108"/>
       <c r="F53" s="48" t="str">
@@ -6124,8 +6131,8 @@
     </row>
     <row r="54" spans="1:18" s="53" customFormat="1" ht="14.25">
       <c r="A54" s="104"/>
-      <c r="B54" s="224"/>
-      <c r="C54" s="225"/>
+      <c r="B54" s="192"/>
+      <c r="C54" s="193"/>
       <c r="D54" s="103"/>
       <c r="E54" s="108"/>
       <c r="F54" s="48" t="str">
@@ -6157,8 +6164,8 @@
     </row>
     <row r="55" spans="1:18" ht="14.25">
       <c r="A55" s="104"/>
-      <c r="B55" s="224"/>
-      <c r="C55" s="225"/>
+      <c r="B55" s="192"/>
+      <c r="C55" s="193"/>
       <c r="D55" s="103"/>
       <c r="E55" s="108"/>
       <c r="F55" s="48" t="str">
@@ -6190,8 +6197,8 @@
     </row>
     <row r="56" spans="1:18" ht="15" customHeight="1">
       <c r="A56" s="104"/>
-      <c r="B56" s="224"/>
-      <c r="C56" s="225"/>
+      <c r="B56" s="192"/>
+      <c r="C56" s="193"/>
       <c r="D56" s="103"/>
       <c r="E56" s="108"/>
       <c r="F56" s="48" t="str">
@@ -6223,8 +6230,8 @@
     </row>
     <row r="57" spans="1:18" ht="15.75" customHeight="1">
       <c r="A57" s="104"/>
-      <c r="B57" s="224"/>
-      <c r="C57" s="225"/>
+      <c r="B57" s="192"/>
+      <c r="C57" s="193"/>
       <c r="D57" s="103"/>
       <c r="E57" s="108"/>
       <c r="F57" s="48" t="str">
@@ -6256,8 +6263,8 @@
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1">
       <c r="A58" s="104"/>
-      <c r="B58" s="224"/>
-      <c r="C58" s="225"/>
+      <c r="B58" s="192"/>
+      <c r="C58" s="193"/>
       <c r="D58" s="103"/>
       <c r="E58" s="108"/>
       <c r="F58" s="48" t="str">
@@ -6289,8 +6296,8 @@
     </row>
     <row r="59" spans="1:18" ht="15" customHeight="1">
       <c r="A59" s="104"/>
-      <c r="B59" s="224"/>
-      <c r="C59" s="225"/>
+      <c r="B59" s="192"/>
+      <c r="C59" s="193"/>
       <c r="D59" s="103"/>
       <c r="E59" s="108"/>
       <c r="F59" s="48" t="str">
@@ -6322,8 +6329,8 @@
     </row>
     <row r="60" spans="1:18" ht="14.25">
       <c r="A60" s="104"/>
-      <c r="B60" s="224"/>
-      <c r="C60" s="225"/>
+      <c r="B60" s="192"/>
+      <c r="C60" s="193"/>
       <c r="D60" s="103"/>
       <c r="E60" s="108"/>
       <c r="F60" s="48" t="str">
@@ -6355,8 +6362,8 @@
     </row>
     <row r="61" spans="1:18" ht="12.75" customHeight="1">
       <c r="A61" s="104"/>
-      <c r="B61" s="224"/>
-      <c r="C61" s="225"/>
+      <c r="B61" s="192"/>
+      <c r="C61" s="193"/>
       <c r="D61" s="103"/>
       <c r="E61" s="108"/>
       <c r="F61" s="48" t="str">
@@ -6390,8 +6397,8 @@
     </row>
     <row r="62" spans="1:18" ht="15" customHeight="1">
       <c r="A62" s="104"/>
-      <c r="B62" s="224"/>
-      <c r="C62" s="225"/>
+      <c r="B62" s="192"/>
+      <c r="C62" s="193"/>
       <c r="D62" s="103"/>
       <c r="E62" s="108"/>
       <c r="F62" s="48" t="str">
@@ -6425,8 +6432,8 @@
     </row>
     <row r="63" spans="1:18" ht="14.25">
       <c r="A63" s="104"/>
-      <c r="B63" s="224"/>
-      <c r="C63" s="225"/>
+      <c r="B63" s="192"/>
+      <c r="C63" s="193"/>
       <c r="D63" s="103"/>
       <c r="E63" s="108"/>
       <c r="F63" s="48" t="str">
@@ -6460,8 +6467,8 @@
     </row>
     <row r="64" spans="1:18" ht="14.25">
       <c r="A64" s="104"/>
-      <c r="B64" s="224"/>
-      <c r="C64" s="225"/>
+      <c r="B64" s="192"/>
+      <c r="C64" s="193"/>
       <c r="D64" s="103"/>
       <c r="E64" s="108"/>
       <c r="F64" s="48" t="str">
@@ -6495,8 +6502,8 @@
     </row>
     <row r="65" spans="1:18" ht="14.25">
       <c r="A65" s="104"/>
-      <c r="B65" s="224"/>
-      <c r="C65" s="225"/>
+      <c r="B65" s="192"/>
+      <c r="C65" s="193"/>
       <c r="D65" s="103"/>
       <c r="E65" s="108"/>
       <c r="F65" s="48" t="str">
@@ -6529,8 +6536,8 @@
     </row>
     <row r="66" spans="1:18" ht="14.25">
       <c r="A66" s="104"/>
-      <c r="B66" s="224"/>
-      <c r="C66" s="225"/>
+      <c r="B66" s="192"/>
+      <c r="C66" s="193"/>
       <c r="D66" s="103"/>
       <c r="E66" s="108"/>
       <c r="F66" s="48" t="str">
@@ -6563,8 +6570,8 @@
     </row>
     <row r="67" spans="1:18" ht="12.75" customHeight="1">
       <c r="A67" s="104"/>
-      <c r="B67" s="224"/>
-      <c r="C67" s="225"/>
+      <c r="B67" s="192"/>
+      <c r="C67" s="193"/>
       <c r="D67" s="103"/>
       <c r="E67" s="108"/>
       <c r="F67" s="48" t="str">
@@ -6597,8 +6604,8 @@
     </row>
     <row r="68" spans="1:18" ht="14.25">
       <c r="A68" s="104"/>
-      <c r="B68" s="224"/>
-      <c r="C68" s="225"/>
+      <c r="B68" s="192"/>
+      <c r="C68" s="193"/>
       <c r="D68" s="103"/>
       <c r="E68" s="108"/>
       <c r="F68" s="48" t="str">
@@ -6630,8 +6637,8 @@
     </row>
     <row r="69" spans="1:18" ht="14.25">
       <c r="A69" s="104"/>
-      <c r="B69" s="224"/>
-      <c r="C69" s="225"/>
+      <c r="B69" s="192"/>
+      <c r="C69" s="193"/>
       <c r="D69" s="103"/>
       <c r="E69" s="108"/>
       <c r="F69" s="48" t="str">
@@ -6658,8 +6665,8 @@
     </row>
     <row r="70" spans="1:18" ht="14.25">
       <c r="A70" s="104"/>
-      <c r="B70" s="224"/>
-      <c r="C70" s="225"/>
+      <c r="B70" s="192"/>
+      <c r="C70" s="193"/>
       <c r="D70" s="103"/>
       <c r="E70" s="108"/>
       <c r="F70" s="48" t="str">
@@ -6686,8 +6693,8 @@
     </row>
     <row r="71" spans="1:18" ht="14.25">
       <c r="A71" s="104"/>
-      <c r="B71" s="224"/>
-      <c r="C71" s="225"/>
+      <c r="B71" s="192"/>
+      <c r="C71" s="193"/>
       <c r="D71" s="103"/>
       <c r="E71" s="108"/>
       <c r="F71" s="48" t="str">
@@ -6714,8 +6721,8 @@
     </row>
     <row r="72" spans="1:18" ht="14.25">
       <c r="A72" s="104"/>
-      <c r="B72" s="224"/>
-      <c r="C72" s="225"/>
+      <c r="B72" s="192"/>
+      <c r="C72" s="193"/>
       <c r="D72" s="103"/>
       <c r="E72" s="108"/>
       <c r="F72" s="48" t="str">
@@ -6742,8 +6749,8 @@
     </row>
     <row r="73" spans="1:18" ht="14.25">
       <c r="A73" s="104"/>
-      <c r="B73" s="224"/>
-      <c r="C73" s="225"/>
+      <c r="B73" s="192"/>
+      <c r="C73" s="193"/>
       <c r="D73" s="103"/>
       <c r="E73" s="108"/>
       <c r="F73" s="48" t="str">
@@ -6770,8 +6777,8 @@
     </row>
     <row r="74" spans="1:18" ht="14.25">
       <c r="A74" s="104"/>
-      <c r="B74" s="224"/>
-      <c r="C74" s="225"/>
+      <c r="B74" s="192"/>
+      <c r="C74" s="193"/>
       <c r="D74" s="103"/>
       <c r="E74" s="108"/>
       <c r="F74" s="48" t="str">
@@ -6798,8 +6805,8 @@
     </row>
     <row r="75" spans="1:18" ht="14.25">
       <c r="A75" s="104"/>
-      <c r="B75" s="224"/>
-      <c r="C75" s="225"/>
+      <c r="B75" s="192"/>
+      <c r="C75" s="193"/>
       <c r="D75" s="103"/>
       <c r="E75" s="108"/>
       <c r="F75" s="48" t="str">
@@ -6826,8 +6833,8 @@
     </row>
     <row r="76" spans="1:18" ht="14.25">
       <c r="A76" s="104"/>
-      <c r="B76" s="224"/>
-      <c r="C76" s="225"/>
+      <c r="B76" s="192"/>
+      <c r="C76" s="193"/>
       <c r="D76" s="103"/>
       <c r="E76" s="108"/>
       <c r="F76" s="48" t="str">
@@ -6854,8 +6861,8 @@
     </row>
     <row r="77" spans="1:18" ht="14.25">
       <c r="A77" s="104"/>
-      <c r="B77" s="224"/>
-      <c r="C77" s="225"/>
+      <c r="B77" s="192"/>
+      <c r="C77" s="193"/>
       <c r="D77" s="103"/>
       <c r="E77" s="108"/>
       <c r="F77" s="48" t="str">
@@ -6882,8 +6889,8 @@
     </row>
     <row r="78" spans="1:18" ht="14.25">
       <c r="A78" s="104"/>
-      <c r="B78" s="224"/>
-      <c r="C78" s="225"/>
+      <c r="B78" s="192"/>
+      <c r="C78" s="193"/>
       <c r="D78" s="103"/>
       <c r="E78" s="108"/>
       <c r="F78" s="48" t="str">
@@ -6910,8 +6917,8 @@
     </row>
     <row r="79" spans="1:18" ht="14.25">
       <c r="A79" s="104"/>
-      <c r="B79" s="224"/>
-      <c r="C79" s="225"/>
+      <c r="B79" s="192"/>
+      <c r="C79" s="193"/>
       <c r="D79" s="103"/>
       <c r="E79" s="108"/>
       <c r="F79" s="48" t="str">
@@ -6938,8 +6945,8 @@
     </row>
     <row r="80" spans="1:18" ht="14.25">
       <c r="A80" s="104"/>
-      <c r="B80" s="224"/>
-      <c r="C80" s="225"/>
+      <c r="B80" s="192"/>
+      <c r="C80" s="193"/>
       <c r="D80" s="103"/>
       <c r="E80" s="108"/>
       <c r="F80" s="48" t="str">
@@ -6966,101 +6973,101 @@
     </row>
     <row r="84" spans="1:5" ht="13.5" thickBot="1"/>
     <row r="85" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A85" s="248" t="s">
-        <v>117</v>
-      </c>
-      <c r="B85" s="249"/>
-      <c r="C85" s="249"/>
-      <c r="D85" s="249"/>
-      <c r="E85" s="250"/>
+      <c r="A85" s="189" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="190"/>
+      <c r="C85" s="190"/>
+      <c r="D85" s="190"/>
+      <c r="E85" s="191"/>
     </row>
     <row r="86" spans="1:5" ht="13.5" thickBot="1">
       <c r="D86" s="40"/>
     </row>
     <row r="87" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A87" s="255" t="s">
-        <v>156</v>
-      </c>
-      <c r="B87" s="256"/>
-      <c r="C87" s="256"/>
-      <c r="D87" s="256"/>
-      <c r="E87" s="257"/>
+      <c r="A87" s="179" t="s">
+        <v>150</v>
+      </c>
+      <c r="B87" s="180"/>
+      <c r="C87" s="180"/>
+      <c r="D87" s="180"/>
+      <c r="E87" s="181"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="261"/>
-      <c r="C88" s="261"/>
-      <c r="D88" s="261"/>
-      <c r="E88" s="262"/>
+      <c r="B88" s="185"/>
+      <c r="C88" s="185"/>
+      <c r="D88" s="185"/>
+      <c r="E88" s="186"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="263"/>
-      <c r="C89" s="263"/>
-      <c r="D89" s="263"/>
-      <c r="E89" s="264"/>
+      <c r="B89" s="187"/>
+      <c r="C89" s="187"/>
+      <c r="D89" s="187"/>
+      <c r="E89" s="188"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="263"/>
-      <c r="C90" s="263"/>
-      <c r="D90" s="263"/>
-      <c r="E90" s="264"/>
+      <c r="B90" s="187"/>
+      <c r="C90" s="187"/>
+      <c r="D90" s="187"/>
+      <c r="E90" s="188"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="263"/>
-      <c r="C91" s="263"/>
-      <c r="D91" s="263"/>
-      <c r="E91" s="264"/>
+      <c r="B91" s="187"/>
+      <c r="C91" s="187"/>
+      <c r="D91" s="187"/>
+      <c r="E91" s="188"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B92" s="251"/>
-      <c r="C92" s="251"/>
-      <c r="D92" s="251"/>
-      <c r="E92" s="252"/>
+      <c r="B92" s="175"/>
+      <c r="C92" s="175"/>
+      <c r="D92" s="175"/>
+      <c r="E92" s="176"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B93" s="251"/>
-      <c r="C93" s="251"/>
-      <c r="D93" s="251"/>
-      <c r="E93" s="252"/>
+      <c r="B93" s="175"/>
+      <c r="C93" s="175"/>
+      <c r="D93" s="175"/>
+      <c r="E93" s="176"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" thickBot="1">
       <c r="A94" s="65" t="s">
-        <v>157</v>
-      </c>
-      <c r="B94" s="253"/>
-      <c r="C94" s="253"/>
-      <c r="D94" s="253"/>
-      <c r="E94" s="254"/>
+        <v>151</v>
+      </c>
+      <c r="B94" s="177"/>
+      <c r="C94" s="177"/>
+      <c r="D94" s="177"/>
+      <c r="E94" s="178"/>
     </row>
     <row r="95" spans="1:5" ht="13.5" thickBot="1">
       <c r="B95" s="41"/>
       <c r="C95" s="41"/>
     </row>
     <row r="96" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A96" s="255" t="s">
-        <v>158</v>
-      </c>
-      <c r="B96" s="256"/>
-      <c r="C96" s="256"/>
-      <c r="D96" s="256"/>
-      <c r="E96" s="257"/>
+      <c r="A96" s="179" t="s">
+        <v>152</v>
+      </c>
+      <c r="B96" s="180"/>
+      <c r="C96" s="180"/>
+      <c r="D96" s="180"/>
+      <c r="E96" s="181"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="61" t="s">
@@ -7129,17 +7136,17 @@
       <c r="C103" s="41"/>
     </row>
     <row r="104" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A104" s="258" t="s">
-        <v>159</v>
-      </c>
-      <c r="B104" s="259"/>
-      <c r="C104" s="259"/>
-      <c r="D104" s="259"/>
-      <c r="E104" s="260"/>
+      <c r="A104" s="182" t="s">
+        <v>153</v>
+      </c>
+      <c r="B104" s="183"/>
+      <c r="C104" s="183"/>
+      <c r="D104" s="183"/>
+      <c r="E104" s="184"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B105" s="120"/>
       <c r="C105" s="120"/>
@@ -7148,7 +7155,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B106" s="122"/>
       <c r="C106" s="122"/>
@@ -7157,7 +7164,7 @@
     </row>
     <row r="107" spans="1:5" ht="13.5" thickBot="1">
       <c r="A107" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B107" s="124"/>
       <c r="C107" s="124"/>
@@ -7166,26 +7173,26 @@
     </row>
     <row r="108" spans="1:5" ht="13.5" thickBot="1"/>
     <row r="109" spans="1:5" ht="15" thickBot="1">
-      <c r="A109" s="177" t="s">
-        <v>160</v>
-      </c>
-      <c r="B109" s="178"/>
-      <c r="C109" s="178"/>
-      <c r="D109" s="178"/>
-      <c r="E109" s="179"/>
+      <c r="A109" s="240" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" s="241"/>
+      <c r="C109" s="241"/>
+      <c r="D109" s="241"/>
+      <c r="E109" s="242"/>
     </row>
     <row r="110" spans="1:5" ht="14.45" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110" s="187"/>
-      <c r="C110" s="187"/>
-      <c r="D110" s="187"/>
-      <c r="E110" s="188"/>
+        <v>106</v>
+      </c>
+      <c r="B110" s="251"/>
+      <c r="C110" s="251"/>
+      <c r="D110" s="251"/>
+      <c r="E110" s="252"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B111" s="126"/>
       <c r="C111" s="127"/>
@@ -7194,7 +7201,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B112" s="130"/>
       <c r="C112" s="127"/>
@@ -7203,7 +7210,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B113" s="94">
         <f>B112-B111</f>
@@ -7214,72 +7221,58 @@
       <c r="E113" s="89"/>
     </row>
     <row r="114" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A114" s="189" t="s">
-        <v>105</v>
-      </c>
-      <c r="B114" s="180"/>
-      <c r="C114" s="180"/>
-      <c r="D114" s="180"/>
-      <c r="E114" s="181"/>
+      <c r="A114" s="253" t="s">
+        <v>99</v>
+      </c>
+      <c r="B114" s="243"/>
+      <c r="C114" s="243"/>
+      <c r="D114" s="243"/>
+      <c r="E114" s="244"/>
     </row>
     <row r="115" spans="1:5" ht="15" customHeight="1" thickBot="1">
-      <c r="A115" s="190"/>
-      <c r="B115" s="182"/>
-      <c r="C115" s="182"/>
-      <c r="D115" s="182"/>
-      <c r="E115" s="183"/>
+      <c r="A115" s="254"/>
+      <c r="B115" s="245"/>
+      <c r="C115" s="245"/>
+      <c r="D115" s="245"/>
+      <c r="E115" s="246"/>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="B114:E115"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="B44:C44"/>
@@ -7296,41 +7289,55 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="B114:E115"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
   </mergeCells>
   <phoneticPr fontId="44" type="noConversion"/>
   <dataValidations count="4">
@@ -7371,10 +7378,10 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -7413,16 +7420,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D2" s="140" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -7431,7 +7438,7 @@
         <v>33</v>
       </c>
       <c r="H2" s="171" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="I2" s="82"/>
     </row>
@@ -7444,7 +7451,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D3" s="140" t="s">
         <v>30</v>
@@ -7459,7 +7466,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="171" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I3" s="80"/>
     </row>
@@ -7469,16 +7476,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D4" s="140" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F4" s="67">
         <v>1</v>
@@ -7487,7 +7494,7 @@
         <v>36</v>
       </c>
       <c r="H4" s="171" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I4" s="80"/>
     </row>
@@ -7497,23 +7504,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D5" s="140" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F5" s="67">
         <v>1</v>
       </c>
       <c r="G5" s="66"/>
       <c r="H5" s="171" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I5" s="80"/>
     </row>
@@ -7526,7 +7533,7 @@
         <v>34</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D6" s="140" t="s">
         <v>30</v>
@@ -7539,7 +7546,7 @@
       </c>
       <c r="G6" s="71"/>
       <c r="H6" s="171" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="I6" s="84"/>
     </row>
@@ -7549,23 +7556,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="158" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C7" s="158" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D7" s="159" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="160" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="66"/>
       <c r="H7" s="172" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I7" s="80"/>
     </row>
@@ -7575,23 +7582,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="158" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C8" s="158" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D8" s="159" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="160" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="66"/>
       <c r="H8" s="172" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I8" s="80"/>
     </row>
@@ -7601,23 +7608,23 @@
         <v>8</v>
       </c>
       <c r="B9" s="158" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C9" s="158" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D9" s="159" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="160" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="66"/>
       <c r="H9" s="172" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I9" s="80"/>
     </row>
@@ -7627,23 +7634,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="158" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C10" s="158" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D10" s="159" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="160" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="66"/>
       <c r="H10" s="172" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I10" s="80"/>
     </row>
@@ -7653,23 +7660,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="158" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C11" s="158" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D11" s="159" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="160" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
       <c r="G11" s="66"/>
       <c r="H11" s="172" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="I11" s="80"/>
     </row>
@@ -7679,23 +7686,23 @@
         <v>11</v>
       </c>
       <c r="B12" s="158" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C12" s="158" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D12" s="159" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="160" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="66"/>
       <c r="H12" s="172" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I12" s="80"/>
     </row>
@@ -7705,23 +7712,23 @@
         <v>12</v>
       </c>
       <c r="B13" s="158" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C13" s="158" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D13" s="159" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="160" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="66"/>
       <c r="H13" s="172" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I13" s="80"/>
     </row>
@@ -7731,23 +7738,23 @@
         <v>13</v>
       </c>
       <c r="B14" s="158" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C14" s="158" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D14" s="159" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="160" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="66"/>
       <c r="H14" s="172" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I14" s="80"/>
     </row>
@@ -7757,23 +7764,23 @@
         <v>14</v>
       </c>
       <c r="B15" s="158" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C15" s="158" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D15" s="159" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="160" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
       <c r="G15" s="66"/>
       <c r="H15" s="172" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I15" s="80"/>
     </row>
@@ -7783,23 +7790,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>69</v>
+        <v>244</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D16" s="140" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="72" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F16" s="67">
         <v>1</v>
       </c>
       <c r="G16" s="66"/>
       <c r="H16" s="171" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I16" s="80"/>
     </row>
@@ -7809,23 +7816,23 @@
         <v>16</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>37</v>
+        <v>245</v>
       </c>
       <c r="C17" s="75" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D17" s="140" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
       </c>
       <c r="G17" s="66"/>
       <c r="H17" s="171" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I17" s="80"/>
     </row>
@@ -7835,23 +7842,23 @@
         <v>17</v>
       </c>
       <c r="B18" s="76" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D18" s="76" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="73" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F18" s="67">
         <v>1</v>
       </c>
       <c r="G18" s="66"/>
       <c r="H18" s="171" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I18" s="80"/>
     </row>
@@ -7861,23 +7868,23 @@
         <v>18</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>57</v>
+        <v>246</v>
       </c>
       <c r="C19" s="166" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D19" s="140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="72" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
       </c>
       <c r="G19" s="66"/>
       <c r="H19" s="171" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I19" s="80"/>
     </row>
@@ -7887,23 +7894,23 @@
         <v>19</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>59</v>
+        <v>247</v>
       </c>
       <c r="C20" s="166" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D20" s="140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" s="72" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F20" s="4">
         <v>-1</v>
       </c>
       <c r="G20" s="66"/>
       <c r="H20" s="171" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I20" s="80"/>
     </row>
@@ -7913,23 +7920,23 @@
         <v>20</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>55</v>
+        <v>248</v>
       </c>
       <c r="C21" s="166" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D21" s="140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="72" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F21" s="4">
         <v>-1</v>
       </c>
       <c r="G21" s="66"/>
       <c r="H21" s="171" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I21" s="80"/>
     </row>
@@ -7939,23 +7946,23 @@
         <v>21</v>
       </c>
       <c r="B22" s="75" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C22" s="166" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D22" s="140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="72" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F22" s="4">
         <v>-1</v>
       </c>
       <c r="G22" s="66"/>
       <c r="H22" s="171" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I22" s="80"/>
     </row>
@@ -7965,23 +7972,23 @@
         <v>22</v>
       </c>
       <c r="B23" s="75" t="s">
-        <v>45</v>
+        <v>249</v>
       </c>
       <c r="C23" s="166" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D23" s="140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F23" s="4">
         <v>-1</v>
       </c>
       <c r="G23" s="66"/>
       <c r="H23" s="171" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="I23" s="80"/>
     </row>
@@ -7991,23 +7998,23 @@
         <v>23</v>
       </c>
       <c r="B24" s="75" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="166" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D24" s="140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" s="72" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F24" s="4">
         <v>-1</v>
       </c>
       <c r="G24" s="66"/>
       <c r="H24" s="171" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I24" s="80"/>
     </row>
@@ -8017,23 +8024,23 @@
         <v>24</v>
       </c>
       <c r="B25" s="75" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="166" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D25" s="140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
       </c>
       <c r="G25" s="66"/>
       <c r="H25" s="171" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="I25" s="80"/>
     </row>
@@ -8043,23 +8050,23 @@
         <v>25</v>
       </c>
       <c r="B26" s="75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" s="166" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D26" s="140" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="72" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
       </c>
       <c r="G26" s="66"/>
       <c r="H26" s="171" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="I26" s="80"/>
     </row>
@@ -8069,23 +8076,23 @@
         <v>26</v>
       </c>
       <c r="B27" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="166" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="166" t="s">
-        <v>187</v>
-      </c>
-      <c r="D27" s="140" t="s">
+      <c r="E27" s="72" t="s">
         <v>43</v>
-      </c>
-      <c r="E27" s="72" t="s">
-        <v>44</v>
       </c>
       <c r="F27" s="5">
         <v>-1</v>
       </c>
       <c r="G27" s="68"/>
       <c r="H27" s="171" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1">
@@ -8094,23 +8101,23 @@
         <v>27</v>
       </c>
       <c r="B28" s="76" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C28" s="167" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D28" s="76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="73" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F28" s="69">
         <v>-1</v>
       </c>
       <c r="G28" s="68"/>
       <c r="H28" s="171" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="135" customFormat="1" ht="15" thickBot="1">
@@ -8119,23 +8126,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="131" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C29" s="168" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D29" s="131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="132" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F29" s="133">
         <v>-1</v>
       </c>
       <c r="G29" s="134"/>
       <c r="H29" s="173" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="135" customFormat="1" ht="15" thickBot="1">
@@ -8144,23 +8151,23 @@
         <v>29</v>
       </c>
       <c r="B30" s="136" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C30" s="169" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D30" s="141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" s="137" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F30" s="138">
         <v>-1</v>
       </c>
       <c r="G30" s="134"/>
       <c r="H30" s="173" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="135" customFormat="1" ht="15" thickBot="1">
@@ -8169,23 +8176,23 @@
         <v>30</v>
       </c>
       <c r="B31" s="136" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C31" s="169" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D31" s="141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31" s="137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" s="138">
         <v>-1</v>
       </c>
       <c r="G31" s="134"/>
       <c r="H31" s="173" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="135" customFormat="1" ht="15" thickBot="1">
@@ -8194,23 +8201,23 @@
         <v>31</v>
       </c>
       <c r="B32" s="136" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C32" s="169" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D32" s="141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E32" s="137" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F32" s="138">
         <v>-1</v>
       </c>
       <c r="G32" s="134"/>
       <c r="H32" s="173" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="135" customFormat="1" ht="15" thickBot="1">
@@ -8219,23 +8226,23 @@
         <v>32</v>
       </c>
       <c r="B33" s="163" t="s">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="C33" s="170" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D33" s="164" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" s="165" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F33" s="138">
         <v>1</v>
       </c>
       <c r="G33" s="134"/>
       <c r="H33" s="174" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="135" customFormat="1" ht="15" thickBot="1">
@@ -8244,23 +8251,23 @@
         <v>33</v>
       </c>
       <c r="B34" s="131" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C34" s="168" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D34" s="131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E34" s="132" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F34" s="133">
         <v>-1</v>
       </c>
       <c r="G34" s="134"/>
       <c r="H34" s="173" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="135" customFormat="1" ht="15" thickBot="1">
@@ -8269,23 +8276,23 @@
         <v>34</v>
       </c>
       <c r="B35" s="131" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C35" s="168" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D35" s="131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E35" s="132" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F35" s="133">
         <v>-1</v>
       </c>
       <c r="G35" s="134"/>
       <c r="H35" s="173" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="135" customFormat="1" ht="15" thickBot="1">
@@ -8294,29 +8301,29 @@
         <v>35</v>
       </c>
       <c r="B36" s="136" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C36" s="169" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D36" s="141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E36" s="137" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F36" s="138">
         <v>-1</v>
       </c>
       <c r="G36" s="134"/>
       <c r="H36" s="173" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="85" customFormat="1" ht="15">
       <c r="A38" s="142"/>
       <c r="B38" s="139" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C38" s="139"/>
       <c r="E38" s="143"/>
@@ -8324,7 +8331,7 @@
     <row r="39" spans="1:8" s="85" customFormat="1" ht="14.45" customHeight="1">
       <c r="A39" s="142"/>
       <c r="B39" s="265" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C39" s="265"/>
       <c r="D39" s="265"/>
@@ -8333,13 +8340,13 @@
     <row r="40" spans="1:8" s="85" customFormat="1" ht="15">
       <c r="A40" s="142"/>
       <c r="B40" s="85" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="85" customFormat="1">
       <c r="A41" s="142"/>
       <c r="B41" s="85" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E41" s="143"/>
     </row>
@@ -8350,7 +8357,7 @@
     <row r="43" spans="1:8" s="85" customFormat="1" ht="15">
       <c r="A43" s="142"/>
       <c r="B43" s="139" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C43" s="139"/>
       <c r="E43" s="143"/>
@@ -8358,7 +8365,7 @@
     <row r="44" spans="1:8" s="85" customFormat="1">
       <c r="A44" s="142"/>
       <c r="B44" s="265" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C44" s="265"/>
       <c r="D44" s="265"/>

--- a/ilpa/ILPA-Best-Practices-Capital-Call-and-Distribution-Notice-Template-v1.2.xlsx
+++ b/ilpa/ILPA-Best-Practices-Capital-Call-and-Distribution-Notice-Template-v1.2.xlsx
@@ -1,34 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdematteis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019\wiki2019\wiki2019\ilpa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9CE9ED-D5D6-478B-8EF4-212DB3D73DF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10860" windowHeight="10860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10860" windowHeight="10860"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="3" r:id="rId1"/>
     <sheet name="Trans. Type Definitions" sheetId="2" r:id="rId2"/>
+    <sheet name="Trans. Type Definitions (翻译)" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
+    <definedName name="Impact" localSheetId="2">'Trans. Type Definitions (翻译)'!$G$2:$G$3</definedName>
     <definedName name="Impact">'Trans. Type Definitions'!$F$2:$F$3</definedName>
     <definedName name="Impacts">[1]Definitions!$E$2:$E$4</definedName>
+    <definedName name="Inpact" localSheetId="2">'Trans. Type Definitions (翻译)'!$G$2:$G$4</definedName>
     <definedName name="Inpact">'Trans. Type Definitions'!$F$2:$F$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Template!$A$1:$L$116</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Trans. Type Definitions'!$B$1:$D$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Trans. Type Definitions (翻译)'!$B$1:$E$42</definedName>
+    <definedName name="TransactionType" localSheetId="2">'Trans. Type Definitions (翻译)'!$B$2:$B$36</definedName>
     <definedName name="TransactionType">'Trans. Type Definitions'!$B$2:$B$36</definedName>
     <definedName name="TransTypes">[1]Definitions!$A$2:$A$21</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="252">
   <si>
     <t>Impact on Unfunded Balance (Current Notice)</t>
   </si>
@@ -51,12 +55,6 @@
     <t>Fund Aggregate Calls / Distributions (Incl. GP's Share)</t>
   </si>
   <si>
-    <t>Contributions</t>
-  </si>
-  <si>
-    <t>(Distributions)</t>
-  </si>
-  <si>
     <t>Aggregate Calls / Distributions</t>
   </si>
   <si>
@@ -153,9 +151,6 @@
     <t>No Impact</t>
   </si>
   <si>
-    <t>Call: Subsequent Close Interest</t>
-  </si>
-  <si>
     <t>Interest due from LPs that committed to subsequent closing of fund</t>
   </si>
   <si>
@@ -177,9 +172,6 @@
     <t>Return of invested capital from the full or partial sale of an underlying holding</t>
   </si>
   <si>
-    <t>Dist: Realized Gain - Cash</t>
-  </si>
-  <si>
     <t>Realized gain from the full or partial sale of an underlying holding</t>
   </si>
   <si>
@@ -207,21 +199,12 @@
     <t>Realized loss from a stock distribution</t>
   </si>
   <si>
-    <t>Dist: Income/Dividends</t>
-  </si>
-  <si>
     <t>Income or dividends earned from underlying holdings</t>
   </si>
   <si>
-    <t>Dist: Carry</t>
-  </si>
-  <si>
     <t>GP's share of distribution proceeds, as defined by the waterfall calculation in the LPA (offset to distribution)</t>
   </si>
   <si>
-    <t>Dist: Clawback</t>
-  </si>
-  <si>
     <t>Return of excess carry distributed to GP, as defined by the waterfall calculation in the LPA (offset to Carry)</t>
   </si>
   <si>
@@ -247,9 +230,6 @@
   </si>
   <si>
     <t>Call: Working Capital</t>
-  </si>
-  <si>
-    <t>Call: Placement Agent Fees</t>
   </si>
   <si>
     <t>Dist: Return of Excess Capital Called</t>
@@ -1448,9 +1428,6 @@
     <t>NAV for the LP listed in 2.09, as a % of the NAV for the fund listed in 2.01 (n/a if fund has not reported)</t>
   </si>
   <si>
-    <t>Dist: Tax Withheld</t>
-  </si>
-  <si>
     <t>New in Version 1.2 (updated in Sept. 2018)</t>
   </si>
   <si>
@@ -1522,29 +1499,1256 @@
       </rPr>
       <t xml:space="preserve"> Fund</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股息</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在极左栏提供说明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已实现的增益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现金</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已实现增益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股票</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已实现损失</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现金</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已实现亏损</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库存</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资本回报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现金</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资本回报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资本回报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合伙费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股本回报率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>股票</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所谓的超额资本的回归</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后续的收盘价</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扣缴税款</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>临时资本回报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理费</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>临时回资</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合伙费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>临时资本回报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投资</t>
+    </r>
+  </si>
+  <si>
+    <t>来自LP的电话，代表GP的资本要求份额（通常用作未来管理费的抵消）</t>
+  </si>
+  <si>
+    <t>要求投资新的或现有的基础资产</t>
+  </si>
+  <si>
+    <r>
+      <t>要求定期管理。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>费用/ GP分配，扣除任何豁免或抵消（在“边计算”部分提供管理费用计算）;减少没有资金的承诺</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>要求定期管理。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>费用/ GP分配，扣除任何豁免或抵消（在“边计算”部分提供管理费用计算）;对没有资金的承诺没有影响</t>
+    </r>
+  </si>
+  <si>
+    <t>根据LPA的定义，呼吁建立合伙企业/基金费用</t>
+  </si>
+  <si>
+    <r>
+      <t>要求向基金收取基金管理费用，包括会计，估价服务，备案费和信息技术活动;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>不包括审计和税务准备的费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>向基金收取的用于审计基金财务记录和编制与基金有关的任何税务文件的费用;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>不包括与组织基金，投资尽职调查和基金管理费用相关的任何费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>向基金收取银行/金融服务的费用;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>不包括基金管理费用</t>
+    </r>
+  </si>
+  <si>
+    <t>向基金收取的证券登记和其他与监管有关的活动的费用;不包括基金管理费用</t>
+  </si>
+  <si>
+    <r>
+      <t>向基金收取的费用，以确认有关潜在投资机会的所有重大假设;包括与特定投资机会的尽职调查明确相关的所有费用，包括法律，差旅和其他费用;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>包括完成和未完成的交易;排除管理费用以及识别和寻找潜在投资机会的成本;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>不包括基金管理费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>代表基金向基金收取法律服务的费用;包括法律分析，以解释或修改基金的LPA;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>不包括与组织/管理基金或投资尽职调查相关的任何法律费用</t>
+    </r>
+  </si>
+  <si>
+    <t>向基金收取的设立基金的费用，包括任何法律/审计费用;不包括任何基金管理费用或安置费用</t>
+  </si>
+  <si>
+    <r>
+      <t>代表基金向基金收取的与旅行和娱乐有关的费用;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>可能包括与LPAC会议或未报销的投资组合公司会议相关的旅行;不包括与尽职调查相关的差旅费用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>向基金收取的费用，未在别处说明;可能包括年度会议费用，保险，合伙企业税收和交易发起/监督费用;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="&amp;#23435;&amp;#20307;"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>（在Call / Dist。模板的最左栏中提供这些费用的说明）</t>
+    </r>
+  </si>
+  <si>
+    <t>向筹款/经理/关联方或外部各方支付筹款服务的费用/费用</t>
+  </si>
+  <si>
+    <t>LP承诺随后关闭基金的利息</t>
+  </si>
+  <si>
+    <t>在最终使用资金尚未确定时，减少未提供资金的义务</t>
+  </si>
+  <si>
+    <t>按照LPA中的瀑布计算（偏离分配）定义，GP的分配份额继续进行</t>
+  </si>
+  <si>
+    <t>按照LPA中的瀑布计算（偏移到Carry）的定义，将超出的回报分配给GP</t>
+  </si>
+  <si>
+    <t>从相关持股中获得的收入或股息</t>
+  </si>
+  <si>
+    <t>上面没有另外定义的杂项分发（在工作表的最左栏中提供这些费用的说明）</t>
+  </si>
+  <si>
+    <t>通过全面或部分出售基础持有来实现收益</t>
+  </si>
+  <si>
+    <t>从股票分配中实现收益</t>
+  </si>
+  <si>
+    <t>全部或部分出售相关持股的损失</t>
+  </si>
+  <si>
+    <t>实现了股票分配的损失</t>
+  </si>
+  <si>
+    <t>全部或部分出售相关持股的投资资本回报</t>
+  </si>
+  <si>
+    <t>退还管理费</t>
+  </si>
+  <si>
+    <t>退还合伙费用</t>
+  </si>
+  <si>
+    <t>股票分配的成本基础</t>
+  </si>
+  <si>
+    <t>未使用收益的回报需要投资（通常会增加无资金的承诺）</t>
+  </si>
+  <si>
+    <t>从承诺随后关闭基金的LP收到的利息</t>
+  </si>
+  <si>
+    <t>从分配中扣除的税（抵消已实现的收益和/或收入/股息）</t>
+  </si>
+  <si>
+    <t>可以在将来再次调用的管理费退还</t>
+  </si>
+  <si>
+    <t>返回可以在将来再次调用的合伙费用</t>
+  </si>
+  <si>
+    <t>以前称为基础持有的资本回报可以再次调用</t>
+  </si>
+  <si>
+    <r>
+      <t>分配：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>附带收益</t>
+    </r>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴款： GP的贡献</t>
+  </si>
+  <si>
+    <t>缴款： 投资</t>
+  </si>
+  <si>
+    <t>缴款： 管理费 (内部承诺)</t>
+  </si>
+  <si>
+    <t>缴款： 管理费 (外部承诺)</t>
+  </si>
+  <si>
+    <t>缴款： 合作伙伴费用</t>
+  </si>
+  <si>
+    <t>缴款： 合伙企业开支–会计、行政和 IT</t>
+  </si>
+  <si>
+    <t>缴款： 合作伙伴费用–审计和税务准备</t>
+  </si>
+  <si>
+    <t>缴款： 合伙费–银行费用</t>
+  </si>
+  <si>
+    <t>缴款： 合伙费–托管费用</t>
+  </si>
+  <si>
+    <t>缴款： 合伙企业开支--尽职调查</t>
+  </si>
+  <si>
+    <t>缴款： 合伙企业费用–法律</t>
+  </si>
+  <si>
+    <t>缴款： 合作费用–其他商旅和娱乐</t>
+  </si>
+  <si>
+    <t>缴款： 配售代理费用</t>
+  </si>
+  <si>
+    <t>缴款： 后续关单利息</t>
+  </si>
+  <si>
+    <t>缴款： 周转金</t>
+  </si>
+  <si>
+    <t>分配：回拨</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>Call: Placement Agent Fees</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>Call: Subsequent Close Interest</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dist: Carry</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dist: Clawback</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dist: Income/Dividends</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dist: Realized Gain - Cash</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dist: Tax Withheld</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缴款：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合作伙伴费用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机构成本</t>
+    </r>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缴款：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合作伙伴费用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">其他
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在最左边的专栏中详细说明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Contributions</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缴款</t>
+    </r>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(Distributions</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分配</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="44" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1842,8 +3046,57 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="&amp;#23435;&amp;#20307;"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1886,8 +3139,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -2400,13 +3659,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -2430,7 +3704,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -2449,7 +3723,7 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -2488,10 +3762,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2507,10 +3781,10 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2533,22 +3807,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="13" fillId="3" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="13" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2569,7 +3843,7 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -2581,14 +3855,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -2605,7 +3879,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2661,7 +3935,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -2744,37 +4018,37 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -2789,19 +4063,19 @@
     <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="30" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="30" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="177" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="43" fontId="30" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="30" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2906,19 +4180,351 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="30" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="30" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="18" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="18" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2954,327 +4560,25 @@
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="18" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="18" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="30" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="30" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3315,7 +4619,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3510,7 +4814,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3585,23 +4889,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3637,23 +4924,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3829,48 +5099,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R115"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15:C15"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33:C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.77734375" style="40" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="57.625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.75" style="40" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="41" customWidth="1"/>
     <col min="7" max="7" width="14" style="41" customWidth="1"/>
-    <col min="8" max="8" width="2" style="57" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="5" style="57" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" style="57" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5546875" style="40" customWidth="1"/>
-    <col min="12" max="12" width="4.44140625" style="40" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.6640625" style="41" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" style="40" customWidth="1"/>
-    <col min="17" max="17" width="1.6640625" style="40" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="40"/>
+    <col min="8" max="8" width="27.375" style="57" customWidth="1"/>
+    <col min="9" max="9" width="20.125" style="57" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="57" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="40" customWidth="1"/>
+    <col min="12" max="12" width="4.5" style="40" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.625" style="41" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="40" customWidth="1"/>
+    <col min="17" max="17" width="1.625" style="40" customWidth="1"/>
+    <col min="18" max="16384" width="9.125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="218" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="220"/>
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A1" s="204" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="205"/>
+      <c r="C1" s="206"/>
       <c r="D1" s="6"/>
       <c r="E1" s="109" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F1" s="110" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
@@ -3880,16 +5150,16 @@
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
     </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="147" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="221" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="222"/>
+        <v>171</v>
+      </c>
+      <c r="B2" s="207" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="208"/>
       <c r="D2" s="161" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E2" s="152"/>
       <c r="F2" s="153"/>
@@ -3901,12 +5171,12 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="223" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="224"/>
-      <c r="C3" s="225"/>
+    <row r="3" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
+      <c r="A3" s="209" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="210"/>
+      <c r="C3" s="211"/>
       <c r="D3" s="154"/>
       <c r="E3" s="152"/>
       <c r="F3" s="154"/>
@@ -3918,19 +5188,19 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="226">
+        <v>124</v>
+      </c>
+      <c r="B4" s="212">
         <v>42527</v>
       </c>
-      <c r="C4" s="227"/>
-      <c r="D4" s="252" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="235"/>
-      <c r="F4" s="235"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="175" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
       <c r="G4" s="154"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -3939,19 +5209,19 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="214">
+        <v>125</v>
+      </c>
+      <c r="B5" s="202">
         <v>42541</v>
       </c>
-      <c r="C5" s="215"/>
-      <c r="D5" s="252" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="235"/>
-      <c r="F5" s="235"/>
+      <c r="C5" s="203"/>
+      <c r="D5" s="175" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="176"/>
+      <c r="F5" s="176"/>
       <c r="G5" s="154"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -3960,19 +5230,19 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="214" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="215"/>
-      <c r="D6" s="252" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="235"/>
-      <c r="F6" s="235"/>
+        <v>126</v>
+      </c>
+      <c r="B6" s="202" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="203"/>
+      <c r="D6" s="175" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="176"/>
+      <c r="F6" s="176"/>
       <c r="G6" s="154"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -3981,19 +5251,19 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="209">
+        <v>127</v>
+      </c>
+      <c r="B7" s="214">
         <v>1000000</v>
       </c>
-      <c r="C7" s="210"/>
-      <c r="D7" s="252" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="235"/>
-      <c r="F7" s="235"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="175" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
       <c r="G7" s="154"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -4002,33 +5272,33 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="209">
+        <v>128</v>
+      </c>
+      <c r="B8" s="214">
         <v>1000000000</v>
       </c>
-      <c r="C8" s="210"/>
-      <c r="D8" s="252" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="235"/>
-      <c r="F8" s="235"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="175" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="176"/>
+      <c r="F8" s="176"/>
       <c r="G8" s="154"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" spans="1:15" s="8" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="8" customFormat="1" ht="25.15" customHeight="1">
       <c r="A9" s="148" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="149" t="s">
-        <v>3</v>
+        <v>249</v>
       </c>
       <c r="C9" s="150" t="s">
-        <v>4</v>
+        <v>250</v>
       </c>
       <c r="D9" s="155"/>
       <c r="E9" s="156"/>
@@ -4038,9 +5308,9 @@
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
     </row>
-    <row r="10" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B10" s="98">
         <v>50000000</v>
@@ -4048,19 +5318,19 @@
       <c r="C10" s="99">
         <v>-10000000</v>
       </c>
-      <c r="D10" s="252" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="235"/>
-      <c r="F10" s="235"/>
+      <c r="D10" s="175" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
       <c r="G10" s="156"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B11" s="100">
         <v>4700000</v>
@@ -4068,19 +5338,19 @@
       <c r="C11" s="101">
         <v>0</v>
       </c>
-      <c r="D11" s="252" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="235"/>
-      <c r="F11" s="235"/>
+      <c r="D11" s="175" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
       <c r="G11" s="156"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
     </row>
-    <row r="12" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A12" s="17" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B12" s="18">
         <f>B10+B11</f>
@@ -4098,12 +5368,12 @@
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
     </row>
-    <row r="13" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="211" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="212"/>
-      <c r="C13" s="213"/>
+    <row r="13" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
+      <c r="A13" s="216" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="217"/>
+      <c r="C13" s="218"/>
       <c r="D13" s="155"/>
       <c r="E13" s="156"/>
       <c r="F13" s="156"/>
@@ -4112,20 +5382,20 @@
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
     </row>
-    <row r="14" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="214" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="215"/>
-      <c r="D14" s="235" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="235"/>
-      <c r="F14" s="235"/>
-      <c r="G14" s="235"/>
+      <c r="B14" s="202" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="203"/>
+      <c r="D14" s="176" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -4133,20 +5403,20 @@
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A15" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="216">
+        <v>94</v>
+      </c>
+      <c r="B15" s="219">
         <v>50000000</v>
       </c>
-      <c r="C15" s="217"/>
-      <c r="D15" s="235" t="s">
-        <v>143</v>
-      </c>
-      <c r="E15" s="235"/>
-      <c r="F15" s="235"/>
-      <c r="G15" s="235"/>
+      <c r="C15" s="220"/>
+      <c r="D15" s="176" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="176"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="176"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -4154,15 +5424,15 @@
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A16" s="146" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="248">
+        <v>110</v>
+      </c>
+      <c r="B16" s="196">
         <f>IF(B8=0,0,B15/B8)</f>
         <v>0.05</v>
       </c>
-      <c r="C16" s="249"/>
+      <c r="C16" s="197"/>
       <c r="D16" s="162"/>
       <c r="E16" s="157"/>
       <c r="F16" s="157"/>
@@ -4174,20 +5444,20 @@
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A17" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="250">
+        <v>165</v>
+      </c>
+      <c r="B17" s="198">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="C17" s="251"/>
-      <c r="D17" s="236" t="s">
-        <v>174</v>
-      </c>
-      <c r="E17" s="237"/>
-      <c r="F17" s="237"/>
-      <c r="G17" s="237"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="184" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="185"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="185"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -4195,20 +5465,20 @@
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="182">
+        <v>136</v>
+      </c>
+      <c r="B18" s="200">
         <v>47500000</v>
       </c>
-      <c r="C18" s="183"/>
-      <c r="D18" s="237" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="237"/>
-      <c r="F18" s="237"/>
-      <c r="G18" s="237"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="185" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="185"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="185"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -4216,20 +5486,20 @@
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
     </row>
-    <row r="19" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19" s="182">
+        <v>137</v>
+      </c>
+      <c r="B19" s="200">
         <v>2500000</v>
       </c>
-      <c r="C19" s="183"/>
-      <c r="D19" s="237" t="s">
-        <v>166</v>
-      </c>
-      <c r="E19" s="237"/>
-      <c r="F19" s="237"/>
-      <c r="G19" s="237"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="185" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="185"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="185"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -4237,20 +5507,20 @@
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A20" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" s="182">
+        <v>138</v>
+      </c>
+      <c r="B20" s="200">
         <v>500000</v>
       </c>
-      <c r="C20" s="183"/>
-      <c r="D20" s="237" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="237"/>
-      <c r="F20" s="237"/>
-      <c r="G20" s="237"/>
+      <c r="C20" s="201"/>
+      <c r="D20" s="185" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="185"/>
+      <c r="F20" s="185"/>
+      <c r="G20" s="185"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
@@ -4258,12 +5528,12 @@
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
     </row>
-    <row r="21" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="184" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="185"/>
-      <c r="C21" s="186"/>
+    <row r="21" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="A21" s="221" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="222"/>
+      <c r="C21" s="223"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
@@ -4275,12 +5545,12 @@
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
     </row>
-    <row r="22" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="243" t="s">
-        <v>151</v>
-      </c>
-      <c r="B22" s="244"/>
-      <c r="C22" s="245"/>
+    <row r="22" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="A22" s="191" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="192"/>
+      <c r="C22" s="193"/>
       <c r="D22" s="24"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
@@ -4292,15 +5562,15 @@
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
     </row>
-    <row r="23" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A23" s="144" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="246">
+        <v>98</v>
+      </c>
+      <c r="B23" s="194">
         <f>B18</f>
         <v>47500000</v>
       </c>
-      <c r="C23" s="247"/>
+      <c r="C23" s="195"/>
       <c r="D23" s="26"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
@@ -4312,15 +5582,15 @@
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
     </row>
-    <row r="24" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A24" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="187">
+      <c r="B24" s="226">
         <f>SUM(F39:F80)</f>
-        <v>-237500</v>
-      </c>
-      <c r="C24" s="188"/>
+        <v>3262500</v>
+      </c>
+      <c r="C24" s="227"/>
       <c r="D24" s="26"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -4332,15 +5602,15 @@
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
     </row>
-    <row r="25" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A25" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="189">
+      <c r="B25" s="228">
         <f>B23+B24</f>
-        <v>47262500</v>
-      </c>
-      <c r="C25" s="190"/>
+        <v>50762500</v>
+      </c>
+      <c r="C25" s="229"/>
       <c r="D25" s="26"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -4352,15 +5622,15 @@
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
     </row>
-    <row r="26" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A26" s="95" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="22"/>
@@ -4373,9 +5643,9 @@
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
     </row>
-    <row r="27" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A27" s="25" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B27" s="27">
         <f>B19</f>
@@ -4396,9 +5666,9 @@
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
     </row>
-    <row r="28" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A28" s="29" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B28" s="30">
         <f>IF(B10=0,0,B27/B10)</f>
@@ -4419,13 +5689,13 @@
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
     </row>
-    <row r="29" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A29" s="32" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B29" s="33">
         <f>SUMIF(J39:J80,"&gt; -999999999999999999")</f>
-        <v>237500</v>
+        <v>3737500</v>
       </c>
       <c r="C29" s="34">
         <f>(ROUND(B29,0)-ROUND(B33,0))*(-1)</f>
@@ -4442,13 +5712,13 @@
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
     </row>
-    <row r="30" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A30" s="29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B30" s="30">
         <f>IF(B11=0,0,B29/B11)</f>
-        <v>5.0531914893617018E-2</v>
+        <v>0.79521276595744683</v>
       </c>
       <c r="C30" s="31">
         <f>IF(C11=0,0,C29/C11)</f>
@@ -4465,13 +5735,13 @@
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
     </row>
-    <row r="31" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
       <c r="A31" s="35" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B31" s="33">
         <f>B29+B27</f>
-        <v>2737500</v>
+        <v>6237500</v>
       </c>
       <c r="C31" s="34">
         <f>C29+C27</f>
@@ -4488,13 +5758,13 @@
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
     </row>
-    <row r="32" spans="1:15" s="8" customFormat="1" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
       <c r="A32" s="29" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B32" s="36">
         <f>IF(B12=0,0,B31/B12)</f>
-        <v>5.0045703839122484E-2</v>
+        <v>0.11403107861060328</v>
       </c>
       <c r="C32" s="37">
         <f>IF(C12=0,0,C31/C12)</f>
@@ -4511,15 +5781,15 @@
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
     </row>
-    <row r="33" spans="1:17" s="8" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" s="8" customFormat="1" ht="30.75" thickBot="1">
       <c r="A33" s="93" t="s">
-        <v>155</v>
-      </c>
-      <c r="B33" s="191">
+        <v>147</v>
+      </c>
+      <c r="B33" s="230">
         <f>SUMIF(G39:G80,"&gt; -999999999999999999")</f>
-        <v>237500</v>
-      </c>
-      <c r="C33" s="192"/>
+        <v>3737500</v>
+      </c>
+      <c r="C33" s="231"/>
       <c r="D33" s="38"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
@@ -4531,16 +5801,16 @@
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
     </row>
-    <row r="34" spans="1:17" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="238" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34" s="238"/>
-      <c r="C34" s="238"/>
-      <c r="D34" s="238"/>
-      <c r="E34" s="238"/>
-      <c r="F34" s="238"/>
-      <c r="G34" s="238"/>
+    <row r="34" spans="1:17" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A34" s="186" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="186"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="186"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="186"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
@@ -4548,16 +5818,16 @@
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
     </row>
-    <row r="35" spans="1:17" s="8" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="193" t="s">
-        <v>172</v>
-      </c>
-      <c r="B35" s="193"/>
-      <c r="C35" s="193"/>
-      <c r="D35" s="193"/>
-      <c r="E35" s="193"/>
-      <c r="F35" s="193"/>
-      <c r="G35" s="193"/>
+    <row r="35" spans="1:17" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="A35" s="232" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="232"/>
+      <c r="C35" s="232"/>
+      <c r="D35" s="232"/>
+      <c r="E35" s="232"/>
+      <c r="F35" s="232"/>
+      <c r="G35" s="232"/>
       <c r="H35" s="39"/>
       <c r="I35" s="39"/>
       <c r="J35" s="39"/>
@@ -4565,72 +5835,72 @@
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
     </row>
-    <row r="36" spans="1:17" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="194" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="195"/>
-      <c r="C36" s="195"/>
-      <c r="D36" s="195"/>
-      <c r="E36" s="195"/>
-      <c r="F36" s="195"/>
-      <c r="G36" s="196"/>
+    <row r="36" spans="1:17" ht="16.149999999999999" customHeight="1" thickBot="1">
+      <c r="A36" s="233" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="234"/>
+      <c r="C36" s="234"/>
+      <c r="D36" s="234"/>
+      <c r="E36" s="234"/>
+      <c r="F36" s="234"/>
+      <c r="G36" s="235"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="197" t="s">
-        <v>147</v>
-      </c>
-      <c r="B37" s="199" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" s="200"/>
-      <c r="D37" s="199" t="s">
-        <v>149</v>
-      </c>
-      <c r="E37" s="203" t="s">
-        <v>150</v>
-      </c>
-      <c r="F37" s="205" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="206"/>
+    <row r="37" spans="1:17">
+      <c r="A37" s="236" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="238" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="239"/>
+      <c r="D37" s="238" t="s">
+        <v>141</v>
+      </c>
+      <c r="E37" s="242" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="244" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="245"/>
       <c r="H37" s="42"/>
       <c r="I37" s="42"/>
       <c r="J37" s="42"/>
     </row>
-    <row r="38" spans="1:17" s="46" customFormat="1" ht="58.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="198"/>
-      <c r="B38" s="201"/>
-      <c r="C38" s="202"/>
-      <c r="D38" s="201"/>
-      <c r="E38" s="204"/>
+    <row r="38" spans="1:17" s="46" customFormat="1" ht="58.15" customHeight="1" thickBot="1">
+      <c r="A38" s="237"/>
+      <c r="B38" s="240"/>
+      <c r="C38" s="241"/>
+      <c r="D38" s="240"/>
+      <c r="E38" s="243"/>
       <c r="F38" s="43" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G38" s="44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H38" s="45"/>
       <c r="I38" s="45"/>
       <c r="J38" s="45"/>
       <c r="Q38" s="47"/>
     </row>
-    <row r="39" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="14.25">
       <c r="A39" s="102" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="207" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="208"/>
+        <v>74</v>
+      </c>
+      <c r="B39" s="246" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="247"/>
       <c r="D39" s="103">
         <v>237500</v>
       </c>
       <c r="E39" s="107" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F39" s="48">
         <f>IF(E39="Decreases", -D39,IF(E39="Increases", D39,"0.00"))</f>
@@ -4654,38 +5924,46 @@
       </c>
       <c r="K39" s="51"/>
     </row>
-    <row r="40" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="104"/>
-      <c r="B40" s="180"/>
-      <c r="C40" s="181"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="48" t="str">
+    <row r="40" spans="1:17" ht="14.25">
+      <c r="A40" s="104" t="s">
+        <v>251</v>
+      </c>
+      <c r="B40" s="224" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="225"/>
+      <c r="D40" s="103">
+        <v>3500000</v>
+      </c>
+      <c r="E40" s="108" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="48">
         <f t="shared" ref="F40:F80" si="1">IF(E40="Decreases", -D40,IF(E40="Increases", D40,"0.00"))</f>
-        <v>0.00</v>
+        <v>3500000</v>
       </c>
       <c r="G40" s="49">
         <f>IF(H39="#N/A",0,D40*H40)</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="78" t="str">
+        <v>3500000</v>
+      </c>
+      <c r="H40" s="78">
         <f>IFERROR(VLOOKUP(B40,'Trans. Type Definitions'!$B$1:$E$36,4,FALSE), "0")</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="50" t="e">
+        <v>1</v>
+      </c>
+      <c r="I40" s="50" t="str">
         <f>VLOOKUP(B40,'Trans. Type Definitions'!$B$1:$C$36,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J40" s="50" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>Call</v>
+      </c>
+      <c r="J40" s="50">
+        <f t="shared" si="0"/>
+        <v>3500000</v>
       </c>
       <c r="K40" s="51"/>
     </row>
-    <row r="41" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="14.25">
       <c r="A41" s="104"/>
-      <c r="B41" s="180"/>
-      <c r="C41" s="181"/>
+      <c r="B41" s="224"/>
+      <c r="C41" s="225"/>
       <c r="D41" s="103"/>
       <c r="E41" s="108"/>
       <c r="F41" s="48" t="str">
@@ -4710,10 +5988,10 @@
       </c>
       <c r="K41" s="51"/>
     </row>
-    <row r="42" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="14.25">
       <c r="A42" s="104"/>
-      <c r="B42" s="180"/>
-      <c r="C42" s="181"/>
+      <c r="B42" s="224"/>
+      <c r="C42" s="225"/>
       <c r="D42" s="103"/>
       <c r="E42" s="108"/>
       <c r="F42" s="48" t="str">
@@ -4738,10 +6016,10 @@
       </c>
       <c r="K42" s="51"/>
     </row>
-    <row r="43" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="14.25">
       <c r="A43" s="104"/>
-      <c r="B43" s="180"/>
-      <c r="C43" s="181"/>
+      <c r="B43" s="224"/>
+      <c r="C43" s="225"/>
       <c r="D43" s="103"/>
       <c r="E43" s="108"/>
       <c r="F43" s="48" t="str">
@@ -4766,10 +6044,10 @@
       </c>
       <c r="K43" s="51"/>
     </row>
-    <row r="44" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="14.25">
       <c r="A44" s="104"/>
-      <c r="B44" s="180"/>
-      <c r="C44" s="181"/>
+      <c r="B44" s="224"/>
+      <c r="C44" s="225"/>
       <c r="D44" s="103"/>
       <c r="E44" s="108"/>
       <c r="F44" s="48" t="str">
@@ -4794,10 +6072,10 @@
       </c>
       <c r="K44" s="51"/>
     </row>
-    <row r="45" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="14.25">
       <c r="A45" s="104"/>
-      <c r="B45" s="180"/>
-      <c r="C45" s="181"/>
+      <c r="B45" s="224"/>
+      <c r="C45" s="225"/>
       <c r="D45" s="103"/>
       <c r="E45" s="108"/>
       <c r="F45" s="48" t="str">
@@ -4822,10 +6100,10 @@
       </c>
       <c r="K45" s="51"/>
     </row>
-    <row r="46" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="14.25">
       <c r="A46" s="104"/>
-      <c r="B46" s="180"/>
-      <c r="C46" s="181"/>
+      <c r="B46" s="224"/>
+      <c r="C46" s="225"/>
       <c r="D46" s="103"/>
       <c r="E46" s="108"/>
       <c r="F46" s="48" t="str">
@@ -4850,10 +6128,10 @@
       </c>
       <c r="K46" s="51"/>
     </row>
-    <row r="47" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="14.25">
       <c r="A47" s="104"/>
-      <c r="B47" s="180"/>
-      <c r="C47" s="181"/>
+      <c r="B47" s="224"/>
+      <c r="C47" s="225"/>
       <c r="D47" s="103"/>
       <c r="E47" s="108"/>
       <c r="F47" s="48" t="str">
@@ -4878,10 +6156,10 @@
       </c>
       <c r="K47" s="51"/>
     </row>
-    <row r="48" spans="1:17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="14.25">
       <c r="A48" s="104"/>
-      <c r="B48" s="180"/>
-      <c r="C48" s="181"/>
+      <c r="B48" s="224"/>
+      <c r="C48" s="225"/>
       <c r="D48" s="103"/>
       <c r="E48" s="108"/>
       <c r="F48" s="48" t="str">
@@ -4906,10 +6184,10 @@
       </c>
       <c r="K48" s="51"/>
     </row>
-    <row r="49" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="14.25">
       <c r="A49" s="104"/>
-      <c r="B49" s="180"/>
-      <c r="C49" s="181"/>
+      <c r="B49" s="224"/>
+      <c r="C49" s="225"/>
       <c r="D49" s="103"/>
       <c r="E49" s="108"/>
       <c r="F49" s="48" t="str">
@@ -4934,10 +6212,10 @@
       </c>
       <c r="K49" s="51"/>
     </row>
-    <row r="50" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="14.25">
       <c r="A50" s="104"/>
-      <c r="B50" s="180"/>
-      <c r="C50" s="181"/>
+      <c r="B50" s="224"/>
+      <c r="C50" s="225"/>
       <c r="D50" s="103"/>
       <c r="E50" s="108"/>
       <c r="F50" s="48" t="str">
@@ -4962,10 +6240,10 @@
       </c>
       <c r="K50" s="51"/>
     </row>
-    <row r="51" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="14.25">
       <c r="A51" s="104"/>
-      <c r="B51" s="180"/>
-      <c r="C51" s="181"/>
+      <c r="B51" s="224"/>
+      <c r="C51" s="225"/>
       <c r="D51" s="103"/>
       <c r="E51" s="108"/>
       <c r="F51" s="48" t="str">
@@ -4990,10 +6268,10 @@
       </c>
       <c r="K51" s="51"/>
     </row>
-    <row r="52" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="14.25">
       <c r="A52" s="104"/>
-      <c r="B52" s="180"/>
-      <c r="C52" s="181"/>
+      <c r="B52" s="224"/>
+      <c r="C52" s="225"/>
       <c r="D52" s="103"/>
       <c r="E52" s="108"/>
       <c r="F52" s="48" t="str">
@@ -5018,10 +6296,10 @@
       </c>
       <c r="K52" s="51"/>
     </row>
-    <row r="53" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="14.25">
       <c r="A53" s="104"/>
-      <c r="B53" s="180"/>
-      <c r="C53" s="181"/>
+      <c r="B53" s="224"/>
+      <c r="C53" s="225"/>
       <c r="D53" s="103"/>
       <c r="E53" s="108"/>
       <c r="F53" s="48" t="str">
@@ -5046,10 +6324,10 @@
       </c>
       <c r="K53" s="51"/>
     </row>
-    <row r="54" spans="1:18" s="53" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" s="53" customFormat="1" ht="14.25">
       <c r="A54" s="104"/>
-      <c r="B54" s="180"/>
-      <c r="C54" s="181"/>
+      <c r="B54" s="224"/>
+      <c r="C54" s="225"/>
       <c r="D54" s="103"/>
       <c r="E54" s="108"/>
       <c r="F54" s="48" t="str">
@@ -5079,10 +6357,10 @@
       <c r="O54" s="52"/>
       <c r="P54" s="52"/>
     </row>
-    <row r="55" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="14.25">
       <c r="A55" s="104"/>
-      <c r="B55" s="180"/>
-      <c r="C55" s="181"/>
+      <c r="B55" s="224"/>
+      <c r="C55" s="225"/>
       <c r="D55" s="103"/>
       <c r="E55" s="108"/>
       <c r="F55" s="48" t="str">
@@ -5112,10 +6390,10 @@
       <c r="O55" s="55"/>
       <c r="P55" s="54"/>
     </row>
-    <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="15" customHeight="1">
       <c r="A56" s="104"/>
-      <c r="B56" s="180"/>
-      <c r="C56" s="181"/>
+      <c r="B56" s="224"/>
+      <c r="C56" s="225"/>
       <c r="D56" s="103"/>
       <c r="E56" s="108"/>
       <c r="F56" s="48" t="str">
@@ -5145,10 +6423,10 @@
       <c r="O56" s="55"/>
       <c r="P56" s="54"/>
     </row>
-    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="15.75" customHeight="1">
       <c r="A57" s="104"/>
-      <c r="B57" s="180"/>
-      <c r="C57" s="181"/>
+      <c r="B57" s="224"/>
+      <c r="C57" s="225"/>
       <c r="D57" s="103"/>
       <c r="E57" s="108"/>
       <c r="F57" s="48" t="str">
@@ -5178,10 +6456,10 @@
       <c r="O57" s="55"/>
       <c r="P57" s="54"/>
     </row>
-    <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="15" customHeight="1">
       <c r="A58" s="104"/>
-      <c r="B58" s="180"/>
-      <c r="C58" s="181"/>
+      <c r="B58" s="224"/>
+      <c r="C58" s="225"/>
       <c r="D58" s="103"/>
       <c r="E58" s="108"/>
       <c r="F58" s="48" t="str">
@@ -5211,10 +6489,10 @@
       <c r="O58" s="55"/>
       <c r="P58" s="54"/>
     </row>
-    <row r="59" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="15" customHeight="1">
       <c r="A59" s="104"/>
-      <c r="B59" s="180"/>
-      <c r="C59" s="181"/>
+      <c r="B59" s="224"/>
+      <c r="C59" s="225"/>
       <c r="D59" s="103"/>
       <c r="E59" s="108"/>
       <c r="F59" s="48" t="str">
@@ -5244,10 +6522,10 @@
       <c r="O59" s="54"/>
       <c r="P59" s="54"/>
     </row>
-    <row r="60" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="14.25">
       <c r="A60" s="104"/>
-      <c r="B60" s="180"/>
-      <c r="C60" s="181"/>
+      <c r="B60" s="224"/>
+      <c r="C60" s="225"/>
       <c r="D60" s="103"/>
       <c r="E60" s="108"/>
       <c r="F60" s="48" t="str">
@@ -5277,10 +6555,10 @@
       <c r="O60" s="54"/>
       <c r="P60" s="54"/>
     </row>
-    <row r="61" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="12.75" customHeight="1">
       <c r="A61" s="104"/>
-      <c r="B61" s="180"/>
-      <c r="C61" s="181"/>
+      <c r="B61" s="224"/>
+      <c r="C61" s="225"/>
       <c r="D61" s="103"/>
       <c r="E61" s="108"/>
       <c r="F61" s="48" t="str">
@@ -5312,10 +6590,10 @@
       <c r="Q61" s="41"/>
       <c r="R61" s="41"/>
     </row>
-    <row r="62" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="15" customHeight="1">
       <c r="A62" s="104"/>
-      <c r="B62" s="180"/>
-      <c r="C62" s="181"/>
+      <c r="B62" s="224"/>
+      <c r="C62" s="225"/>
       <c r="D62" s="103"/>
       <c r="E62" s="108"/>
       <c r="F62" s="48" t="str">
@@ -5347,10 +6625,10 @@
       <c r="Q62" s="41"/>
       <c r="R62" s="41"/>
     </row>
-    <row r="63" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="14.25">
       <c r="A63" s="104"/>
-      <c r="B63" s="180"/>
-      <c r="C63" s="181"/>
+      <c r="B63" s="224"/>
+      <c r="C63" s="225"/>
       <c r="D63" s="103"/>
       <c r="E63" s="108"/>
       <c r="F63" s="48" t="str">
@@ -5382,10 +6660,10 @@
       <c r="Q63" s="41"/>
       <c r="R63" s="41"/>
     </row>
-    <row r="64" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="14.25">
       <c r="A64" s="104"/>
-      <c r="B64" s="180"/>
-      <c r="C64" s="181"/>
+      <c r="B64" s="224"/>
+      <c r="C64" s="225"/>
       <c r="D64" s="103"/>
       <c r="E64" s="108"/>
       <c r="F64" s="48" t="str">
@@ -5417,10 +6695,10 @@
       <c r="Q64" s="41"/>
       <c r="R64" s="41"/>
     </row>
-    <row r="65" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="14.25">
       <c r="A65" s="104"/>
-      <c r="B65" s="180"/>
-      <c r="C65" s="181"/>
+      <c r="B65" s="224"/>
+      <c r="C65" s="225"/>
       <c r="D65" s="103"/>
       <c r="E65" s="108"/>
       <c r="F65" s="48" t="str">
@@ -5451,10 +6729,10 @@
       <c r="P65" s="55"/>
       <c r="R65" s="56"/>
     </row>
-    <row r="66" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="14.25">
       <c r="A66" s="104"/>
-      <c r="B66" s="180"/>
-      <c r="C66" s="181"/>
+      <c r="B66" s="224"/>
+      <c r="C66" s="225"/>
       <c r="D66" s="103"/>
       <c r="E66" s="108"/>
       <c r="F66" s="48" t="str">
@@ -5485,10 +6763,10 @@
       <c r="P66" s="55"/>
       <c r="R66" s="11"/>
     </row>
-    <row r="67" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="12.75" customHeight="1">
       <c r="A67" s="104"/>
-      <c r="B67" s="180"/>
-      <c r="C67" s="181"/>
+      <c r="B67" s="224"/>
+      <c r="C67" s="225"/>
       <c r="D67" s="103"/>
       <c r="E67" s="108"/>
       <c r="F67" s="48" t="str">
@@ -5519,10 +6797,10 @@
       <c r="P67" s="54"/>
       <c r="R67" s="12"/>
     </row>
-    <row r="68" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="14.25">
       <c r="A68" s="104"/>
-      <c r="B68" s="180"/>
-      <c r="C68" s="181"/>
+      <c r="B68" s="224"/>
+      <c r="C68" s="225"/>
       <c r="D68" s="103"/>
       <c r="E68" s="108"/>
       <c r="F68" s="48" t="str">
@@ -5552,10 +6830,10 @@
       <c r="O68" s="54"/>
       <c r="P68" s="54"/>
     </row>
-    <row r="69" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="14.25">
       <c r="A69" s="104"/>
-      <c r="B69" s="180"/>
-      <c r="C69" s="181"/>
+      <c r="B69" s="224"/>
+      <c r="C69" s="225"/>
       <c r="D69" s="103"/>
       <c r="E69" s="108"/>
       <c r="F69" s="48" t="str">
@@ -5580,10 +6858,10 @@
       </c>
       <c r="K69" s="51"/>
     </row>
-    <row r="70" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="14.25">
       <c r="A70" s="104"/>
-      <c r="B70" s="180"/>
-      <c r="C70" s="181"/>
+      <c r="B70" s="224"/>
+      <c r="C70" s="225"/>
       <c r="D70" s="103"/>
       <c r="E70" s="108"/>
       <c r="F70" s="48" t="str">
@@ -5608,10 +6886,10 @@
       </c>
       <c r="K70" s="51"/>
     </row>
-    <row r="71" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="14.25">
       <c r="A71" s="104"/>
-      <c r="B71" s="180"/>
-      <c r="C71" s="181"/>
+      <c r="B71" s="224"/>
+      <c r="C71" s="225"/>
       <c r="D71" s="103"/>
       <c r="E71" s="108"/>
       <c r="F71" s="48" t="str">
@@ -5636,10 +6914,10 @@
       </c>
       <c r="K71" s="51"/>
     </row>
-    <row r="72" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="14.25">
       <c r="A72" s="104"/>
-      <c r="B72" s="180"/>
-      <c r="C72" s="181"/>
+      <c r="B72" s="224"/>
+      <c r="C72" s="225"/>
       <c r="D72" s="103"/>
       <c r="E72" s="108"/>
       <c r="F72" s="48" t="str">
@@ -5664,10 +6942,10 @@
       </c>
       <c r="K72" s="51"/>
     </row>
-    <row r="73" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="14.25">
       <c r="A73" s="104"/>
-      <c r="B73" s="180"/>
-      <c r="C73" s="181"/>
+      <c r="B73" s="224"/>
+      <c r="C73" s="225"/>
       <c r="D73" s="103"/>
       <c r="E73" s="108"/>
       <c r="F73" s="48" t="str">
@@ -5692,10 +6970,10 @@
       </c>
       <c r="K73" s="51"/>
     </row>
-    <row r="74" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="14.25">
       <c r="A74" s="104"/>
-      <c r="B74" s="180"/>
-      <c r="C74" s="181"/>
+      <c r="B74" s="224"/>
+      <c r="C74" s="225"/>
       <c r="D74" s="103"/>
       <c r="E74" s="108"/>
       <c r="F74" s="48" t="str">
@@ -5720,10 +6998,10 @@
       </c>
       <c r="K74" s="51"/>
     </row>
-    <row r="75" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="14.25">
       <c r="A75" s="104"/>
-      <c r="B75" s="180"/>
-      <c r="C75" s="181"/>
+      <c r="B75" s="224"/>
+      <c r="C75" s="225"/>
       <c r="D75" s="103"/>
       <c r="E75" s="108"/>
       <c r="F75" s="48" t="str">
@@ -5748,10 +7026,10 @@
       </c>
       <c r="K75" s="51"/>
     </row>
-    <row r="76" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="14.25">
       <c r="A76" s="104"/>
-      <c r="B76" s="180"/>
-      <c r="C76" s="181"/>
+      <c r="B76" s="224"/>
+      <c r="C76" s="225"/>
       <c r="D76" s="103"/>
       <c r="E76" s="108"/>
       <c r="F76" s="48" t="str">
@@ -5776,10 +7054,10 @@
       </c>
       <c r="K76" s="51"/>
     </row>
-    <row r="77" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="14.25">
       <c r="A77" s="104"/>
-      <c r="B77" s="180"/>
-      <c r="C77" s="181"/>
+      <c r="B77" s="224"/>
+      <c r="C77" s="225"/>
       <c r="D77" s="103"/>
       <c r="E77" s="108"/>
       <c r="F77" s="48" t="str">
@@ -5804,10 +7082,10 @@
       </c>
       <c r="K77" s="51"/>
     </row>
-    <row r="78" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" ht="14.25">
       <c r="A78" s="104"/>
-      <c r="B78" s="180"/>
-      <c r="C78" s="181"/>
+      <c r="B78" s="224"/>
+      <c r="C78" s="225"/>
       <c r="D78" s="103"/>
       <c r="E78" s="108"/>
       <c r="F78" s="48" t="str">
@@ -5832,10 +7110,10 @@
       </c>
       <c r="K78" s="51"/>
     </row>
-    <row r="79" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="14.25">
       <c r="A79" s="104"/>
-      <c r="B79" s="180"/>
-      <c r="C79" s="181"/>
+      <c r="B79" s="224"/>
+      <c r="C79" s="225"/>
       <c r="D79" s="103"/>
       <c r="E79" s="108"/>
       <c r="F79" s="48" t="str">
@@ -5860,10 +7138,10 @@
       </c>
       <c r="K79" s="51"/>
     </row>
-    <row r="80" spans="1:18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" ht="14.25">
       <c r="A80" s="104"/>
-      <c r="B80" s="180"/>
-      <c r="C80" s="181"/>
+      <c r="B80" s="224"/>
+      <c r="C80" s="225"/>
       <c r="D80" s="103"/>
       <c r="E80" s="108"/>
       <c r="F80" s="48" t="str">
@@ -5888,246 +7166,246 @@
       </c>
       <c r="K80" s="51"/>
     </row>
-    <row r="84" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="177" t="s">
-        <v>117</v>
-      </c>
-      <c r="B85" s="178"/>
-      <c r="C85" s="178"/>
-      <c r="D85" s="178"/>
-      <c r="E85" s="179"/>
-    </row>
-    <row r="86" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="13.5" thickBot="1"/>
+    <row r="85" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A85" s="248" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85" s="249"/>
+      <c r="C85" s="249"/>
+      <c r="D85" s="249"/>
+      <c r="E85" s="250"/>
+    </row>
+    <row r="86" spans="1:5" ht="13.5" thickBot="1">
       <c r="D86" s="40"/>
     </row>
-    <row r="87" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="167" t="s">
-        <v>156</v>
-      </c>
-      <c r="B87" s="168"/>
-      <c r="C87" s="168"/>
-      <c r="D87" s="168"/>
-      <c r="E87" s="169"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="13.5" thickBot="1">
+      <c r="A87" s="255" t="s">
+        <v>148</v>
+      </c>
+      <c r="B87" s="256"/>
+      <c r="C87" s="256"/>
+      <c r="D87" s="256"/>
+      <c r="E87" s="257"/>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="261"/>
+      <c r="C88" s="261"/>
+      <c r="D88" s="261"/>
+      <c r="E88" s="262"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="263"/>
+      <c r="C89" s="263"/>
+      <c r="D89" s="263"/>
+      <c r="E89" s="264"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="173"/>
-      <c r="C88" s="173"/>
-      <c r="D88" s="173"/>
-      <c r="E88" s="174"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="59" t="s">
+      <c r="B90" s="263"/>
+      <c r="C90" s="263"/>
+      <c r="D90" s="263"/>
+      <c r="E90" s="264"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="175"/>
-      <c r="C89" s="175"/>
-      <c r="D89" s="175"/>
-      <c r="E89" s="176"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="58" t="s">
+      <c r="B91" s="263"/>
+      <c r="C91" s="263"/>
+      <c r="D91" s="263"/>
+      <c r="E91" s="264"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="175"/>
-      <c r="C90" s="175"/>
-      <c r="D90" s="175"/>
-      <c r="E90" s="176"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="58" t="s">
+      <c r="B92" s="251"/>
+      <c r="C92" s="251"/>
+      <c r="D92" s="251"/>
+      <c r="E92" s="252"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="175"/>
-      <c r="C91" s="175"/>
-      <c r="D91" s="175"/>
-      <c r="E91" s="176"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" s="163"/>
-      <c r="C92" s="163"/>
-      <c r="D92" s="163"/>
-      <c r="E92" s="164"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="B93" s="163"/>
-      <c r="C93" s="163"/>
-      <c r="D93" s="163"/>
-      <c r="E93" s="164"/>
-    </row>
-    <row r="94" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="251"/>
+      <c r="C93" s="251"/>
+      <c r="D93" s="251"/>
+      <c r="E93" s="252"/>
+    </row>
+    <row r="94" spans="1:5" ht="13.5" thickBot="1">
       <c r="A94" s="65" t="s">
-        <v>157</v>
-      </c>
-      <c r="B94" s="165"/>
-      <c r="C94" s="165"/>
-      <c r="D94" s="165"/>
-      <c r="E94" s="166"/>
-    </row>
-    <row r="95" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="B94" s="253"/>
+      <c r="C94" s="253"/>
+      <c r="D94" s="253"/>
+      <c r="E94" s="254"/>
+    </row>
+    <row r="95" spans="1:5" ht="13.5" thickBot="1">
       <c r="B95" s="41"/>
       <c r="C95" s="41"/>
     </row>
-    <row r="96" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="167" t="s">
-        <v>158</v>
-      </c>
-      <c r="B96" s="168"/>
-      <c r="C96" s="168"/>
-      <c r="D96" s="168"/>
-      <c r="E96" s="169"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="13.5" thickBot="1">
+      <c r="A96" s="255" t="s">
+        <v>150</v>
+      </c>
+      <c r="B96" s="256"/>
+      <c r="C96" s="256"/>
+      <c r="D96" s="256"/>
+      <c r="E96" s="257"/>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B97" s="62" t="s">
+      <c r="D97" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C97" s="62" t="s">
+      <c r="E97" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D97" s="62" t="s">
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="58" t="s">
         <v>18</v>
-      </c>
-      <c r="E97" s="63" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="58" t="s">
-        <v>20</v>
       </c>
       <c r="B98" s="111"/>
       <c r="C98" s="111"/>
       <c r="D98" s="111"/>
       <c r="E98" s="112"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B99" s="113"/>
       <c r="C99" s="113"/>
       <c r="D99" s="113"/>
       <c r="E99" s="114"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B100" s="115"/>
       <c r="C100" s="113"/>
       <c r="D100" s="115"/>
       <c r="E100" s="116"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" s="58" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B101" s="115"/>
       <c r="C101" s="113"/>
       <c r="D101" s="115"/>
       <c r="E101" s="116"/>
     </row>
-    <row r="102" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="13.5" thickBot="1">
       <c r="A102" s="64" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B102" s="117"/>
       <c r="C102" s="118"/>
       <c r="D102" s="117"/>
       <c r="E102" s="119"/>
     </row>
-    <row r="103" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="13.5" thickBot="1">
       <c r="B103" s="41"/>
       <c r="C103" s="41"/>
     </row>
-    <row r="104" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="170" t="s">
-        <v>159</v>
-      </c>
-      <c r="B104" s="171"/>
-      <c r="C104" s="171"/>
-      <c r="D104" s="171"/>
-      <c r="E104" s="172"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="13.5" thickBot="1">
+      <c r="A104" s="258" t="s">
+        <v>151</v>
+      </c>
+      <c r="B104" s="259"/>
+      <c r="C104" s="259"/>
+      <c r="D104" s="259"/>
+      <c r="E104" s="260"/>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B105" s="120"/>
       <c r="C105" s="120"/>
       <c r="D105" s="120"/>
       <c r="E105" s="121"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B106" s="122"/>
       <c r="C106" s="122"/>
       <c r="D106" s="120"/>
       <c r="E106" s="123"/>
     </row>
-    <row r="107" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="13.5" thickBot="1">
       <c r="A107" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B107" s="124"/>
       <c r="C107" s="124"/>
       <c r="D107" s="118"/>
       <c r="E107" s="125"/>
     </row>
-    <row r="108" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="228" t="s">
-        <v>160</v>
-      </c>
-      <c r="B109" s="229"/>
-      <c r="C109" s="229"/>
-      <c r="D109" s="229"/>
-      <c r="E109" s="230"/>
-    </row>
-    <row r="110" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="13.5" thickBot="1"/>
+    <row r="109" spans="1:5" ht="15" thickBot="1">
+      <c r="A109" s="177" t="s">
+        <v>152</v>
+      </c>
+      <c r="B109" s="178"/>
+      <c r="C109" s="178"/>
+      <c r="D109" s="178"/>
+      <c r="E109" s="179"/>
+    </row>
+    <row r="110" spans="1:5" ht="14.45" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110" s="239"/>
-      <c r="C110" s="239"/>
-      <c r="D110" s="239"/>
-      <c r="E110" s="240"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="B110" s="187"/>
+      <c r="C110" s="187"/>
+      <c r="D110" s="187"/>
+      <c r="E110" s="188"/>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B111" s="126"/>
       <c r="C111" s="127"/>
       <c r="D111" s="128"/>
       <c r="E111" s="129"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B112" s="130"/>
       <c r="C112" s="127"/>
       <c r="D112" s="128"/>
       <c r="E112" s="129"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B113" s="94">
         <f>B112-B111</f>
@@ -6137,32 +7415,100 @@
       <c r="D113" s="88"/>
       <c r="E113" s="89"/>
     </row>
-    <row r="114" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="241" t="s">
-        <v>105</v>
-      </c>
-      <c r="B114" s="231"/>
-      <c r="C114" s="231"/>
-      <c r="D114" s="231"/>
-      <c r="E114" s="232"/>
-    </row>
-    <row r="115" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="242"/>
-      <c r="B115" s="233"/>
-      <c r="C115" s="233"/>
-      <c r="D115" s="233"/>
-      <c r="E115" s="234"/>
+    <row r="114" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A114" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="B114" s="180"/>
+      <c r="C114" s="180"/>
+      <c r="D114" s="180"/>
+      <c r="E114" s="181"/>
+    </row>
+    <row r="115" spans="1:5" ht="15" customHeight="1" thickBot="1">
+      <c r="A115" s="190"/>
+      <c r="B115" s="182"/>
+      <c r="C115" s="182"/>
+      <c r="D115" s="182"/>
+      <c r="E115" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="B114:E115"/>
     <mergeCell ref="D15:G15"/>
@@ -6179,94 +7525,27 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
+  <phoneticPr fontId="44" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C11" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C11">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39:C80" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39:C80">
       <formula1>TransactionType</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39:D80 B15:C15 B18:C20 B7:C8 B10:B11" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39:D80 B15:C15 B18:C20 B7:C8 B10:B11">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E39:E80" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E39:E80">
       <formula1>Inpact</formula1>
     </dataValidation>
   </dataValidations>
@@ -6287,833 +7566,797 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B44" sqref="B44:D44"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="142" customWidth="1"/>
-    <col min="2" max="2" width="58.77734375" style="85" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="85"/>
-    <col min="4" max="4" width="133.5546875" style="86" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" style="78" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" style="78" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="78"/>
+    <col min="1" max="1" width="3.5" style="142" customWidth="1"/>
+    <col min="2" max="2" width="48.875" style="85" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="85" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.75" style="86" customWidth="1"/>
+    <col min="5" max="5" width="5.875" style="78" customWidth="1"/>
+    <col min="6" max="6" width="12" style="78" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15">
       <c r="B1" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="92" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="92" t="s">
-        <v>27</v>
       </c>
       <c r="E1" s="79"/>
       <c r="F1" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="80"/>
-      <c r="H1" s="81"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G1" s="81"/>
+    </row>
+    <row r="2" spans="1:7" ht="25.5">
       <c r="A2" s="142">
         <v>1</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="140" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="72" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="F2" s="105" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="82"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G2" s="82"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="142">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="72" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" s="140" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="72" t="s">
-        <v>31</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="80"/>
-    </row>
-    <row r="4" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G3" s="80"/>
+    </row>
+    <row r="4" spans="1:7" ht="25.5">
       <c r="A4" s="142">
         <f t="shared" ref="A4:A36" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C4" s="140" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E4" s="67">
         <v>1</v>
       </c>
       <c r="F4" s="106" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="80"/>
-    </row>
-    <row r="5" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G4" s="80"/>
+    </row>
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="142">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C5" s="140" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E5" s="67">
         <v>1</v>
       </c>
       <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="80"/>
-    </row>
-    <row r="6" spans="1:8" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="80"/>
+    </row>
+    <row r="6" spans="1:7" s="83" customFormat="1">
       <c r="A6" s="142">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="140" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" s="70">
         <v>1</v>
       </c>
       <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="84"/>
-    </row>
-    <row r="7" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="G6" s="84"/>
+    </row>
+    <row r="7" spans="1:7" ht="25.5">
       <c r="A7" s="142">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="158" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C7" s="159" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="160" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="80"/>
-    </row>
-    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="G7" s="80"/>
+    </row>
+    <row r="8" spans="1:7" ht="38.25">
       <c r="A8" s="142">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="158" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C8" s="159" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="160" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="80"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="80"/>
+    </row>
+    <row r="9" spans="1:7" ht="25.5">
       <c r="A9" s="142">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="158" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C9" s="159" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="160" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="80"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" s="80"/>
+    </row>
+    <row r="10" spans="1:7" ht="25.5">
       <c r="A10" s="142">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="158" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C10" s="159" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="160" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="80"/>
-    </row>
-    <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="G10" s="80"/>
+    </row>
+    <row r="11" spans="1:7" ht="76.5">
       <c r="A11" s="142">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="158" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C11" s="159" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="160" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
       </c>
       <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="80"/>
-    </row>
-    <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="G11" s="80"/>
+    </row>
+    <row r="12" spans="1:7" ht="38.25">
       <c r="A12" s="142">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="158" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C12" s="159" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="160" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="80"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="80"/>
+    </row>
+    <row r="13" spans="1:7" ht="25.5">
       <c r="A13" s="142">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="158" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C13" s="159" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="160" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="80"/>
-    </row>
-    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="G13" s="80"/>
+    </row>
+    <row r="14" spans="1:7" ht="38.25">
       <c r="A14" s="142">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="158" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C14" s="159" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="160" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
       <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="80"/>
-    </row>
-    <row r="15" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="G14" s="80"/>
+    </row>
+    <row r="15" spans="1:7" ht="38.25">
       <c r="A15" s="142">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="158" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C15" s="159" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="160" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="80"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="80"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="142">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="C16" s="140" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E16" s="67">
         <v>1</v>
       </c>
       <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="80"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="80"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="142">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>37</v>
+        <v>241</v>
       </c>
       <c r="C17" s="140" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
       </c>
       <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="80"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="80"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="142">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="76" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="73" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E18" s="67">
         <v>1</v>
       </c>
       <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="80"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="80"/>
+    </row>
+    <row r="19" spans="1:7" ht="25.5">
       <c r="A19" s="142">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>57</v>
+        <v>242</v>
       </c>
       <c r="C19" s="140" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
       </c>
       <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="80"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="80"/>
+    </row>
+    <row r="20" spans="1:7" ht="25.5">
       <c r="A20" s="142">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>59</v>
+        <v>243</v>
       </c>
       <c r="C20" s="140" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D20" s="72" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E20" s="4">
         <v>-1</v>
       </c>
       <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="80"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="80"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="142">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>55</v>
+        <v>244</v>
       </c>
       <c r="C21" s="140" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E21" s="4">
         <v>-1</v>
       </c>
       <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="80"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="80"/>
+    </row>
+    <row r="22" spans="1:7" ht="25.5">
       <c r="A22" s="142">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="75" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C22" s="140" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D22" s="72" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E22" s="4">
         <v>-1</v>
       </c>
       <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="80"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="80"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="142">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="75" t="s">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="C23" s="140" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E23" s="4">
         <v>-1</v>
       </c>
       <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="80"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="80"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="142">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="75" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C24" s="140" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D24" s="72" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E24" s="4">
         <v>-1</v>
       </c>
       <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="80"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="80"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="142">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="75" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C25" s="140" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D25" s="72" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
       </c>
       <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="80"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="80"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="142">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="75" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C26" s="140" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D26" s="72" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
       </c>
       <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="80"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="80"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="142">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="75" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C27" s="140" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D27" s="72" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E27" s="5">
         <v>-1</v>
       </c>
       <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="142">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="76" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C28" s="76" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D28" s="73" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E28" s="69">
         <v>-1</v>
       </c>
       <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-    </row>
-    <row r="29" spans="1:8" s="135" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" s="135" customFormat="1">
       <c r="A29" s="151">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="131" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C29" s="131" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D29" s="132" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E29" s="133">
         <v>-1</v>
       </c>
       <c r="F29" s="134"/>
-      <c r="G29" s="134"/>
-    </row>
-    <row r="30" spans="1:8" s="135" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" s="135" customFormat="1">
       <c r="A30" s="151">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="136" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C30" s="141" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D30" s="137" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E30" s="138">
         <v>-1</v>
       </c>
       <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-    </row>
-    <row r="31" spans="1:8" s="135" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" s="135" customFormat="1">
       <c r="A31" s="151">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="136" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C31" s="141" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D31" s="137" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E31" s="138">
         <v>-1</v>
       </c>
       <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-    </row>
-    <row r="32" spans="1:8" s="135" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" s="135" customFormat="1">
       <c r="A32" s="151">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="136" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C32" s="141" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D32" s="137" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E32" s="138">
         <v>-1</v>
       </c>
       <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
-    </row>
-    <row r="33" spans="1:7" s="135" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" s="135" customFormat="1">
       <c r="A33" s="151">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="254" t="s">
-        <v>175</v>
-      </c>
-      <c r="C33" s="255" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="256" t="s">
-        <v>178</v>
+      <c r="B33" s="163" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" s="164" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="165" t="s">
+        <v>169</v>
       </c>
       <c r="E33" s="138">
         <v>1</v>
       </c>
       <c r="F33" s="134"/>
-      <c r="G33" s="134"/>
-    </row>
-    <row r="34" spans="1:7" s="135" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" s="135" customFormat="1">
       <c r="A34" s="151">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="131" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C34" s="131" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D34" s="132" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E34" s="133">
         <v>-1</v>
       </c>
       <c r="F34" s="134"/>
-      <c r="G34" s="134"/>
-    </row>
-    <row r="35" spans="1:7" s="135" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" s="135" customFormat="1">
       <c r="A35" s="151">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="131" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C35" s="131" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D35" s="132" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E35" s="133">
         <v>-1</v>
       </c>
       <c r="F35" s="134"/>
-      <c r="G35" s="134"/>
-    </row>
-    <row r="36" spans="1:7" s="135" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" s="135" customFormat="1">
       <c r="A36" s="151">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="136" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C36" s="141" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D36" s="137" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E36" s="138">
         <v>-1</v>
       </c>
       <c r="F36" s="134"/>
-      <c r="G36" s="134"/>
-    </row>
-    <row r="38" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:6" s="85" customFormat="1" ht="15">
       <c r="A38" s="142"/>
       <c r="B38" s="139" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D38" s="143"/>
     </row>
-    <row r="39" spans="1:7" s="85" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="85" customFormat="1" ht="14.45" customHeight="1">
       <c r="A39" s="142"/>
-      <c r="B39" s="253" t="s">
-        <v>170</v>
-      </c>
-      <c r="C39" s="253"/>
-      <c r="D39" s="253"/>
-    </row>
-    <row r="40" spans="1:7" s="85" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B39" s="265" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="265"/>
+      <c r="D39" s="265"/>
+    </row>
+    <row r="40" spans="1:6" s="85" customFormat="1" ht="15">
       <c r="A40" s="142"/>
       <c r="B40" s="85" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="85" customFormat="1">
       <c r="A41" s="142"/>
       <c r="B41" s="85" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D41" s="143"/>
     </row>
-    <row r="42" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="85" customFormat="1">
       <c r="A42" s="142"/>
       <c r="D42" s="143"/>
     </row>
-    <row r="43" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="85" customFormat="1" ht="15">
       <c r="A43" s="142"/>
       <c r="B43" s="139" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D43" s="143"/>
     </row>
-    <row r="44" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="85" customFormat="1">
       <c r="A44" s="142"/>
-      <c r="B44" s="253" t="s">
-        <v>177</v>
-      </c>
-      <c r="C44" s="253"/>
-      <c r="D44" s="253"/>
-    </row>
-    <row r="45" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="265" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="265"/>
+      <c r="D44" s="265"/>
+    </row>
+    <row r="45" spans="1:6" s="85" customFormat="1">
       <c r="A45" s="142"/>
       <c r="D45" s="143"/>
     </row>
-    <row r="46" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="85" customFormat="1">
       <c r="A46" s="142"/>
       <c r="D46" s="143"/>
     </row>
-    <row r="47" spans="1:7" s="85" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" s="85" customFormat="1">
       <c r="A47" s="142"/>
       <c r="D47" s="143"/>
     </row>
@@ -7125,6 +8368,1036 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B44:D44"/>
   </mergeCells>
+  <phoneticPr fontId="44" type="noConversion"/>
+  <pageMargins left="0.2" right="0.2" top="1.25" bottom="0.75" header="0.2" footer="0.3"/>
+  <pageSetup scale="66" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;G&amp;C&amp;"Arial,Regular"ILPA Capital Call &amp; Distribution Notice Template
+Definitions</oddHeader>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I47"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="142" customWidth="1"/>
+    <col min="2" max="2" width="48.875" style="85" customWidth="1"/>
+    <col min="3" max="3" width="31.125" style="85" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="85" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.75" style="86" customWidth="1"/>
+    <col min="6" max="6" width="5.875" style="78" customWidth="1"/>
+    <col min="7" max="7" width="12" style="78" customWidth="1"/>
+    <col min="8" max="8" width="65.125" style="78" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="78"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1">
+      <c r="B1" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="79"/>
+      <c r="G1" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="80"/>
+      <c r="I1" s="81"/>
+    </row>
+    <row r="2" spans="1:9" ht="26.25" thickBot="1">
+      <c r="A2" s="142">
+        <v>1</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="171" t="s">
+        <v>188</v>
+      </c>
+      <c r="I2" s="82"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1">
+      <c r="A3" s="142">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="106" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="171" t="s">
+        <v>189</v>
+      </c>
+      <c r="I3" s="80"/>
+    </row>
+    <row r="4" spans="1:9" ht="26.25" thickBot="1">
+      <c r="A4" s="142">
+        <f t="shared" ref="A4:A36" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="67">
+        <v>1</v>
+      </c>
+      <c r="G4" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="171" t="s">
+        <v>190</v>
+      </c>
+      <c r="I4" s="80"/>
+    </row>
+    <row r="5" spans="1:9" ht="26.25" thickBot="1">
+      <c r="A5" s="142">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="67">
+        <v>1</v>
+      </c>
+      <c r="G5" s="66"/>
+      <c r="H5" s="171" t="s">
+        <v>191</v>
+      </c>
+      <c r="I5" s="80"/>
+    </row>
+    <row r="6" spans="1:9" s="83" customFormat="1" ht="15" thickBot="1">
+      <c r="A6" s="142">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="70">
+        <v>1</v>
+      </c>
+      <c r="G6" s="71"/>
+      <c r="H6" s="171" t="s">
+        <v>192</v>
+      </c>
+      <c r="I6" s="84"/>
+    </row>
+    <row r="7" spans="1:9" ht="26.25" thickBot="1">
+      <c r="A7" s="142">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="158" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="158" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="160" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="66"/>
+      <c r="H7" s="172" t="s">
+        <v>193</v>
+      </c>
+      <c r="I7" s="80"/>
+    </row>
+    <row r="8" spans="1:9" ht="39" thickBot="1">
+      <c r="A8" s="142">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="158" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="158" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="160" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="66"/>
+      <c r="H8" s="172" t="s">
+        <v>194</v>
+      </c>
+      <c r="I8" s="80"/>
+    </row>
+    <row r="9" spans="1:9" ht="26.25" thickBot="1">
+      <c r="A9" s="142">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="158" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="158" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="160" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="66"/>
+      <c r="H9" s="172" t="s">
+        <v>195</v>
+      </c>
+      <c r="I9" s="80"/>
+    </row>
+    <row r="10" spans="1:9" ht="26.25" thickBot="1">
+      <c r="A10" s="142">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="158" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="158" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="160" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="66"/>
+      <c r="H10" s="172" t="s">
+        <v>196</v>
+      </c>
+      <c r="I10" s="80"/>
+    </row>
+    <row r="11" spans="1:9" ht="77.25" thickBot="1">
+      <c r="A11" s="142">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="158" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="158" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="160" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="66"/>
+      <c r="H11" s="172" t="s">
+        <v>197</v>
+      </c>
+      <c r="I11" s="80"/>
+    </row>
+    <row r="12" spans="1:9" ht="39" thickBot="1">
+      <c r="A12" s="142">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="158" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="158" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="160" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="66"/>
+      <c r="H12" s="172" t="s">
+        <v>198</v>
+      </c>
+      <c r="I12" s="80"/>
+    </row>
+    <row r="13" spans="1:9" ht="26.25" thickBot="1">
+      <c r="A13" s="142">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="158" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="158" t="s">
+        <v>247</v>
+      </c>
+      <c r="D13" s="159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="160" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="66"/>
+      <c r="H13" s="172" t="s">
+        <v>199</v>
+      </c>
+      <c r="I13" s="80"/>
+    </row>
+    <row r="14" spans="1:9" ht="39" thickBot="1">
+      <c r="A14" s="142">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="158" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="158" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="160" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="66"/>
+      <c r="H14" s="172" t="s">
+        <v>200</v>
+      </c>
+      <c r="I14" s="80"/>
+    </row>
+    <row r="15" spans="1:9" ht="39" thickBot="1">
+      <c r="A15" s="142">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="158" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="266" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="160" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="66"/>
+      <c r="H15" s="172" t="s">
+        <v>201</v>
+      </c>
+      <c r="I15" s="80"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1">
+      <c r="A16" s="142">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="67">
+        <v>1</v>
+      </c>
+      <c r="G16" s="66"/>
+      <c r="H16" s="171" t="s">
+        <v>202</v>
+      </c>
+      <c r="I16" s="80"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1">
+      <c r="A17" s="142">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="66"/>
+      <c r="H17" s="171" t="s">
+        <v>203</v>
+      </c>
+      <c r="I17" s="80"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1">
+      <c r="A18" s="142">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="76" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="67">
+        <v>1</v>
+      </c>
+      <c r="G18" s="66"/>
+      <c r="H18" s="171" t="s">
+        <v>204</v>
+      </c>
+      <c r="I18" s="80"/>
+    </row>
+    <row r="19" spans="1:9" ht="26.25" thickBot="1">
+      <c r="A19" s="142">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="C19" s="166" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="66"/>
+      <c r="H19" s="171" t="s">
+        <v>205</v>
+      </c>
+      <c r="I19" s="80"/>
+    </row>
+    <row r="20" spans="1:9" ht="26.25" thickBot="1">
+      <c r="A20" s="142">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" s="166" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="66"/>
+      <c r="H20" s="171" t="s">
+        <v>206</v>
+      </c>
+      <c r="I20" s="80"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1">
+      <c r="A21" s="142">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="75" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="166" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="66"/>
+      <c r="H21" s="171" t="s">
+        <v>207</v>
+      </c>
+      <c r="I21" s="80"/>
+    </row>
+    <row r="22" spans="1:9" ht="26.25" thickBot="1">
+      <c r="A22" s="142">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="166" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="66"/>
+      <c r="H22" s="171" t="s">
+        <v>208</v>
+      </c>
+      <c r="I22" s="80"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1">
+      <c r="A23" s="142">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="75" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="166" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="66"/>
+      <c r="H23" s="171" t="s">
+        <v>209</v>
+      </c>
+      <c r="I23" s="80"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1">
+      <c r="A24" s="142">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="166" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="66"/>
+      <c r="H24" s="171" t="s">
+        <v>210</v>
+      </c>
+      <c r="I24" s="80"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickBot="1">
+      <c r="A25" s="142">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="166" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="66"/>
+      <c r="H25" s="171" t="s">
+        <v>211</v>
+      </c>
+      <c r="I25" s="80"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" thickBot="1">
+      <c r="A26" s="142">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="166" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="66"/>
+      <c r="H26" s="171" t="s">
+        <v>212</v>
+      </c>
+      <c r="I26" s="80"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" thickBot="1">
+      <c r="A27" s="142">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="166" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G27" s="68"/>
+      <c r="H27" s="171" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" thickBot="1">
+      <c r="A28" s="142">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="167" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="69">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="68"/>
+      <c r="H28" s="171" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="135" customFormat="1" ht="15" thickBot="1">
+      <c r="A29" s="151">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="131" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="168" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="131" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="132" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="133">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="134"/>
+      <c r="H29" s="173" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="135" customFormat="1" ht="15" thickBot="1">
+      <c r="A30" s="151">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="136" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="169" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="141" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="137" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="138">
+        <v>-1</v>
+      </c>
+      <c r="G30" s="134"/>
+      <c r="H30" s="173" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="135" customFormat="1" ht="15" thickBot="1">
+      <c r="A31" s="151">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="136" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="169" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="141" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="137" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="138">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="134"/>
+      <c r="H31" s="173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="135" customFormat="1" ht="15" thickBot="1">
+      <c r="A32" s="151">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="136" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="169" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="141" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="137" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="138">
+        <v>-1</v>
+      </c>
+      <c r="G32" s="134"/>
+      <c r="H32" s="173" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="135" customFormat="1" ht="15" thickBot="1">
+      <c r="A33" s="151">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="163" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" s="170" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="164" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="165" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="138">
+        <v>1</v>
+      </c>
+      <c r="G33" s="134"/>
+      <c r="H33" s="174" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="135" customFormat="1" ht="15" thickBot="1">
+      <c r="A34" s="151">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="131" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="168" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="131" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="132" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="133">
+        <v>-1</v>
+      </c>
+      <c r="G34" s="134"/>
+      <c r="H34" s="173" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="135" customFormat="1" ht="15" thickBot="1">
+      <c r="A35" s="151">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="131" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="168" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="131" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="132" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="133">
+        <v>-1</v>
+      </c>
+      <c r="G35" s="134"/>
+      <c r="H35" s="173" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="135" customFormat="1" ht="15" thickBot="1">
+      <c r="A36" s="151">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="136" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="169" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="141" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="137" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="138">
+        <v>-1</v>
+      </c>
+      <c r="G36" s="134"/>
+      <c r="H36" s="173" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="85" customFormat="1" ht="15">
+      <c r="A38" s="142"/>
+      <c r="B38" s="139" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="139"/>
+      <c r="E38" s="143"/>
+    </row>
+    <row r="39" spans="1:8" s="85" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A39" s="142"/>
+      <c r="B39" s="265" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="265"/>
+      <c r="D39" s="265"/>
+      <c r="E39" s="265"/>
+    </row>
+    <row r="40" spans="1:8" s="85" customFormat="1" ht="15">
+      <c r="A40" s="142"/>
+      <c r="B40" s="85" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="85" customFormat="1">
+      <c r="A41" s="142"/>
+      <c r="B41" s="85" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="143"/>
+    </row>
+    <row r="42" spans="1:8" s="85" customFormat="1">
+      <c r="A42" s="142"/>
+      <c r="E42" s="143"/>
+    </row>
+    <row r="43" spans="1:8" s="85" customFormat="1" ht="15">
+      <c r="A43" s="142"/>
+      <c r="B43" s="139" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="139"/>
+      <c r="E43" s="143"/>
+    </row>
+    <row r="44" spans="1:8" s="85" customFormat="1">
+      <c r="A44" s="142"/>
+      <c r="B44" s="265" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="265"/>
+      <c r="D44" s="265"/>
+      <c r="E44" s="265"/>
+    </row>
+    <row r="45" spans="1:8" s="85" customFormat="1">
+      <c r="A45" s="142"/>
+      <c r="E45" s="143"/>
+    </row>
+    <row r="46" spans="1:8" s="85" customFormat="1">
+      <c r="A46" s="142"/>
+      <c r="E46" s="143"/>
+    </row>
+    <row r="47" spans="1:8" s="85" customFormat="1">
+      <c r="A47" s="142"/>
+      <c r="E47" s="143"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B44:E44"/>
+  </mergeCells>
+  <phoneticPr fontId="44" type="noConversion"/>
   <pageMargins left="0.2" right="0.2" top="1.25" bottom="0.75" header="0.2" footer="0.3"/>
   <pageSetup scale="66" orientation="landscape" r:id="rId1"/>
   <headerFooter>

--- a/ilpa/ILPA-Best-Practices-Capital-Call-and-Distribution-Notice-Template-v1.2.xlsx
+++ b/ilpa/ILPA-Best-Practices-Capital-Call-and-Distribution-Notice-Template-v1.2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10860" windowHeight="10860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10860" windowHeight="10860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="257">
   <si>
     <t>Impact on Unfunded Balance (Current Notice)</t>
   </si>
@@ -2469,9 +2469,6 @@
     <phoneticPr fontId="44" type="noConversion"/>
   </si>
   <si>
-    <t>缴款： GP的贡献</t>
-  </si>
-  <si>
     <t>缴款： 投资</t>
   </si>
   <si>
@@ -2479,9 +2476,6 @@
   </si>
   <si>
     <t>缴款： 管理费 (外部承诺)</t>
-  </si>
-  <si>
-    <t>缴款： 合作伙伴费用</t>
   </si>
   <si>
     <t>缴款： 合伙企业开支–会计、行政和 IT</t>
@@ -2725,6 +2719,107 @@
   </si>
   <si>
     <t>AAA</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>Call: Deemed GP Contribution</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缴款：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特指GP缴款</t>
+    </r>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>Call: Management Fee (inside commitment)</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>Call: Management Fee (outside commitment)</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <t>Call: Partnership Expenses</t>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缴款：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合作伙伴费用</t>
+    </r>
+    <phoneticPr fontId="44" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>▪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Added new transaction type for tax withheld (in red text)</t>
+    </r>
     <phoneticPr fontId="44" type="noConversion"/>
   </si>
 </sst>
@@ -4216,362 +4311,362 @@
     <xf numFmtId="0" fontId="43" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="18" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="18" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="30" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="30" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="30" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="30" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="30" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="38" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="12" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="39" fontId="18" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="18" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="30" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4619,7 +4714,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4675,6 +4770,163 @@
             </a:rPr>
             <a:t>Please note, the side-calculation section is intended to be less structured than the main section of the Template. Unlike the main section, users are encouraged to modify the labels/rows/columns in this section to more accurately describe their fee and waterfall calculations (see 2.24-2.27), as well as any revisions to a prior period balance that was stated in a previous Notice (see 2.28).</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>请注意</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>与模板的主要部分相比</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>边计算部分的结构要小一些。与主要部分不同的是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>鼓励用户修改本节中的 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>labels/rows </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>列</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>以便更准确地描述他们的费用和瀑布计算 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>见 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2.24-2.27), </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>以及在以前的通知中对前期余额的任何修订 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>见 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2.24-2.27) (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>见 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2.28)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5102,11 +5354,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R115"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33:C33"/>
+      <selection pane="bottomRight" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75"/>
@@ -5130,11 +5382,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="231" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="206"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="233"/>
       <c r="D1" s="6"/>
       <c r="E1" s="109" t="s">
         <v>67</v>
@@ -5154,10 +5406,10 @@
       <c r="A2" s="147" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="234" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="208"/>
+      <c r="C2" s="235"/>
       <c r="D2" s="161" t="s">
         <v>69</v>
       </c>
@@ -5172,11 +5424,11 @@
       <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A3" s="209" t="s">
+      <c r="A3" s="236" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="210"/>
-      <c r="C3" s="211"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="238"/>
       <c r="D3" s="154"/>
       <c r="E3" s="152"/>
       <c r="F3" s="154"/>
@@ -5192,15 +5444,15 @@
       <c r="A4" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="212">
+      <c r="B4" s="239">
         <v>42527</v>
       </c>
-      <c r="C4" s="213"/>
-      <c r="D4" s="175" t="s">
+      <c r="C4" s="240"/>
+      <c r="D4" s="265" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="248"/>
       <c r="G4" s="154"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -5213,15 +5465,15 @@
       <c r="A5" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="202">
+      <c r="B5" s="227">
         <v>42541</v>
       </c>
-      <c r="C5" s="203"/>
-      <c r="D5" s="175" t="s">
+      <c r="C5" s="228"/>
+      <c r="D5" s="265" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
       <c r="G5" s="154"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -5234,15 +5486,15 @@
       <c r="A6" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="202" t="s">
+      <c r="B6" s="227" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="203"/>
-      <c r="D6" s="175" t="s">
+      <c r="C6" s="228"/>
+      <c r="D6" s="265" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
       <c r="G6" s="154"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -5255,15 +5507,15 @@
       <c r="A7" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="214">
+      <c r="B7" s="222">
         <v>1000000</v>
       </c>
-      <c r="C7" s="215"/>
-      <c r="D7" s="175" t="s">
+      <c r="C7" s="223"/>
+      <c r="D7" s="265" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="248"/>
       <c r="G7" s="154"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -5276,15 +5528,15 @@
       <c r="A8" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="214">
+      <c r="B8" s="222">
         <v>1000000000</v>
       </c>
-      <c r="C8" s="215"/>
-      <c r="D8" s="175" t="s">
+      <c r="C8" s="223"/>
+      <c r="D8" s="265" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
       <c r="G8" s="154"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -5295,10 +5547,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="149" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C9" s="150" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D9" s="155"/>
       <c r="E9" s="156"/>
@@ -5318,11 +5570,11 @@
       <c r="C10" s="99">
         <v>-10000000</v>
       </c>
-      <c r="D10" s="175" t="s">
+      <c r="D10" s="265" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="176"/>
-      <c r="F10" s="176"/>
+      <c r="E10" s="248"/>
+      <c r="F10" s="248"/>
       <c r="G10" s="156"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -5338,11 +5590,11 @@
       <c r="C11" s="101">
         <v>0</v>
       </c>
-      <c r="D11" s="175" t="s">
+      <c r="D11" s="265" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="176"/>
-      <c r="F11" s="176"/>
+      <c r="E11" s="248"/>
+      <c r="F11" s="248"/>
       <c r="G11" s="156"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -5369,11 +5621,11 @@
       <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A13" s="216" t="s">
+      <c r="A13" s="224" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="217"/>
-      <c r="C13" s="218"/>
+      <c r="B13" s="225"/>
+      <c r="C13" s="226"/>
       <c r="D13" s="155"/>
       <c r="E13" s="156"/>
       <c r="F13" s="156"/>
@@ -5386,16 +5638,16 @@
       <c r="A14" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="202" t="s">
+      <c r="B14" s="227" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="203"/>
-      <c r="D14" s="176" t="s">
+      <c r="C14" s="228"/>
+      <c r="D14" s="248" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="176"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
+      <c r="E14" s="248"/>
+      <c r="F14" s="248"/>
+      <c r="G14" s="248"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -5407,16 +5659,16 @@
       <c r="A15" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="219">
+      <c r="B15" s="229">
         <v>50000000</v>
       </c>
-      <c r="C15" s="220"/>
-      <c r="D15" s="176" t="s">
+      <c r="C15" s="230"/>
+      <c r="D15" s="248" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="176"/>
+      <c r="E15" s="248"/>
+      <c r="F15" s="248"/>
+      <c r="G15" s="248"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -5428,11 +5680,11 @@
       <c r="A16" s="146" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="196">
+      <c r="B16" s="261">
         <f>IF(B8=0,0,B15/B8)</f>
         <v>0.05</v>
       </c>
-      <c r="C16" s="197"/>
+      <c r="C16" s="262"/>
       <c r="D16" s="162"/>
       <c r="E16" s="157"/>
       <c r="F16" s="157"/>
@@ -5448,16 +5700,16 @@
       <c r="A17" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="198">
+      <c r="B17" s="263">
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="C17" s="199"/>
-      <c r="D17" s="184" t="s">
+      <c r="C17" s="264"/>
+      <c r="D17" s="249" t="s">
         <v>166</v>
       </c>
-      <c r="E17" s="185"/>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
+      <c r="E17" s="250"/>
+      <c r="F17" s="250"/>
+      <c r="G17" s="250"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
@@ -5469,16 +5721,16 @@
       <c r="A18" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="200">
+      <c r="B18" s="195">
         <v>47500000</v>
       </c>
-      <c r="C18" s="201"/>
-      <c r="D18" s="185" t="s">
+      <c r="C18" s="196"/>
+      <c r="D18" s="250" t="s">
         <v>157</v>
       </c>
-      <c r="E18" s="185"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="185"/>
+      <c r="E18" s="250"/>
+      <c r="F18" s="250"/>
+      <c r="G18" s="250"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
@@ -5490,16 +5742,16 @@
       <c r="A19" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B19" s="200">
+      <c r="B19" s="195">
         <v>2500000</v>
       </c>
-      <c r="C19" s="201"/>
-      <c r="D19" s="185" t="s">
+      <c r="C19" s="196"/>
+      <c r="D19" s="250" t="s">
         <v>158</v>
       </c>
-      <c r="E19" s="185"/>
-      <c r="F19" s="185"/>
-      <c r="G19" s="185"/>
+      <c r="E19" s="250"/>
+      <c r="F19" s="250"/>
+      <c r="G19" s="250"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
@@ -5511,16 +5763,16 @@
       <c r="A20" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="200">
+      <c r="B20" s="195">
         <v>500000</v>
       </c>
-      <c r="C20" s="201"/>
-      <c r="D20" s="185" t="s">
+      <c r="C20" s="196"/>
+      <c r="D20" s="250" t="s">
         <v>159</v>
       </c>
-      <c r="E20" s="185"/>
-      <c r="F20" s="185"/>
-      <c r="G20" s="185"/>
+      <c r="E20" s="250"/>
+      <c r="F20" s="250"/>
+      <c r="G20" s="250"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
@@ -5529,11 +5781,11 @@
       <c r="O20" s="9"/>
     </row>
     <row r="21" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A21" s="221" t="s">
+      <c r="A21" s="197" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="222"/>
-      <c r="C21" s="223"/>
+      <c r="B21" s="198"/>
+      <c r="C21" s="199"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
@@ -5546,11 +5798,11 @@
       <c r="O21" s="9"/>
     </row>
     <row r="22" spans="1:15" s="8" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A22" s="191" t="s">
+      <c r="A22" s="256" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="192"/>
-      <c r="C22" s="193"/>
+      <c r="B22" s="257"/>
+      <c r="C22" s="258"/>
       <c r="D22" s="24"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
@@ -5566,11 +5818,11 @@
       <c r="A23" s="144" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="194">
+      <c r="B23" s="259">
         <f>B18</f>
         <v>47500000</v>
       </c>
-      <c r="C23" s="195"/>
+      <c r="C23" s="260"/>
       <c r="D23" s="26"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
@@ -5586,11 +5838,11 @@
       <c r="A24" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="226">
+      <c r="B24" s="200">
         <f>SUM(F39:F80)</f>
         <v>3262500</v>
       </c>
-      <c r="C24" s="227"/>
+      <c r="C24" s="201"/>
       <c r="D24" s="26"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -5606,11 +5858,11 @@
       <c r="A25" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="228">
+      <c r="B25" s="202">
         <f>B23+B24</f>
         <v>50762500</v>
       </c>
-      <c r="C25" s="229"/>
+      <c r="C25" s="203"/>
       <c r="D25" s="26"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -5785,11 +6037,11 @@
       <c r="A33" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="B33" s="230">
+      <c r="B33" s="204">
         <f>SUMIF(G39:G80,"&gt; -999999999999999999")</f>
         <v>3737500</v>
       </c>
-      <c r="C33" s="231"/>
+      <c r="C33" s="205"/>
       <c r="D33" s="38"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
@@ -5802,15 +6054,15 @@
       <c r="O33" s="9"/>
     </row>
     <row r="34" spans="1:17" s="8" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A34" s="186" t="s">
+      <c r="A34" s="251" t="s">
         <v>155</v>
       </c>
-      <c r="B34" s="186"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
+      <c r="B34" s="251"/>
+      <c r="C34" s="251"/>
+      <c r="D34" s="251"/>
+      <c r="E34" s="251"/>
+      <c r="F34" s="251"/>
+      <c r="G34" s="251"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
@@ -5819,15 +6071,15 @@
       <c r="O34" s="9"/>
     </row>
     <row r="35" spans="1:17" s="8" customFormat="1" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="A35" s="232" t="s">
+      <c r="A35" s="206" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="232"/>
-      <c r="C35" s="232"/>
-      <c r="D35" s="232"/>
-      <c r="E35" s="232"/>
-      <c r="F35" s="232"/>
-      <c r="G35" s="232"/>
+      <c r="B35" s="206"/>
+      <c r="C35" s="206"/>
+      <c r="D35" s="206"/>
+      <c r="E35" s="206"/>
+      <c r="F35" s="206"/>
+      <c r="G35" s="206"/>
       <c r="H35" s="39"/>
       <c r="I35" s="39"/>
       <c r="J35" s="39"/>
@@ -5836,47 +6088,47 @@
       <c r="O35" s="9"/>
     </row>
     <row r="36" spans="1:17" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A36" s="233" t="s">
+      <c r="A36" s="207" t="s">
         <v>112</v>
       </c>
-      <c r="B36" s="234"/>
-      <c r="C36" s="234"/>
-      <c r="D36" s="234"/>
-      <c r="E36" s="234"/>
-      <c r="F36" s="234"/>
-      <c r="G36" s="235"/>
+      <c r="B36" s="208"/>
+      <c r="C36" s="208"/>
+      <c r="D36" s="208"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="208"/>
+      <c r="G36" s="209"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="236" t="s">
+      <c r="A37" s="210" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="238" t="s">
+      <c r="B37" s="212" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="239"/>
-      <c r="D37" s="238" t="s">
+      <c r="C37" s="213"/>
+      <c r="D37" s="212" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="242" t="s">
+      <c r="E37" s="216" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="244" t="s">
+      <c r="F37" s="218" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="245"/>
+      <c r="G37" s="219"/>
       <c r="H37" s="42"/>
       <c r="I37" s="42"/>
       <c r="J37" s="42"/>
     </row>
     <row r="38" spans="1:17" s="46" customFormat="1" ht="58.15" customHeight="1" thickBot="1">
-      <c r="A38" s="237"/>
-      <c r="B38" s="240"/>
-      <c r="C38" s="241"/>
-      <c r="D38" s="240"/>
-      <c r="E38" s="243"/>
+      <c r="A38" s="211"/>
+      <c r="B38" s="214"/>
+      <c r="C38" s="215"/>
+      <c r="D38" s="214"/>
+      <c r="E38" s="217"/>
       <c r="F38" s="43" t="s">
         <v>106</v>
       </c>
@@ -5892,10 +6144,10 @@
       <c r="A39" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="246" t="s">
+      <c r="B39" s="220" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="247"/>
+      <c r="C39" s="221"/>
       <c r="D39" s="103">
         <v>237500</v>
       </c>
@@ -5926,12 +6178,12 @@
     </row>
     <row r="40" spans="1:17" ht="14.25">
       <c r="A40" s="104" t="s">
-        <v>251</v>
-      </c>
-      <c r="B40" s="224" t="s">
+        <v>249</v>
+      </c>
+      <c r="B40" s="193" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="225"/>
+      <c r="C40" s="194"/>
       <c r="D40" s="103">
         <v>3500000</v>
       </c>
@@ -5962,8 +6214,8 @@
     </row>
     <row r="41" spans="1:17" ht="14.25">
       <c r="A41" s="104"/>
-      <c r="B41" s="224"/>
-      <c r="C41" s="225"/>
+      <c r="B41" s="193"/>
+      <c r="C41" s="194"/>
       <c r="D41" s="103"/>
       <c r="E41" s="108"/>
       <c r="F41" s="48" t="str">
@@ -5990,8 +6242,8 @@
     </row>
     <row r="42" spans="1:17" ht="14.25">
       <c r="A42" s="104"/>
-      <c r="B42" s="224"/>
-      <c r="C42" s="225"/>
+      <c r="B42" s="193"/>
+      <c r="C42" s="194"/>
       <c r="D42" s="103"/>
       <c r="E42" s="108"/>
       <c r="F42" s="48" t="str">
@@ -6018,8 +6270,8 @@
     </row>
     <row r="43" spans="1:17" ht="14.25">
       <c r="A43" s="104"/>
-      <c r="B43" s="224"/>
-      <c r="C43" s="225"/>
+      <c r="B43" s="193"/>
+      <c r="C43" s="194"/>
       <c r="D43" s="103"/>
       <c r="E43" s="108"/>
       <c r="F43" s="48" t="str">
@@ -6046,8 +6298,8 @@
     </row>
     <row r="44" spans="1:17" ht="14.25">
       <c r="A44" s="104"/>
-      <c r="B44" s="224"/>
-      <c r="C44" s="225"/>
+      <c r="B44" s="193"/>
+      <c r="C44" s="194"/>
       <c r="D44" s="103"/>
       <c r="E44" s="108"/>
       <c r="F44" s="48" t="str">
@@ -6074,8 +6326,8 @@
     </row>
     <row r="45" spans="1:17" ht="14.25">
       <c r="A45" s="104"/>
-      <c r="B45" s="224"/>
-      <c r="C45" s="225"/>
+      <c r="B45" s="193"/>
+      <c r="C45" s="194"/>
       <c r="D45" s="103"/>
       <c r="E45" s="108"/>
       <c r="F45" s="48" t="str">
@@ -6102,8 +6354,8 @@
     </row>
     <row r="46" spans="1:17" ht="14.25">
       <c r="A46" s="104"/>
-      <c r="B46" s="224"/>
-      <c r="C46" s="225"/>
+      <c r="B46" s="193"/>
+      <c r="C46" s="194"/>
       <c r="D46" s="103"/>
       <c r="E46" s="108"/>
       <c r="F46" s="48" t="str">
@@ -6130,8 +6382,8 @@
     </row>
     <row r="47" spans="1:17" ht="14.25">
       <c r="A47" s="104"/>
-      <c r="B47" s="224"/>
-      <c r="C47" s="225"/>
+      <c r="B47" s="193"/>
+      <c r="C47" s="194"/>
       <c r="D47" s="103"/>
       <c r="E47" s="108"/>
       <c r="F47" s="48" t="str">
@@ -6158,8 +6410,8 @@
     </row>
     <row r="48" spans="1:17" ht="14.25">
       <c r="A48" s="104"/>
-      <c r="B48" s="224"/>
-      <c r="C48" s="225"/>
+      <c r="B48" s="193"/>
+      <c r="C48" s="194"/>
       <c r="D48" s="103"/>
       <c r="E48" s="108"/>
       <c r="F48" s="48" t="str">
@@ -6186,8 +6438,8 @@
     </row>
     <row r="49" spans="1:18" ht="14.25">
       <c r="A49" s="104"/>
-      <c r="B49" s="224"/>
-      <c r="C49" s="225"/>
+      <c r="B49" s="193"/>
+      <c r="C49" s="194"/>
       <c r="D49" s="103"/>
       <c r="E49" s="108"/>
       <c r="F49" s="48" t="str">
@@ -6214,8 +6466,8 @@
     </row>
     <row r="50" spans="1:18" ht="14.25">
       <c r="A50" s="104"/>
-      <c r="B50" s="224"/>
-      <c r="C50" s="225"/>
+      <c r="B50" s="193"/>
+      <c r="C50" s="194"/>
       <c r="D50" s="103"/>
       <c r="E50" s="108"/>
       <c r="F50" s="48" t="str">
@@ -6242,8 +6494,8 @@
     </row>
     <row r="51" spans="1:18" ht="14.25">
       <c r="A51" s="104"/>
-      <c r="B51" s="224"/>
-      <c r="C51" s="225"/>
+      <c r="B51" s="193"/>
+      <c r="C51" s="194"/>
       <c r="D51" s="103"/>
       <c r="E51" s="108"/>
       <c r="F51" s="48" t="str">
@@ -6270,8 +6522,8 @@
     </row>
     <row r="52" spans="1:18" ht="14.25">
       <c r="A52" s="104"/>
-      <c r="B52" s="224"/>
-      <c r="C52" s="225"/>
+      <c r="B52" s="193"/>
+      <c r="C52" s="194"/>
       <c r="D52" s="103"/>
       <c r="E52" s="108"/>
       <c r="F52" s="48" t="str">
@@ -6298,8 +6550,8 @@
     </row>
     <row r="53" spans="1:18" ht="14.25">
       <c r="A53" s="104"/>
-      <c r="B53" s="224"/>
-      <c r="C53" s="225"/>
+      <c r="B53" s="193"/>
+      <c r="C53" s="194"/>
       <c r="D53" s="103"/>
       <c r="E53" s="108"/>
       <c r="F53" s="48" t="str">
@@ -6326,8 +6578,8 @@
     </row>
     <row r="54" spans="1:18" s="53" customFormat="1" ht="14.25">
       <c r="A54" s="104"/>
-      <c r="B54" s="224"/>
-      <c r="C54" s="225"/>
+      <c r="B54" s="193"/>
+      <c r="C54" s="194"/>
       <c r="D54" s="103"/>
       <c r="E54" s="108"/>
       <c r="F54" s="48" t="str">
@@ -6359,8 +6611,8 @@
     </row>
     <row r="55" spans="1:18" ht="14.25">
       <c r="A55" s="104"/>
-      <c r="B55" s="224"/>
-      <c r="C55" s="225"/>
+      <c r="B55" s="193"/>
+      <c r="C55" s="194"/>
       <c r="D55" s="103"/>
       <c r="E55" s="108"/>
       <c r="F55" s="48" t="str">
@@ -6392,8 +6644,8 @@
     </row>
     <row r="56" spans="1:18" ht="15" customHeight="1">
       <c r="A56" s="104"/>
-      <c r="B56" s="224"/>
-      <c r="C56" s="225"/>
+      <c r="B56" s="193"/>
+      <c r="C56" s="194"/>
       <c r="D56" s="103"/>
       <c r="E56" s="108"/>
       <c r="F56" s="48" t="str">
@@ -6425,8 +6677,8 @@
     </row>
     <row r="57" spans="1:18" ht="15.75" customHeight="1">
       <c r="A57" s="104"/>
-      <c r="B57" s="224"/>
-      <c r="C57" s="225"/>
+      <c r="B57" s="193"/>
+      <c r="C57" s="194"/>
       <c r="D57" s="103"/>
       <c r="E57" s="108"/>
       <c r="F57" s="48" t="str">
@@ -6458,8 +6710,8 @@
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1">
       <c r="A58" s="104"/>
-      <c r="B58" s="224"/>
-      <c r="C58" s="225"/>
+      <c r="B58" s="193"/>
+      <c r="C58" s="194"/>
       <c r="D58" s="103"/>
       <c r="E58" s="108"/>
       <c r="F58" s="48" t="str">
@@ -6491,8 +6743,8 @@
     </row>
     <row r="59" spans="1:18" ht="15" customHeight="1">
       <c r="A59" s="104"/>
-      <c r="B59" s="224"/>
-      <c r="C59" s="225"/>
+      <c r="B59" s="193"/>
+      <c r="C59" s="194"/>
       <c r="D59" s="103"/>
       <c r="E59" s="108"/>
       <c r="F59" s="48" t="str">
@@ -6524,8 +6776,8 @@
     </row>
     <row r="60" spans="1:18" ht="14.25">
       <c r="A60" s="104"/>
-      <c r="B60" s="224"/>
-      <c r="C60" s="225"/>
+      <c r="B60" s="193"/>
+      <c r="C60" s="194"/>
       <c r="D60" s="103"/>
       <c r="E60" s="108"/>
       <c r="F60" s="48" t="str">
@@ -6557,8 +6809,8 @@
     </row>
     <row r="61" spans="1:18" ht="12.75" customHeight="1">
       <c r="A61" s="104"/>
-      <c r="B61" s="224"/>
-      <c r="C61" s="225"/>
+      <c r="B61" s="193"/>
+      <c r="C61" s="194"/>
       <c r="D61" s="103"/>
       <c r="E61" s="108"/>
       <c r="F61" s="48" t="str">
@@ -6592,8 +6844,8 @@
     </row>
     <row r="62" spans="1:18" ht="15" customHeight="1">
       <c r="A62" s="104"/>
-      <c r="B62" s="224"/>
-      <c r="C62" s="225"/>
+      <c r="B62" s="193"/>
+      <c r="C62" s="194"/>
       <c r="D62" s="103"/>
       <c r="E62" s="108"/>
       <c r="F62" s="48" t="str">
@@ -6627,8 +6879,8 @@
     </row>
     <row r="63" spans="1:18" ht="14.25">
       <c r="A63" s="104"/>
-      <c r="B63" s="224"/>
-      <c r="C63" s="225"/>
+      <c r="B63" s="193"/>
+      <c r="C63" s="194"/>
       <c r="D63" s="103"/>
       <c r="E63" s="108"/>
       <c r="F63" s="48" t="str">
@@ -6662,8 +6914,8 @@
     </row>
     <row r="64" spans="1:18" ht="14.25">
       <c r="A64" s="104"/>
-      <c r="B64" s="224"/>
-      <c r="C64" s="225"/>
+      <c r="B64" s="193"/>
+      <c r="C64" s="194"/>
       <c r="D64" s="103"/>
       <c r="E64" s="108"/>
       <c r="F64" s="48" t="str">
@@ -6697,8 +6949,8 @@
     </row>
     <row r="65" spans="1:18" ht="14.25">
       <c r="A65" s="104"/>
-      <c r="B65" s="224"/>
-      <c r="C65" s="225"/>
+      <c r="B65" s="193"/>
+      <c r="C65" s="194"/>
       <c r="D65" s="103"/>
       <c r="E65" s="108"/>
       <c r="F65" s="48" t="str">
@@ -6731,8 +6983,8 @@
     </row>
     <row r="66" spans="1:18" ht="14.25">
       <c r="A66" s="104"/>
-      <c r="B66" s="224"/>
-      <c r="C66" s="225"/>
+      <c r="B66" s="193"/>
+      <c r="C66" s="194"/>
       <c r="D66" s="103"/>
       <c r="E66" s="108"/>
       <c r="F66" s="48" t="str">
@@ -6765,8 +7017,8 @@
     </row>
     <row r="67" spans="1:18" ht="12.75" customHeight="1">
       <c r="A67" s="104"/>
-      <c r="B67" s="224"/>
-      <c r="C67" s="225"/>
+      <c r="B67" s="193"/>
+      <c r="C67" s="194"/>
       <c r="D67" s="103"/>
       <c r="E67" s="108"/>
       <c r="F67" s="48" t="str">
@@ -6799,8 +7051,8 @@
     </row>
     <row r="68" spans="1:18" ht="14.25">
       <c r="A68" s="104"/>
-      <c r="B68" s="224"/>
-      <c r="C68" s="225"/>
+      <c r="B68" s="193"/>
+      <c r="C68" s="194"/>
       <c r="D68" s="103"/>
       <c r="E68" s="108"/>
       <c r="F68" s="48" t="str">
@@ -6832,8 +7084,8 @@
     </row>
     <row r="69" spans="1:18" ht="14.25">
       <c r="A69" s="104"/>
-      <c r="B69" s="224"/>
-      <c r="C69" s="225"/>
+      <c r="B69" s="193"/>
+      <c r="C69" s="194"/>
       <c r="D69" s="103"/>
       <c r="E69" s="108"/>
       <c r="F69" s="48" t="str">
@@ -6860,8 +7112,8 @@
     </row>
     <row r="70" spans="1:18" ht="14.25">
       <c r="A70" s="104"/>
-      <c r="B70" s="224"/>
-      <c r="C70" s="225"/>
+      <c r="B70" s="193"/>
+      <c r="C70" s="194"/>
       <c r="D70" s="103"/>
       <c r="E70" s="108"/>
       <c r="F70" s="48" t="str">
@@ -6888,8 +7140,8 @@
     </row>
     <row r="71" spans="1:18" ht="14.25">
       <c r="A71" s="104"/>
-      <c r="B71" s="224"/>
-      <c r="C71" s="225"/>
+      <c r="B71" s="193"/>
+      <c r="C71" s="194"/>
       <c r="D71" s="103"/>
       <c r="E71" s="108"/>
       <c r="F71" s="48" t="str">
@@ -6916,8 +7168,8 @@
     </row>
     <row r="72" spans="1:18" ht="14.25">
       <c r="A72" s="104"/>
-      <c r="B72" s="224"/>
-      <c r="C72" s="225"/>
+      <c r="B72" s="193"/>
+      <c r="C72" s="194"/>
       <c r="D72" s="103"/>
       <c r="E72" s="108"/>
       <c r="F72" s="48" t="str">
@@ -6944,8 +7196,8 @@
     </row>
     <row r="73" spans="1:18" ht="14.25">
       <c r="A73" s="104"/>
-      <c r="B73" s="224"/>
-      <c r="C73" s="225"/>
+      <c r="B73" s="193"/>
+      <c r="C73" s="194"/>
       <c r="D73" s="103"/>
       <c r="E73" s="108"/>
       <c r="F73" s="48" t="str">
@@ -6972,8 +7224,8 @@
     </row>
     <row r="74" spans="1:18" ht="14.25">
       <c r="A74" s="104"/>
-      <c r="B74" s="224"/>
-      <c r="C74" s="225"/>
+      <c r="B74" s="193"/>
+      <c r="C74" s="194"/>
       <c r="D74" s="103"/>
       <c r="E74" s="108"/>
       <c r="F74" s="48" t="str">
@@ -7000,8 +7252,8 @@
     </row>
     <row r="75" spans="1:18" ht="14.25">
       <c r="A75" s="104"/>
-      <c r="B75" s="224"/>
-      <c r="C75" s="225"/>
+      <c r="B75" s="193"/>
+      <c r="C75" s="194"/>
       <c r="D75" s="103"/>
       <c r="E75" s="108"/>
       <c r="F75" s="48" t="str">
@@ -7028,8 +7280,8 @@
     </row>
     <row r="76" spans="1:18" ht="14.25">
       <c r="A76" s="104"/>
-      <c r="B76" s="224"/>
-      <c r="C76" s="225"/>
+      <c r="B76" s="193"/>
+      <c r="C76" s="194"/>
       <c r="D76" s="103"/>
       <c r="E76" s="108"/>
       <c r="F76" s="48" t="str">
@@ -7056,8 +7308,8 @@
     </row>
     <row r="77" spans="1:18" ht="14.25">
       <c r="A77" s="104"/>
-      <c r="B77" s="224"/>
-      <c r="C77" s="225"/>
+      <c r="B77" s="193"/>
+      <c r="C77" s="194"/>
       <c r="D77" s="103"/>
       <c r="E77" s="108"/>
       <c r="F77" s="48" t="str">
@@ -7084,8 +7336,8 @@
     </row>
     <row r="78" spans="1:18" ht="14.25">
       <c r="A78" s="104"/>
-      <c r="B78" s="224"/>
-      <c r="C78" s="225"/>
+      <c r="B78" s="193"/>
+      <c r="C78" s="194"/>
       <c r="D78" s="103"/>
       <c r="E78" s="108"/>
       <c r="F78" s="48" t="str">
@@ -7112,8 +7364,8 @@
     </row>
     <row r="79" spans="1:18" ht="14.25">
       <c r="A79" s="104"/>
-      <c r="B79" s="224"/>
-      <c r="C79" s="225"/>
+      <c r="B79" s="193"/>
+      <c r="C79" s="194"/>
       <c r="D79" s="103"/>
       <c r="E79" s="108"/>
       <c r="F79" s="48" t="str">
@@ -7140,8 +7392,8 @@
     </row>
     <row r="80" spans="1:18" ht="14.25">
       <c r="A80" s="104"/>
-      <c r="B80" s="224"/>
-      <c r="C80" s="225"/>
+      <c r="B80" s="193"/>
+      <c r="C80" s="194"/>
       <c r="D80" s="103"/>
       <c r="E80" s="108"/>
       <c r="F80" s="48" t="str">
@@ -7168,101 +7420,101 @@
     </row>
     <row r="84" spans="1:5" ht="13.5" thickBot="1"/>
     <row r="85" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A85" s="248" t="s">
+      <c r="A85" s="190" t="s">
         <v>109</v>
       </c>
-      <c r="B85" s="249"/>
-      <c r="C85" s="249"/>
-      <c r="D85" s="249"/>
-      <c r="E85" s="250"/>
+      <c r="B85" s="191"/>
+      <c r="C85" s="191"/>
+      <c r="D85" s="191"/>
+      <c r="E85" s="192"/>
     </row>
     <row r="86" spans="1:5" ht="13.5" thickBot="1">
       <c r="D86" s="40"/>
     </row>
     <row r="87" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A87" s="255" t="s">
+      <c r="A87" s="180" t="s">
         <v>148</v>
       </c>
-      <c r="B87" s="256"/>
-      <c r="C87" s="256"/>
-      <c r="D87" s="256"/>
-      <c r="E87" s="257"/>
+      <c r="B87" s="181"/>
+      <c r="C87" s="181"/>
+      <c r="D87" s="181"/>
+      <c r="E87" s="182"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="261"/>
-      <c r="C88" s="261"/>
-      <c r="D88" s="261"/>
-      <c r="E88" s="262"/>
+      <c r="B88" s="186"/>
+      <c r="C88" s="186"/>
+      <c r="D88" s="186"/>
+      <c r="E88" s="187"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="263"/>
-      <c r="C89" s="263"/>
-      <c r="D89" s="263"/>
-      <c r="E89" s="264"/>
+      <c r="B89" s="188"/>
+      <c r="C89" s="188"/>
+      <c r="D89" s="188"/>
+      <c r="E89" s="189"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="263"/>
-      <c r="C90" s="263"/>
-      <c r="D90" s="263"/>
-      <c r="E90" s="264"/>
+      <c r="B90" s="188"/>
+      <c r="C90" s="188"/>
+      <c r="D90" s="188"/>
+      <c r="E90" s="189"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B91" s="263"/>
-      <c r="C91" s="263"/>
-      <c r="D91" s="263"/>
-      <c r="E91" s="264"/>
+      <c r="B91" s="188"/>
+      <c r="C91" s="188"/>
+      <c r="D91" s="188"/>
+      <c r="E91" s="189"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="251"/>
-      <c r="C92" s="251"/>
-      <c r="D92" s="251"/>
-      <c r="E92" s="252"/>
+      <c r="B92" s="176"/>
+      <c r="C92" s="176"/>
+      <c r="D92" s="176"/>
+      <c r="E92" s="177"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B93" s="251"/>
-      <c r="C93" s="251"/>
-      <c r="D93" s="251"/>
-      <c r="E93" s="252"/>
+      <c r="B93" s="176"/>
+      <c r="C93" s="176"/>
+      <c r="D93" s="176"/>
+      <c r="E93" s="177"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" thickBot="1">
       <c r="A94" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="B94" s="253"/>
-      <c r="C94" s="253"/>
-      <c r="D94" s="253"/>
-      <c r="E94" s="254"/>
+      <c r="B94" s="178"/>
+      <c r="C94" s="178"/>
+      <c r="D94" s="178"/>
+      <c r="E94" s="179"/>
     </row>
     <row r="95" spans="1:5" ht="13.5" thickBot="1">
       <c r="B95" s="41"/>
       <c r="C95" s="41"/>
     </row>
     <row r="96" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A96" s="255" t="s">
+      <c r="A96" s="180" t="s">
         <v>150</v>
       </c>
-      <c r="B96" s="256"/>
-      <c r="C96" s="256"/>
-      <c r="D96" s="256"/>
-      <c r="E96" s="257"/>
+      <c r="B96" s="181"/>
+      <c r="C96" s="181"/>
+      <c r="D96" s="181"/>
+      <c r="E96" s="182"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="61" t="s">
@@ -7331,13 +7583,13 @@
       <c r="C103" s="41"/>
     </row>
     <row r="104" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A104" s="258" t="s">
+      <c r="A104" s="183" t="s">
         <v>151</v>
       </c>
-      <c r="B104" s="259"/>
-      <c r="C104" s="259"/>
-      <c r="D104" s="259"/>
-      <c r="E104" s="260"/>
+      <c r="B104" s="184"/>
+      <c r="C104" s="184"/>
+      <c r="D104" s="184"/>
+      <c r="E104" s="185"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
@@ -7368,22 +7620,22 @@
     </row>
     <row r="108" spans="1:5" ht="13.5" thickBot="1"/>
     <row r="109" spans="1:5" ht="15" thickBot="1">
-      <c r="A109" s="177" t="s">
+      <c r="A109" s="241" t="s">
         <v>152</v>
       </c>
-      <c r="B109" s="178"/>
-      <c r="C109" s="178"/>
-      <c r="D109" s="178"/>
-      <c r="E109" s="179"/>
+      <c r="B109" s="242"/>
+      <c r="C109" s="242"/>
+      <c r="D109" s="242"/>
+      <c r="E109" s="243"/>
     </row>
     <row r="110" spans="1:5" ht="14.45" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B110" s="187"/>
-      <c r="C110" s="187"/>
-      <c r="D110" s="187"/>
-      <c r="E110" s="188"/>
+      <c r="B110" s="252"/>
+      <c r="C110" s="252"/>
+      <c r="D110" s="252"/>
+      <c r="E110" s="253"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
@@ -7416,72 +7668,58 @@
       <c r="E113" s="89"/>
     </row>
     <row r="114" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A114" s="189" t="s">
+      <c r="A114" s="254" t="s">
         <v>97</v>
       </c>
-      <c r="B114" s="180"/>
-      <c r="C114" s="180"/>
-      <c r="D114" s="180"/>
-      <c r="E114" s="181"/>
+      <c r="B114" s="244"/>
+      <c r="C114" s="244"/>
+      <c r="D114" s="244"/>
+      <c r="E114" s="245"/>
     </row>
     <row r="115" spans="1:5" ht="15" customHeight="1" thickBot="1">
-      <c r="A115" s="190"/>
-      <c r="B115" s="182"/>
-      <c r="C115" s="182"/>
-      <c r="D115" s="182"/>
-      <c r="E115" s="183"/>
+      <c r="A115" s="255"/>
+      <c r="B115" s="246"/>
+      <c r="C115" s="246"/>
+      <c r="D115" s="246"/>
+      <c r="E115" s="247"/>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="B114:E115"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="B44:C44"/>
@@ -7498,41 +7736,55 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="B114:E115"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
   </mergeCells>
   <phoneticPr fontId="44" type="noConversion"/>
   <dataValidations count="4">
@@ -7897,7 +8149,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C16" s="140" t="s">
         <v>28</v>
@@ -7917,7 +8169,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C17" s="140" t="s">
         <v>28</v>
@@ -7957,7 +8209,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C19" s="140" t="s">
         <v>40</v>
@@ -7977,7 +8229,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C20" s="140" t="s">
         <v>40</v>
@@ -7997,7 +8249,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C21" s="140" t="s">
         <v>40</v>
@@ -8037,7 +8289,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="75" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C23" s="140" t="s">
         <v>40</v>
@@ -8231,7 +8483,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="163" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C33" s="164" t="s">
         <v>40</v>
@@ -8310,11 +8562,11 @@
     </row>
     <row r="39" spans="1:6" s="85" customFormat="1" ht="14.45" customHeight="1">
       <c r="A39" s="142"/>
-      <c r="B39" s="265" t="s">
+      <c r="B39" s="266" t="s">
         <v>162</v>
       </c>
-      <c r="C39" s="265"/>
-      <c r="D39" s="265"/>
+      <c r="C39" s="266"/>
+      <c r="D39" s="266"/>
     </row>
     <row r="40" spans="1:6" s="85" customFormat="1" ht="15">
       <c r="A40" s="142"/>
@@ -8342,11 +8594,11 @@
     </row>
     <row r="44" spans="1:6" s="85" customFormat="1">
       <c r="A44" s="142"/>
-      <c r="B44" s="265" t="s">
+      <c r="B44" s="266" t="s">
         <v>168</v>
       </c>
-      <c r="C44" s="265"/>
-      <c r="D44" s="265"/>
+      <c r="C44" s="266"/>
+      <c r="D44" s="266"/>
     </row>
     <row r="45" spans="1:6" s="85" customFormat="1">
       <c r="A45" s="142"/>
@@ -8386,11 +8638,11 @@
   </sheetPr>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -8429,10 +8681,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>37</v>
+        <v>250</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="D2" s="140" t="s">
         <v>28</v>
@@ -8460,7 +8712,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D3" s="140" t="s">
         <v>28</v>
@@ -8485,10 +8737,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>59</v>
+        <v>252</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D4" s="140" t="s">
         <v>28</v>
@@ -8513,10 +8765,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>60</v>
+        <v>253</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D5" s="140" t="s">
         <v>28</v>
@@ -8539,10 +8791,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="D6" s="140" t="s">
         <v>28</v>
@@ -8568,7 +8820,7 @@
         <v>79</v>
       </c>
       <c r="C7" s="158" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D7" s="159" t="s">
         <v>28</v>
@@ -8594,7 +8846,7 @@
         <v>80</v>
       </c>
       <c r="C8" s="158" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D8" s="159" t="s">
         <v>28</v>
@@ -8620,7 +8872,7 @@
         <v>81</v>
       </c>
       <c r="C9" s="158" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D9" s="159" t="s">
         <v>28</v>
@@ -8646,7 +8898,7 @@
         <v>82</v>
       </c>
       <c r="C10" s="158" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D10" s="159" t="s">
         <v>28</v>
@@ -8672,7 +8924,7 @@
         <v>83</v>
       </c>
       <c r="C11" s="158" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D11" s="159" t="s">
         <v>28</v>
@@ -8698,7 +8950,7 @@
         <v>84</v>
       </c>
       <c r="C12" s="158" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D12" s="159" t="s">
         <v>28</v>
@@ -8724,7 +8976,7 @@
         <v>85</v>
       </c>
       <c r="C13" s="158" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D13" s="159" t="s">
         <v>28</v>
@@ -8750,7 +9002,7 @@
         <v>86</v>
       </c>
       <c r="C14" s="158" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D14" s="159" t="s">
         <v>28</v>
@@ -8775,8 +9027,8 @@
       <c r="B15" s="158" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="266" t="s">
-        <v>248</v>
+      <c r="C15" s="175" t="s">
+        <v>246</v>
       </c>
       <c r="D15" s="159" t="s">
         <v>28</v>
@@ -8799,10 +9051,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D16" s="140" t="s">
         <v>28</v>
@@ -8825,10 +9077,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C17" s="75" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D17" s="140" t="s">
         <v>28</v>
@@ -8854,7 +9106,7 @@
         <v>61</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D18" s="76" t="s">
         <v>28</v>
@@ -8877,7 +9129,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C19" s="166" t="s">
         <v>223</v>
@@ -8903,10 +9155,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C20" s="166" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D20" s="140" t="s">
         <v>40</v>
@@ -8929,7 +9181,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C21" s="166" t="s">
         <v>172</v>
@@ -8981,7 +9233,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="75" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C23" s="166" t="s">
         <v>174</v>
@@ -9235,7 +9487,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="163" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C33" s="170" t="s">
         <v>184</v>
@@ -9339,12 +9591,12 @@
     </row>
     <row r="39" spans="1:8" s="85" customFormat="1" ht="14.45" customHeight="1">
       <c r="A39" s="142"/>
-      <c r="B39" s="265" t="s">
+      <c r="B39" s="266" t="s">
         <v>162</v>
       </c>
-      <c r="C39" s="265"/>
-      <c r="D39" s="265"/>
-      <c r="E39" s="265"/>
+      <c r="C39" s="266"/>
+      <c r="D39" s="266"/>
+      <c r="E39" s="266"/>
     </row>
     <row r="40" spans="1:8" s="85" customFormat="1" ht="15">
       <c r="A40" s="142"/>
@@ -9373,12 +9625,12 @@
     </row>
     <row r="44" spans="1:8" s="85" customFormat="1">
       <c r="A44" s="142"/>
-      <c r="B44" s="265" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44" s="265"/>
-      <c r="D44" s="265"/>
-      <c r="E44" s="265"/>
+      <c r="B44" s="266" t="s">
+        <v>256</v>
+      </c>
+      <c r="C44" s="266"/>
+      <c r="D44" s="266"/>
+      <c r="E44" s="266"/>
     </row>
     <row r="45" spans="1:8" s="85" customFormat="1">
       <c r="A45" s="142"/>
